--- a/数据整理/funds/高分权益基金组合十大持仓明细.xlsx
+++ b/数据整理/funds/高分权益基金组合十大持仓明细.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16920"/>
+    <workbookView windowHeight="16920" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="十大持仓明细--2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet name="十大持仓明细--2021-Q2" sheetId="2" r:id="rId2"/>
+    <sheet name="十大持仓明细--2021-08-28" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'十大持仓明细--2021-Q1'!$A$1:$O$61</definedName>
@@ -17,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509">
   <si>
     <t>基金代码</t>
   </si>
@@ -839,6 +841,711 @@
   </si>
   <si>
     <t>休闲服务</t>
+  </si>
+  <si>
+    <t>67.20</t>
+  </si>
+  <si>
+    <t>91.12</t>
+  </si>
+  <si>
+    <t>47.67</t>
+  </si>
+  <si>
+    <t>002709</t>
+  </si>
+  <si>
+    <t>天赐材料</t>
+  </si>
+  <si>
+    <t>7.90</t>
+  </si>
+  <si>
+    <t>其他化学制品</t>
+  </si>
+  <si>
+    <t>7.06</t>
+  </si>
+  <si>
+    <t>5.93</t>
+  </si>
+  <si>
+    <t>5.58</t>
+  </si>
+  <si>
+    <t>5.29</t>
+  </si>
+  <si>
+    <t>300919</t>
+  </si>
+  <si>
+    <t>中伟股份</t>
+  </si>
+  <si>
+    <t>3.79</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>000009</t>
+  </si>
+  <si>
+    <t>中国宝安</t>
+  </si>
+  <si>
+    <t>3.07</t>
+  </si>
+  <si>
+    <t>综合</t>
+  </si>
+  <si>
+    <t>2.98</t>
+  </si>
+  <si>
+    <t>2.97</t>
+  </si>
+  <si>
+    <t>45.10</t>
+  </si>
+  <si>
+    <t>93.81</t>
+  </si>
+  <si>
+    <t>53.48</t>
+  </si>
+  <si>
+    <t>9.18</t>
+  </si>
+  <si>
+    <t>6.87</t>
+  </si>
+  <si>
+    <t>5.62</t>
+  </si>
+  <si>
+    <t>5.36</t>
+  </si>
+  <si>
+    <t>4.98</t>
+  </si>
+  <si>
+    <t>4.73</t>
+  </si>
+  <si>
+    <t>4.25</t>
+  </si>
+  <si>
+    <t>3.84</t>
+  </si>
+  <si>
+    <t>000002</t>
+  </si>
+  <si>
+    <t>万科A</t>
+  </si>
+  <si>
+    <t>3.74</t>
+  </si>
+  <si>
+    <t>房地产开发</t>
+  </si>
+  <si>
+    <t>房地产</t>
+  </si>
+  <si>
+    <t>196.76</t>
+  </si>
+  <si>
+    <t>93.92</t>
+  </si>
+  <si>
+    <t>46.49</t>
+  </si>
+  <si>
+    <t>9.71</t>
+  </si>
+  <si>
+    <t>6.23</t>
+  </si>
+  <si>
+    <t>5.98</t>
+  </si>
+  <si>
+    <t>4.51</t>
+  </si>
+  <si>
+    <t>601166</t>
+  </si>
+  <si>
+    <t>兴业银行</t>
+  </si>
+  <si>
+    <t>4.09</t>
+  </si>
+  <si>
+    <t>3.43</t>
+  </si>
+  <si>
+    <t>600315</t>
+  </si>
+  <si>
+    <t>上海家化</t>
+  </si>
+  <si>
+    <t>3.37</t>
+  </si>
+  <si>
+    <t>日用化学产品</t>
+  </si>
+  <si>
+    <t>2.83</t>
+  </si>
+  <si>
+    <t>2.73</t>
+  </si>
+  <si>
+    <t>20.54</t>
+  </si>
+  <si>
+    <t>84.79</t>
+  </si>
+  <si>
+    <t>35.60</t>
+  </si>
+  <si>
+    <t>5.80</t>
+  </si>
+  <si>
+    <t>5.01</t>
+  </si>
+  <si>
+    <t>4.95</t>
+  </si>
+  <si>
+    <t>4.13</t>
+  </si>
+  <si>
+    <t>3.48</t>
+  </si>
+  <si>
+    <t>2.63</t>
+  </si>
+  <si>
+    <t>2.60</t>
+  </si>
+  <si>
+    <t>2.56</t>
+  </si>
+  <si>
+    <t>000799</t>
+  </si>
+  <si>
+    <t>酒鬼酒</t>
+  </si>
+  <si>
+    <t>300015</t>
+  </si>
+  <si>
+    <t>爱尔眼科</t>
+  </si>
+  <si>
+    <t>2.09</t>
+  </si>
+  <si>
+    <t>2.06</t>
+  </si>
+  <si>
+    <t>83.54</t>
+  </si>
+  <si>
+    <t>43.22</t>
+  </si>
+  <si>
+    <t>002614</t>
+  </si>
+  <si>
+    <t>奥佳华</t>
+  </si>
+  <si>
+    <t>6.03</t>
+  </si>
+  <si>
+    <t>5.34</t>
+  </si>
+  <si>
+    <t>002049</t>
+  </si>
+  <si>
+    <t>紫光国微</t>
+  </si>
+  <si>
+    <t>5.24</t>
+  </si>
+  <si>
+    <t>600600</t>
+  </si>
+  <si>
+    <t>青岛啤酒</t>
+  </si>
+  <si>
+    <t>5.11</t>
+  </si>
+  <si>
+    <t>啤酒</t>
+  </si>
+  <si>
+    <t>688169</t>
+  </si>
+  <si>
+    <t>石头科技</t>
+  </si>
+  <si>
+    <t>4.59</t>
+  </si>
+  <si>
+    <t>其它通用机械</t>
+  </si>
+  <si>
+    <t>3.99</t>
+  </si>
+  <si>
+    <t>300413</t>
+  </si>
+  <si>
+    <t>芒果超媒</t>
+  </si>
+  <si>
+    <t>600329</t>
+  </si>
+  <si>
+    <t>中新药业</t>
+  </si>
+  <si>
+    <t>3.27</t>
+  </si>
+  <si>
+    <t>中药</t>
+  </si>
+  <si>
+    <t>600063</t>
+  </si>
+  <si>
+    <t>皖维高新</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>维纶</t>
+  </si>
+  <si>
+    <t>3.02</t>
+  </si>
+  <si>
+    <t>12.18</t>
+  </si>
+  <si>
+    <t>63.07</t>
+  </si>
+  <si>
+    <t>42.34</t>
+  </si>
+  <si>
+    <t>6.30</t>
+  </si>
+  <si>
+    <t>4.36</t>
+  </si>
+  <si>
+    <t>4.33</t>
+  </si>
+  <si>
+    <t>600298</t>
+  </si>
+  <si>
+    <t>安琪酵母</t>
+  </si>
+  <si>
+    <t>4.15</t>
+  </si>
+  <si>
+    <t>其他农产品加工</t>
+  </si>
+  <si>
+    <t>农产品加工</t>
+  </si>
+  <si>
+    <t>4.02</t>
+  </si>
+  <si>
+    <t>300003</t>
+  </si>
+  <si>
+    <t>乐普医疗</t>
+  </si>
+  <si>
+    <t>3.85</t>
+  </si>
+  <si>
+    <t>3.56</t>
+  </si>
+  <si>
+    <t>3.26</t>
+  </si>
+  <si>
+    <t>001054</t>
+  </si>
+  <si>
+    <t>工银新金融股票</t>
+  </si>
+  <si>
+    <t>鄢耀</t>
+  </si>
+  <si>
+    <t>46.06</t>
+  </si>
+  <si>
+    <t>85.06</t>
+  </si>
+  <si>
+    <t>39.75</t>
+  </si>
+  <si>
+    <t>6.62</t>
+  </si>
+  <si>
+    <t>5.92</t>
+  </si>
+  <si>
+    <t>5.27</t>
+  </si>
+  <si>
+    <t>002179</t>
+  </si>
+  <si>
+    <t>中航光电</t>
+  </si>
+  <si>
+    <t>4.77</t>
+  </si>
+  <si>
+    <t>航空装备</t>
+  </si>
+  <si>
+    <t>国防军工</t>
+  </si>
+  <si>
+    <t>4.27</t>
+  </si>
+  <si>
+    <t>2.88</t>
+  </si>
+  <si>
+    <t>002568</t>
+  </si>
+  <si>
+    <t>百润股份</t>
+  </si>
+  <si>
+    <t>2.61</t>
+  </si>
+  <si>
+    <t>其他酒类</t>
+  </si>
+  <si>
+    <t>2.33</t>
+  </si>
+  <si>
+    <t>603501</t>
+  </si>
+  <si>
+    <t>韦尔股份</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>000991</t>
+  </si>
+  <si>
+    <t>工银瑞信战略转型主题股票A</t>
+  </si>
+  <si>
+    <t>杜洋</t>
+  </si>
+  <si>
+    <t>44.61</t>
+  </si>
+  <si>
+    <t>93.22</t>
+  </si>
+  <si>
+    <t>43.94</t>
+  </si>
+  <si>
+    <t>601668</t>
+  </si>
+  <si>
+    <t>中国建筑</t>
+  </si>
+  <si>
+    <t>9.12</t>
+  </si>
+  <si>
+    <t>房屋建设</t>
+  </si>
+  <si>
+    <t>建筑装饰</t>
+  </si>
+  <si>
+    <t>601009</t>
+  </si>
+  <si>
+    <t>南京银行</t>
+  </si>
+  <si>
+    <t>4.92</t>
+  </si>
+  <si>
+    <t>601818</t>
+  </si>
+  <si>
+    <t>光大银行</t>
+  </si>
+  <si>
+    <t>4.76</t>
+  </si>
+  <si>
+    <t>4.60</t>
+  </si>
+  <si>
+    <t>601699</t>
+  </si>
+  <si>
+    <t>潞安环能</t>
+  </si>
+  <si>
+    <t>4.56</t>
+  </si>
+  <si>
+    <t>煤炭开采</t>
+  </si>
+  <si>
+    <t>采掘</t>
+  </si>
+  <si>
+    <t>3.86</t>
+  </si>
+  <si>
+    <t>002791</t>
+  </si>
+  <si>
+    <t>坚朗五金</t>
+  </si>
+  <si>
+    <t>其他建材</t>
+  </si>
+  <si>
+    <t>建筑材料</t>
+  </si>
+  <si>
+    <t>002928</t>
+  </si>
+  <si>
+    <t>华夏航空</t>
+  </si>
+  <si>
+    <t>2.94</t>
+  </si>
+  <si>
+    <t>600188</t>
+  </si>
+  <si>
+    <t>兖州煤业</t>
+  </si>
+  <si>
+    <t>002138</t>
+  </si>
+  <si>
+    <t>顺络电子</t>
+  </si>
+  <si>
+    <t>2.46</t>
+  </si>
+  <si>
+    <t>被动元件</t>
+  </si>
+  <si>
+    <t>元件</t>
+  </si>
+  <si>
+    <t>540003</t>
+  </si>
+  <si>
+    <t>汇丰晋信动态策略混合A</t>
+  </si>
+  <si>
+    <t>陆彬</t>
+  </si>
+  <si>
+    <t>77.12</t>
+  </si>
+  <si>
+    <t>37.45</t>
+  </si>
+  <si>
+    <t>300115</t>
+  </si>
+  <si>
+    <t>长盈精密</t>
+  </si>
+  <si>
+    <t>4.26</t>
+  </si>
+  <si>
+    <t>688006</t>
+  </si>
+  <si>
+    <t>杭可科技</t>
+  </si>
+  <si>
+    <t>其它专用机械</t>
+  </si>
+  <si>
+    <t>专用设备</t>
+  </si>
+  <si>
+    <t>3.95</t>
+  </si>
+  <si>
+    <t>601601</t>
+  </si>
+  <si>
+    <t>中国太保</t>
+  </si>
+  <si>
+    <t>3.75</t>
+  </si>
+  <si>
+    <t>002497</t>
+  </si>
+  <si>
+    <t>雅化集团</t>
+  </si>
+  <si>
+    <t>3.54</t>
+  </si>
+  <si>
+    <t>民爆用品</t>
+  </si>
+  <si>
+    <t>600048</t>
+  </si>
+  <si>
+    <t>保利地产</t>
+  </si>
+  <si>
+    <t>3.35</t>
+  </si>
+  <si>
+    <t>603599</t>
+  </si>
+  <si>
+    <t>广信股份</t>
+  </si>
+  <si>
+    <t>农药</t>
+  </si>
+  <si>
+    <t>601288</t>
+  </si>
+  <si>
+    <t>农业银行</t>
+  </si>
+  <si>
+    <t>163409</t>
+  </si>
+  <si>
+    <t>兴全绿色投资混合(LOF)</t>
+  </si>
+  <si>
+    <t>邹欣</t>
+  </si>
+  <si>
+    <t>58.15</t>
+  </si>
+  <si>
+    <t>86.76</t>
+  </si>
+  <si>
+    <t>35.83</t>
+  </si>
+  <si>
+    <t>000651</t>
+  </si>
+  <si>
+    <t>格力电器</t>
+  </si>
+  <si>
+    <t>5.20</t>
+  </si>
+  <si>
+    <t>空调</t>
+  </si>
+  <si>
+    <t>601636</t>
+  </si>
+  <si>
+    <t>旗滨集团</t>
+  </si>
+  <si>
+    <t>玻璃制造</t>
+  </si>
+  <si>
+    <t>4.14</t>
+  </si>
+  <si>
+    <t>601857</t>
+  </si>
+  <si>
+    <t>中国石油</t>
+  </si>
+  <si>
+    <t>石油开采</t>
+  </si>
+  <si>
+    <t>002938</t>
+  </si>
+  <si>
+    <t>鹏鼎控股</t>
+  </si>
+  <si>
+    <t>2.87</t>
+  </si>
+  <si>
+    <t>印制电路板</t>
+  </si>
+  <si>
+    <t>601899</t>
+  </si>
+  <si>
+    <t>紫金矿业</t>
+  </si>
+  <si>
+    <t>黄金</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>000921</t>
+  </si>
+  <si>
+    <t>海信家电</t>
+  </si>
+  <si>
+    <t>1.93</t>
   </si>
 </sst>
 </file>
@@ -846,12 +1553,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -862,16 +1569,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -887,22 +1593,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -929,75 +1619,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1013,7 +1644,89 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1034,25 +1747,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,7 +1765,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,7 +1831,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,25 +1861,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,19 +1885,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,13 +1909,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1166,49 +1921,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1240,26 +1953,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1279,16 +1974,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1320,16 +2024,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1337,160 +2050,163 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1841,75 +2557,75 @@
   <sheetPr/>
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="26.1875" customWidth="1"/>
-    <col min="4" max="4" width="17.4017857142857" customWidth="1"/>
+    <col min="3" max="3" width="26.1923076923077" customWidth="1"/>
+    <col min="4" max="4" width="17.4038461538462" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="20.0892857142857" customWidth="1"/>
-    <col min="7" max="7" width="15.7678571428571" customWidth="1"/>
-    <col min="8" max="8" width="14.7321428571429" customWidth="1"/>
-    <col min="9" max="9" width="13.6875" customWidth="1"/>
-    <col min="10" max="10" width="16.8125" customWidth="1"/>
-    <col min="11" max="11" width="10.5714285714286" customWidth="1"/>
-    <col min="12" max="12" width="8.92857142857143" customWidth="1"/>
-    <col min="13" max="13" width="17.5625" customWidth="1"/>
-    <col min="14" max="14" width="14.1339285714286" customWidth="1"/>
-    <col min="15" max="15" width="13.3928571428571" customWidth="1"/>
+    <col min="6" max="6" width="20.0865384615385" customWidth="1"/>
+    <col min="7" max="7" width="15.7692307692308" customWidth="1"/>
+    <col min="8" max="8" width="14.7307692307692" customWidth="1"/>
+    <col min="9" max="9" width="13.6923076923077" customWidth="1"/>
+    <col min="10" max="10" width="16.8173076923077" customWidth="1"/>
+    <col min="11" max="11" width="10.5673076923077" customWidth="1"/>
+    <col min="12" max="12" width="8.93269230769231" customWidth="1"/>
+    <col min="13" max="13" width="17.5673076923077" customWidth="1"/>
+    <col min="14" max="14" width="14.1346153846154" customWidth="1"/>
+    <col min="15" max="15" width="13.3942307692308" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:15">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>25</v>
       </c>
       <c r="B2" t="s">
@@ -1956,7 +2672,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -2003,7 +2719,7 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>20</v>
       </c>
       <c r="B4" t="s">
@@ -2050,7 +2766,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>23</v>
       </c>
       <c r="B5" t="s">
@@ -2097,7 +2813,7 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>30</v>
       </c>
       <c r="B6" t="s">
@@ -2144,7 +2860,7 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>45</v>
       </c>
       <c r="B7" t="s">
@@ -2191,7 +2907,7 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>55</v>
       </c>
       <c r="B8" t="s">
@@ -2238,7 +2954,7 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>1</v>
       </c>
       <c r="B9" t="s">
@@ -2285,7 +3001,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>17</v>
       </c>
       <c r="B10" t="s">
@@ -2332,7 +3048,7 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>26</v>
       </c>
       <c r="B11" t="s">
@@ -2379,7 +3095,7 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>42</v>
       </c>
       <c r="B12" t="s">
@@ -2426,7 +3142,7 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>57</v>
       </c>
       <c r="B13" t="s">
@@ -2473,7 +3189,7 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>7</v>
       </c>
       <c r="B14" t="s">
@@ -2520,7 +3236,7 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>49</v>
       </c>
       <c r="B15" t="s">
@@ -2567,7 +3283,7 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>50</v>
       </c>
       <c r="B16" t="s">
@@ -2614,7 +3330,7 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>31</v>
       </c>
       <c r="B17" t="s">
@@ -2661,7 +3377,7 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>4</v>
       </c>
       <c r="B18" t="s">
@@ -2708,7 +3424,7 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>29</v>
       </c>
       <c r="B19" t="s">
@@ -2755,7 +3471,7 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>58</v>
       </c>
       <c r="B20" t="s">
@@ -2802,7 +3518,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>59</v>
       </c>
       <c r="B21" t="s">
@@ -2849,7 +3565,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>52</v>
       </c>
       <c r="B22" t="s">
@@ -2896,7 +3612,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>15</v>
       </c>
       <c r="B23" t="s">
@@ -2943,7 +3659,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>36</v>
       </c>
       <c r="B24" t="s">
@@ -2990,7 +3706,7 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>51</v>
       </c>
       <c r="B25" t="s">
@@ -3037,7 +3753,7 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>46</v>
       </c>
       <c r="B26" t="s">
@@ -3084,7 +3800,7 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>28</v>
       </c>
       <c r="B27" t="s">
@@ -3131,7 +3847,7 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="3">
+      <c r="A28" s="4">
         <v>39</v>
       </c>
       <c r="B28" t="s">
@@ -3178,7 +3894,7 @@
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>48</v>
       </c>
       <c r="B29" t="s">
@@ -3225,7 +3941,7 @@
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>5</v>
       </c>
       <c r="B30" t="s">
@@ -3272,7 +3988,7 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>11</v>
       </c>
       <c r="B31" t="s">
@@ -3319,7 +4035,7 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>22</v>
       </c>
       <c r="B32" t="s">
@@ -3366,7 +4082,7 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>34</v>
       </c>
       <c r="B33" t="s">
@@ -3413,7 +4129,7 @@
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="3">
+      <c r="A34" s="4">
         <v>37</v>
       </c>
       <c r="B34" t="s">
@@ -3460,7 +4176,7 @@
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="3">
+      <c r="A35" s="4">
         <v>40</v>
       </c>
       <c r="B35" t="s">
@@ -3507,7 +4223,7 @@
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="3">
+      <c r="A36" s="4">
         <v>43</v>
       </c>
       <c r="B36" t="s">
@@ -3554,7 +4270,7 @@
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="3">
+      <c r="A37" s="4">
         <v>47</v>
       </c>
       <c r="B37" t="s">
@@ -3601,7 +4317,7 @@
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="3">
+      <c r="A38" s="4">
         <v>2</v>
       </c>
       <c r="B38" t="s">
@@ -3648,7 +4364,7 @@
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="3">
+      <c r="A39" s="4">
         <v>13</v>
       </c>
       <c r="B39" t="s">
@@ -3695,7 +4411,7 @@
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="3">
+      <c r="A40" s="4">
         <v>21</v>
       </c>
       <c r="B40" t="s">
@@ -3742,7 +4458,7 @@
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="3">
+      <c r="A41" s="4">
         <v>35</v>
       </c>
       <c r="B41" t="s">
@@ -3789,7 +4505,7 @@
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="3">
+      <c r="A42" s="4">
         <v>16</v>
       </c>
       <c r="B42" t="s">
@@ -3836,7 +4552,7 @@
       </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="3">
+      <c r="A43" s="4">
         <v>24</v>
       </c>
       <c r="B43" t="s">
@@ -3883,7 +4599,7 @@
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="3">
+      <c r="A44" s="4">
         <v>41</v>
       </c>
       <c r="B44" t="s">
@@ -3930,7 +4646,7 @@
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="3">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
       <c r="B45" t="s">
@@ -3977,7 +4693,7 @@
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="3">
+      <c r="A46" s="4">
         <v>53</v>
       </c>
       <c r="B46" t="s">
@@ -4024,7 +4740,7 @@
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="3">
+      <c r="A47" s="4">
         <v>14</v>
       </c>
       <c r="B47" t="s">
@@ -4071,7 +4787,7 @@
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="3">
+      <c r="A48" s="4">
         <v>33</v>
       </c>
       <c r="B48" t="s">
@@ -4118,7 +4834,7 @@
       </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="3">
+      <c r="A49" s="4">
         <v>54</v>
       </c>
       <c r="B49" t="s">
@@ -4165,7 +4881,7 @@
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="3">
+      <c r="A50" s="4">
         <v>56</v>
       </c>
       <c r="B50" t="s">
@@ -4212,7 +4928,7 @@
       </c>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="3">
+      <c r="A51" s="4">
         <v>10</v>
       </c>
       <c r="B51" t="s">
@@ -4259,7 +4975,7 @@
       </c>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="3">
+      <c r="A52" s="4">
         <v>38</v>
       </c>
       <c r="B52" t="s">
@@ -4306,7 +5022,7 @@
       </c>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="3">
+      <c r="A53" s="4">
         <v>0</v>
       </c>
       <c r="B53" t="s">
@@ -4353,7 +5069,7 @@
       </c>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="3">
+      <c r="A54" s="4">
         <v>9</v>
       </c>
       <c r="B54" t="s">
@@ -4400,7 +5116,7 @@
       </c>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="3">
+      <c r="A55" s="4">
         <v>18</v>
       </c>
       <c r="B55" t="s">
@@ -4447,7 +5163,7 @@
       </c>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="3">
+      <c r="A56" s="4">
         <v>19</v>
       </c>
       <c r="B56" t="s">
@@ -4494,7 +5210,7 @@
       </c>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="3">
+      <c r="A57" s="4">
         <v>27</v>
       </c>
       <c r="B57" t="s">
@@ -4541,7 +5257,7 @@
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="3">
+      <c r="A58" s="4">
         <v>8</v>
       </c>
       <c r="B58" t="s">
@@ -4588,7 +5304,7 @@
       </c>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="3">
+      <c r="A59" s="4">
         <v>6</v>
       </c>
       <c r="B59" t="s">
@@ -4635,7 +5351,7 @@
       </c>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="3">
+      <c r="A60" s="4">
         <v>32</v>
       </c>
       <c r="B60" t="s">
@@ -4682,7 +5398,7 @@
       </c>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="3">
+      <c r="A61" s="4">
         <v>12</v>
       </c>
       <c r="B61" t="s">
@@ -4730,7 +5446,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O61">
-    <sortState ref="A2:O61">
+    <sortState ref="A1:O61">
       <sortCondition ref="O2:O61" customList="电气设备,电子,计算机,化工,医药生物,银行,非银金融,食品饮料,轻工制造,家用电器,有色金属"/>
       <sortCondition ref="N2:N61"/>
     </sortState>
@@ -4738,4 +5454,5773 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:O61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="3" max="3" width="41.9807692307692" customWidth="1"/>
+    <col min="10" max="10" width="36.6923076923077" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K2" t="s">
+        <v>279</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>280</v>
+      </c>
+      <c r="N2" t="s">
+        <v>117</v>
+      </c>
+      <c r="O2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" t="s">
+        <v>275</v>
+      </c>
+      <c r="H3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>281</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" t="s">
+        <v>275</v>
+      </c>
+      <c r="H4" t="s">
+        <v>276</v>
+      </c>
+      <c r="I4" t="s">
+        <v>233</v>
+      </c>
+      <c r="J4" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" t="s">
+        <v>282</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4" t="s">
+        <v>236</v>
+      </c>
+      <c r="N4" t="s">
+        <v>231</v>
+      </c>
+      <c r="O4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G5" t="s">
+        <v>275</v>
+      </c>
+      <c r="H5" t="s">
+        <v>276</v>
+      </c>
+      <c r="I5" t="s">
+        <v>227</v>
+      </c>
+      <c r="J5" t="s">
+        <v>228</v>
+      </c>
+      <c r="K5" t="s">
+        <v>283</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N5" t="s">
+        <v>231</v>
+      </c>
+      <c r="O5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>274</v>
+      </c>
+      <c r="G6" t="s">
+        <v>275</v>
+      </c>
+      <c r="H6" t="s">
+        <v>276</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>284</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H7" t="s">
+        <v>276</v>
+      </c>
+      <c r="I7" t="s">
+        <v>285</v>
+      </c>
+      <c r="J7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7" t="s">
+        <v>280</v>
+      </c>
+      <c r="N7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G8" t="s">
+        <v>275</v>
+      </c>
+      <c r="H8" t="s">
+        <v>276</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>288</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="M8" t="s">
+        <v>96</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G9" t="s">
+        <v>275</v>
+      </c>
+      <c r="H9" t="s">
+        <v>276</v>
+      </c>
+      <c r="I9" t="s">
+        <v>289</v>
+      </c>
+      <c r="J9" t="s">
+        <v>290</v>
+      </c>
+      <c r="K9" t="s">
+        <v>291</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9" t="s">
+        <v>292</v>
+      </c>
+      <c r="N9" t="s">
+        <v>292</v>
+      </c>
+      <c r="O9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G10" t="s">
+        <v>275</v>
+      </c>
+      <c r="H10" t="s">
+        <v>276</v>
+      </c>
+      <c r="I10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" t="s">
+        <v>293</v>
+      </c>
+      <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="M10" t="s">
+        <v>70</v>
+      </c>
+      <c r="N10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G11" t="s">
+        <v>275</v>
+      </c>
+      <c r="H11" t="s">
+        <v>276</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" t="s">
+        <v>294</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G12" t="s">
+        <v>296</v>
+      </c>
+      <c r="H12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" t="s">
+        <v>298</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" t="s">
+        <v>38</v>
+      </c>
+      <c r="O12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>295</v>
+      </c>
+      <c r="G13" t="s">
+        <v>296</v>
+      </c>
+      <c r="H13" t="s">
+        <v>297</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" t="s">
+        <v>299</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N13" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>295</v>
+      </c>
+      <c r="G14" t="s">
+        <v>296</v>
+      </c>
+      <c r="H14" t="s">
+        <v>297</v>
+      </c>
+      <c r="I14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" t="s">
+        <v>300</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14" t="s">
+        <v>88</v>
+      </c>
+      <c r="N14" t="s">
+        <v>77</v>
+      </c>
+      <c r="O14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>295</v>
+      </c>
+      <c r="G15" t="s">
+        <v>296</v>
+      </c>
+      <c r="H15" t="s">
+        <v>297</v>
+      </c>
+      <c r="I15" t="s">
+        <v>249</v>
+      </c>
+      <c r="J15" t="s">
+        <v>250</v>
+      </c>
+      <c r="K15" t="s">
+        <v>301</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15" t="s">
+        <v>252</v>
+      </c>
+      <c r="N15" t="s">
+        <v>253</v>
+      </c>
+      <c r="O15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>295</v>
+      </c>
+      <c r="G16" t="s">
+        <v>296</v>
+      </c>
+      <c r="H16" t="s">
+        <v>297</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" t="s">
+        <v>302</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>295</v>
+      </c>
+      <c r="G17" t="s">
+        <v>296</v>
+      </c>
+      <c r="H17" t="s">
+        <v>297</v>
+      </c>
+      <c r="I17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J17" t="s">
+        <v>175</v>
+      </c>
+      <c r="K17" t="s">
+        <v>271</v>
+      </c>
+      <c r="L17">
+        <v>6</v>
+      </c>
+      <c r="M17" t="s">
+        <v>177</v>
+      </c>
+      <c r="N17" t="s">
+        <v>177</v>
+      </c>
+      <c r="O17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>295</v>
+      </c>
+      <c r="G18" t="s">
+        <v>296</v>
+      </c>
+      <c r="H18" t="s">
+        <v>297</v>
+      </c>
+      <c r="I18" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" t="s">
+        <v>164</v>
+      </c>
+      <c r="K18" t="s">
+        <v>303</v>
+      </c>
+      <c r="L18">
+        <v>7</v>
+      </c>
+      <c r="M18" t="s">
+        <v>159</v>
+      </c>
+      <c r="N18" t="s">
+        <v>159</v>
+      </c>
+      <c r="O18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>295</v>
+      </c>
+      <c r="G19" t="s">
+        <v>296</v>
+      </c>
+      <c r="H19" t="s">
+        <v>297</v>
+      </c>
+      <c r="I19" t="s">
+        <v>113</v>
+      </c>
+      <c r="J19" t="s">
+        <v>114</v>
+      </c>
+      <c r="K19" t="s">
+        <v>304</v>
+      </c>
+      <c r="L19">
+        <v>8</v>
+      </c>
+      <c r="M19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N19" t="s">
+        <v>117</v>
+      </c>
+      <c r="O19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>295</v>
+      </c>
+      <c r="G20" t="s">
+        <v>296</v>
+      </c>
+      <c r="H20" t="s">
+        <v>297</v>
+      </c>
+      <c r="I20" t="s">
+        <v>149</v>
+      </c>
+      <c r="J20" t="s">
+        <v>150</v>
+      </c>
+      <c r="K20" t="s">
+        <v>305</v>
+      </c>
+      <c r="L20">
+        <v>9</v>
+      </c>
+      <c r="M20" t="s">
+        <v>152</v>
+      </c>
+      <c r="N20" t="s">
+        <v>152</v>
+      </c>
+      <c r="O20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>295</v>
+      </c>
+      <c r="G21" t="s">
+        <v>296</v>
+      </c>
+      <c r="H21" t="s">
+        <v>297</v>
+      </c>
+      <c r="I21" t="s">
+        <v>306</v>
+      </c>
+      <c r="J21" t="s">
+        <v>307</v>
+      </c>
+      <c r="K21" t="s">
+        <v>308</v>
+      </c>
+      <c r="L21">
+        <v>10</v>
+      </c>
+      <c r="M21" t="s">
+        <v>309</v>
+      </c>
+      <c r="N21" t="s">
+        <v>309</v>
+      </c>
+      <c r="O21" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" t="s">
+        <v>311</v>
+      </c>
+      <c r="G22" t="s">
+        <v>312</v>
+      </c>
+      <c r="H22" t="s">
+        <v>313</v>
+      </c>
+      <c r="I22" t="s">
+        <v>217</v>
+      </c>
+      <c r="J22" t="s">
+        <v>218</v>
+      </c>
+      <c r="K22" t="s">
+        <v>314</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>220</v>
+      </c>
+      <c r="N22" t="s">
+        <v>221</v>
+      </c>
+      <c r="O22" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" t="s">
+        <v>311</v>
+      </c>
+      <c r="G23" t="s">
+        <v>312</v>
+      </c>
+      <c r="H23" t="s">
+        <v>313</v>
+      </c>
+      <c r="I23" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" t="s">
+        <v>74</v>
+      </c>
+      <c r="K23" t="s">
+        <v>315</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23" t="s">
+        <v>76</v>
+      </c>
+      <c r="N23" t="s">
+        <v>77</v>
+      </c>
+      <c r="O23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" t="s">
+        <v>311</v>
+      </c>
+      <c r="G24" t="s">
+        <v>312</v>
+      </c>
+      <c r="H24" t="s">
+        <v>313</v>
+      </c>
+      <c r="I24" t="s">
+        <v>160</v>
+      </c>
+      <c r="J24" t="s">
+        <v>161</v>
+      </c>
+      <c r="K24" t="s">
+        <v>316</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24" t="s">
+        <v>159</v>
+      </c>
+      <c r="N24" t="s">
+        <v>159</v>
+      </c>
+      <c r="O24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" t="s">
+        <v>311</v>
+      </c>
+      <c r="G25" t="s">
+        <v>312</v>
+      </c>
+      <c r="H25" t="s">
+        <v>313</v>
+      </c>
+      <c r="I25" t="s">
+        <v>269</v>
+      </c>
+      <c r="J25" t="s">
+        <v>270</v>
+      </c>
+      <c r="K25" t="s">
+        <v>317</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="M25" t="s">
+        <v>272</v>
+      </c>
+      <c r="N25" t="s">
+        <v>272</v>
+      </c>
+      <c r="O25" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" t="s">
+        <v>311</v>
+      </c>
+      <c r="G26" t="s">
+        <v>312</v>
+      </c>
+      <c r="H26" t="s">
+        <v>313</v>
+      </c>
+      <c r="I26" t="s">
+        <v>318</v>
+      </c>
+      <c r="J26" t="s">
+        <v>319</v>
+      </c>
+      <c r="K26" t="s">
+        <v>320</v>
+      </c>
+      <c r="L26">
+        <v>5</v>
+      </c>
+      <c r="M26" t="s">
+        <v>159</v>
+      </c>
+      <c r="N26" t="s">
+        <v>159</v>
+      </c>
+      <c r="O26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" t="s">
+        <v>311</v>
+      </c>
+      <c r="G27" t="s">
+        <v>312</v>
+      </c>
+      <c r="H27" t="s">
+        <v>313</v>
+      </c>
+      <c r="I27" t="s">
+        <v>203</v>
+      </c>
+      <c r="J27" t="s">
+        <v>204</v>
+      </c>
+      <c r="K27" t="s">
+        <v>187</v>
+      </c>
+      <c r="L27">
+        <v>6</v>
+      </c>
+      <c r="M27" t="s">
+        <v>205</v>
+      </c>
+      <c r="N27" t="s">
+        <v>206</v>
+      </c>
+      <c r="O27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" t="s">
+        <v>311</v>
+      </c>
+      <c r="G28" t="s">
+        <v>312</v>
+      </c>
+      <c r="H28" t="s">
+        <v>313</v>
+      </c>
+      <c r="I28" t="s">
+        <v>113</v>
+      </c>
+      <c r="J28" t="s">
+        <v>114</v>
+      </c>
+      <c r="K28" t="s">
+        <v>321</v>
+      </c>
+      <c r="L28">
+        <v>7</v>
+      </c>
+      <c r="M28" t="s">
+        <v>116</v>
+      </c>
+      <c r="N28" t="s">
+        <v>117</v>
+      </c>
+      <c r="O28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" t="s">
+        <v>311</v>
+      </c>
+      <c r="G29" t="s">
+        <v>312</v>
+      </c>
+      <c r="H29" t="s">
+        <v>313</v>
+      </c>
+      <c r="I29" t="s">
+        <v>322</v>
+      </c>
+      <c r="J29" t="s">
+        <v>323</v>
+      </c>
+      <c r="K29" t="s">
+        <v>324</v>
+      </c>
+      <c r="L29">
+        <v>8</v>
+      </c>
+      <c r="M29" t="s">
+        <v>325</v>
+      </c>
+      <c r="N29" t="s">
+        <v>117</v>
+      </c>
+      <c r="O29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" t="s">
+        <v>311</v>
+      </c>
+      <c r="G30" t="s">
+        <v>312</v>
+      </c>
+      <c r="H30" t="s">
+        <v>313</v>
+      </c>
+      <c r="I30" t="s">
+        <v>131</v>
+      </c>
+      <c r="J30" t="s">
+        <v>132</v>
+      </c>
+      <c r="K30" t="s">
+        <v>326</v>
+      </c>
+      <c r="L30">
+        <v>9</v>
+      </c>
+      <c r="M30" t="s">
+        <v>134</v>
+      </c>
+      <c r="N30" t="s">
+        <v>135</v>
+      </c>
+      <c r="O30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" t="s">
+        <v>311</v>
+      </c>
+      <c r="G31" t="s">
+        <v>312</v>
+      </c>
+      <c r="H31" t="s">
+        <v>313</v>
+      </c>
+      <c r="I31" t="s">
+        <v>237</v>
+      </c>
+      <c r="J31" t="s">
+        <v>238</v>
+      </c>
+      <c r="K31" t="s">
+        <v>327</v>
+      </c>
+      <c r="L31">
+        <v>10</v>
+      </c>
+      <c r="M31" t="s">
+        <v>240</v>
+      </c>
+      <c r="N31" t="s">
+        <v>241</v>
+      </c>
+      <c r="O31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" t="s">
+        <v>328</v>
+      </c>
+      <c r="G32" t="s">
+        <v>329</v>
+      </c>
+      <c r="H32" t="s">
+        <v>330</v>
+      </c>
+      <c r="I32" t="s">
+        <v>34</v>
+      </c>
+      <c r="J32" t="s">
+        <v>35</v>
+      </c>
+      <c r="K32" t="s">
+        <v>331</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32" t="s">
+        <v>37</v>
+      </c>
+      <c r="N32" t="s">
+        <v>38</v>
+      </c>
+      <c r="O32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" t="s">
+        <v>328</v>
+      </c>
+      <c r="G33" t="s">
+        <v>329</v>
+      </c>
+      <c r="H33" t="s">
+        <v>330</v>
+      </c>
+      <c r="I33" t="s">
+        <v>163</v>
+      </c>
+      <c r="J33" t="s">
+        <v>164</v>
+      </c>
+      <c r="K33" t="s">
+        <v>332</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33" t="s">
+        <v>159</v>
+      </c>
+      <c r="N33" t="s">
+        <v>159</v>
+      </c>
+      <c r="O33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" t="s">
+        <v>328</v>
+      </c>
+      <c r="G34" t="s">
+        <v>329</v>
+      </c>
+      <c r="H34" t="s">
+        <v>330</v>
+      </c>
+      <c r="I34" t="s">
+        <v>196</v>
+      </c>
+      <c r="J34" t="s">
+        <v>197</v>
+      </c>
+      <c r="K34" t="s">
+        <v>333</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34" t="s">
+        <v>194</v>
+      </c>
+      <c r="N34" t="s">
+        <v>195</v>
+      </c>
+      <c r="O34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" t="s">
+        <v>328</v>
+      </c>
+      <c r="G35" t="s">
+        <v>329</v>
+      </c>
+      <c r="H35" t="s">
+        <v>330</v>
+      </c>
+      <c r="I35" t="s">
+        <v>73</v>
+      </c>
+      <c r="J35" t="s">
+        <v>74</v>
+      </c>
+      <c r="K35" t="s">
+        <v>334</v>
+      </c>
+      <c r="L35">
+        <v>4</v>
+      </c>
+      <c r="M35" t="s">
+        <v>76</v>
+      </c>
+      <c r="N35" t="s">
+        <v>77</v>
+      </c>
+      <c r="O35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" t="s">
+        <v>328</v>
+      </c>
+      <c r="G36" t="s">
+        <v>329</v>
+      </c>
+      <c r="H36" t="s">
+        <v>330</v>
+      </c>
+      <c r="I36" t="s">
+        <v>199</v>
+      </c>
+      <c r="J36" t="s">
+        <v>200</v>
+      </c>
+      <c r="K36" t="s">
+        <v>335</v>
+      </c>
+      <c r="L36">
+        <v>5</v>
+      </c>
+      <c r="M36" t="s">
+        <v>194</v>
+      </c>
+      <c r="N36" t="s">
+        <v>195</v>
+      </c>
+      <c r="O36" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" t="s">
+        <v>328</v>
+      </c>
+      <c r="G37" t="s">
+        <v>329</v>
+      </c>
+      <c r="H37" t="s">
+        <v>330</v>
+      </c>
+      <c r="I37" t="s">
+        <v>171</v>
+      </c>
+      <c r="J37" t="s">
+        <v>172</v>
+      </c>
+      <c r="K37" t="s">
+        <v>336</v>
+      </c>
+      <c r="L37">
+        <v>6</v>
+      </c>
+      <c r="M37" t="s">
+        <v>159</v>
+      </c>
+      <c r="N37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O37" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" t="s">
+        <v>328</v>
+      </c>
+      <c r="G38" t="s">
+        <v>329</v>
+      </c>
+      <c r="H38" t="s">
+        <v>330</v>
+      </c>
+      <c r="I38" t="s">
+        <v>145</v>
+      </c>
+      <c r="J38" t="s">
+        <v>146</v>
+      </c>
+      <c r="K38" t="s">
+        <v>337</v>
+      </c>
+      <c r="L38">
+        <v>7</v>
+      </c>
+      <c r="M38" t="s">
+        <v>148</v>
+      </c>
+      <c r="N38" t="s">
+        <v>148</v>
+      </c>
+      <c r="O38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" t="s">
+        <v>54</v>
+      </c>
+      <c r="F39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G39" t="s">
+        <v>329</v>
+      </c>
+      <c r="H39" t="s">
+        <v>330</v>
+      </c>
+      <c r="I39" t="s">
+        <v>181</v>
+      </c>
+      <c r="J39" t="s">
+        <v>182</v>
+      </c>
+      <c r="K39" t="s">
+        <v>338</v>
+      </c>
+      <c r="L39">
+        <v>8</v>
+      </c>
+      <c r="M39" t="s">
+        <v>184</v>
+      </c>
+      <c r="N39" t="s">
+        <v>184</v>
+      </c>
+      <c r="O39" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" t="s">
+        <v>328</v>
+      </c>
+      <c r="G40" t="s">
+        <v>329</v>
+      </c>
+      <c r="H40" t="s">
+        <v>330</v>
+      </c>
+      <c r="I40" t="s">
+        <v>339</v>
+      </c>
+      <c r="J40" t="s">
+        <v>340</v>
+      </c>
+      <c r="K40" t="s">
+        <v>147</v>
+      </c>
+      <c r="L40">
+        <v>9</v>
+      </c>
+      <c r="M40" t="s">
+        <v>194</v>
+      </c>
+      <c r="N40" t="s">
+        <v>195</v>
+      </c>
+      <c r="O40" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" t="s">
+        <v>328</v>
+      </c>
+      <c r="G41" t="s">
+        <v>329</v>
+      </c>
+      <c r="H41" t="s">
+        <v>330</v>
+      </c>
+      <c r="I41" t="s">
+        <v>341</v>
+      </c>
+      <c r="J41" t="s">
+        <v>342</v>
+      </c>
+      <c r="K41" t="s">
+        <v>343</v>
+      </c>
+      <c r="L41">
+        <v>10</v>
+      </c>
+      <c r="M41" t="s">
+        <v>148</v>
+      </c>
+      <c r="N41" t="s">
+        <v>148</v>
+      </c>
+      <c r="O41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" t="s">
+        <v>344</v>
+      </c>
+      <c r="G42" t="s">
+        <v>345</v>
+      </c>
+      <c r="H42" t="s">
+        <v>346</v>
+      </c>
+      <c r="I42" t="s">
+        <v>347</v>
+      </c>
+      <c r="J42" t="s">
+        <v>348</v>
+      </c>
+      <c r="K42" t="s">
+        <v>349</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42" t="s">
+        <v>226</v>
+      </c>
+      <c r="N42" t="s">
+        <v>221</v>
+      </c>
+      <c r="O42" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" t="s">
+        <v>344</v>
+      </c>
+      <c r="G43" t="s">
+        <v>345</v>
+      </c>
+      <c r="H43" t="s">
+        <v>346</v>
+      </c>
+      <c r="I43" t="s">
+        <v>67</v>
+      </c>
+      <c r="J43" t="s">
+        <v>68</v>
+      </c>
+      <c r="K43" t="s">
+        <v>350</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+      <c r="M43" t="s">
+        <v>70</v>
+      </c>
+      <c r="N43" t="s">
+        <v>71</v>
+      </c>
+      <c r="O43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" t="s">
+        <v>344</v>
+      </c>
+      <c r="G44" t="s">
+        <v>345</v>
+      </c>
+      <c r="H44" t="s">
+        <v>346</v>
+      </c>
+      <c r="I44" t="s">
+        <v>351</v>
+      </c>
+      <c r="J44" t="s">
+        <v>352</v>
+      </c>
+      <c r="K44" t="s">
+        <v>353</v>
+      </c>
+      <c r="L44">
+        <v>3</v>
+      </c>
+      <c r="M44" t="s">
+        <v>70</v>
+      </c>
+      <c r="N44" t="s">
+        <v>71</v>
+      </c>
+      <c r="O44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" t="s">
+        <v>344</v>
+      </c>
+      <c r="G45" t="s">
+        <v>345</v>
+      </c>
+      <c r="H45" t="s">
+        <v>346</v>
+      </c>
+      <c r="I45" t="s">
+        <v>354</v>
+      </c>
+      <c r="J45" t="s">
+        <v>355</v>
+      </c>
+      <c r="K45" t="s">
+        <v>356</v>
+      </c>
+      <c r="L45">
+        <v>4</v>
+      </c>
+      <c r="M45" t="s">
+        <v>357</v>
+      </c>
+      <c r="N45" t="s">
+        <v>195</v>
+      </c>
+      <c r="O45" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" t="s">
+        <v>344</v>
+      </c>
+      <c r="G46" t="s">
+        <v>345</v>
+      </c>
+      <c r="H46" t="s">
+        <v>346</v>
+      </c>
+      <c r="I46" t="s">
+        <v>358</v>
+      </c>
+      <c r="J46" t="s">
+        <v>359</v>
+      </c>
+      <c r="K46" t="s">
+        <v>360</v>
+      </c>
+      <c r="L46">
+        <v>5</v>
+      </c>
+      <c r="M46" t="s">
+        <v>361</v>
+      </c>
+      <c r="N46" t="s">
+        <v>253</v>
+      </c>
+      <c r="O46" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" t="s">
+        <v>344</v>
+      </c>
+      <c r="G47" t="s">
+        <v>345</v>
+      </c>
+      <c r="H47" t="s">
+        <v>346</v>
+      </c>
+      <c r="I47" t="s">
+        <v>318</v>
+      </c>
+      <c r="J47" t="s">
+        <v>319</v>
+      </c>
+      <c r="K47" t="s">
+        <v>362</v>
+      </c>
+      <c r="L47">
+        <v>6</v>
+      </c>
+      <c r="M47" t="s">
+        <v>159</v>
+      </c>
+      <c r="N47" t="s">
+        <v>159</v>
+      </c>
+      <c r="O47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" t="s">
+        <v>63</v>
+      </c>
+      <c r="F48" t="s">
+        <v>344</v>
+      </c>
+      <c r="G48" t="s">
+        <v>345</v>
+      </c>
+      <c r="H48" t="s">
+        <v>346</v>
+      </c>
+      <c r="I48" t="s">
+        <v>363</v>
+      </c>
+      <c r="J48" t="s">
+        <v>364</v>
+      </c>
+      <c r="K48" t="s">
+        <v>324</v>
+      </c>
+      <c r="L48">
+        <v>7</v>
+      </c>
+      <c r="M48" t="s">
+        <v>240</v>
+      </c>
+      <c r="N48" t="s">
+        <v>241</v>
+      </c>
+      <c r="O48" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" t="s">
+        <v>344</v>
+      </c>
+      <c r="G49" t="s">
+        <v>345</v>
+      </c>
+      <c r="H49" t="s">
+        <v>346</v>
+      </c>
+      <c r="I49" t="s">
+        <v>365</v>
+      </c>
+      <c r="J49" t="s">
+        <v>366</v>
+      </c>
+      <c r="K49" t="s">
+        <v>367</v>
+      </c>
+      <c r="L49">
+        <v>8</v>
+      </c>
+      <c r="M49" t="s">
+        <v>368</v>
+      </c>
+      <c r="N49" t="s">
+        <v>368</v>
+      </c>
+      <c r="O49" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" t="s">
+        <v>344</v>
+      </c>
+      <c r="G50" t="s">
+        <v>345</v>
+      </c>
+      <c r="H50" t="s">
+        <v>346</v>
+      </c>
+      <c r="I50" t="s">
+        <v>369</v>
+      </c>
+      <c r="J50" t="s">
+        <v>370</v>
+      </c>
+      <c r="K50" t="s">
+        <v>371</v>
+      </c>
+      <c r="L50">
+        <v>9</v>
+      </c>
+      <c r="M50" t="s">
+        <v>372</v>
+      </c>
+      <c r="N50" t="s">
+        <v>106</v>
+      </c>
+      <c r="O50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" t="s">
+        <v>344</v>
+      </c>
+      <c r="G51" t="s">
+        <v>345</v>
+      </c>
+      <c r="H51" t="s">
+        <v>346</v>
+      </c>
+      <c r="I51" t="s">
+        <v>102</v>
+      </c>
+      <c r="J51" t="s">
+        <v>103</v>
+      </c>
+      <c r="K51" t="s">
+        <v>373</v>
+      </c>
+      <c r="L51">
+        <v>10</v>
+      </c>
+      <c r="M51" t="s">
+        <v>105</v>
+      </c>
+      <c r="N51" t="s">
+        <v>106</v>
+      </c>
+      <c r="O51" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" t="s">
+        <v>47</v>
+      </c>
+      <c r="F52" t="s">
+        <v>374</v>
+      </c>
+      <c r="G52" t="s">
+        <v>375</v>
+      </c>
+      <c r="H52" t="s">
+        <v>376</v>
+      </c>
+      <c r="I52" t="s">
+        <v>108</v>
+      </c>
+      <c r="J52" t="s">
+        <v>109</v>
+      </c>
+      <c r="K52" t="s">
+        <v>377</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52" t="s">
+        <v>111</v>
+      </c>
+      <c r="N52" t="s">
+        <v>112</v>
+      </c>
+      <c r="O52" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53" t="s">
+        <v>374</v>
+      </c>
+      <c r="G53" t="s">
+        <v>375</v>
+      </c>
+      <c r="H53" t="s">
+        <v>376</v>
+      </c>
+      <c r="I53" t="s">
+        <v>181</v>
+      </c>
+      <c r="J53" t="s">
+        <v>182</v>
+      </c>
+      <c r="K53" t="s">
+        <v>43</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53" t="s">
+        <v>184</v>
+      </c>
+      <c r="N53" t="s">
+        <v>184</v>
+      </c>
+      <c r="O53" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F54" t="s">
+        <v>374</v>
+      </c>
+      <c r="G54" t="s">
+        <v>375</v>
+      </c>
+      <c r="H54" t="s">
+        <v>376</v>
+      </c>
+      <c r="I54" t="s">
+        <v>264</v>
+      </c>
+      <c r="J54" t="s">
+        <v>265</v>
+      </c>
+      <c r="K54" t="s">
+        <v>378</v>
+      </c>
+      <c r="L54">
+        <v>3</v>
+      </c>
+      <c r="M54" t="s">
+        <v>267</v>
+      </c>
+      <c r="N54" t="s">
+        <v>267</v>
+      </c>
+      <c r="O54" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" t="s">
+        <v>47</v>
+      </c>
+      <c r="F55" t="s">
+        <v>374</v>
+      </c>
+      <c r="G55" t="s">
+        <v>375</v>
+      </c>
+      <c r="H55" t="s">
+        <v>376</v>
+      </c>
+      <c r="I55" t="s">
+        <v>39</v>
+      </c>
+      <c r="J55" t="s">
+        <v>40</v>
+      </c>
+      <c r="K55" t="s">
+        <v>379</v>
+      </c>
+      <c r="L55">
+        <v>4</v>
+      </c>
+      <c r="M55" t="s">
+        <v>42</v>
+      </c>
+      <c r="N55" t="s">
+        <v>38</v>
+      </c>
+      <c r="O55" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" t="s">
+        <v>47</v>
+      </c>
+      <c r="F56" t="s">
+        <v>374</v>
+      </c>
+      <c r="G56" t="s">
+        <v>375</v>
+      </c>
+      <c r="H56" t="s">
+        <v>376</v>
+      </c>
+      <c r="I56" t="s">
+        <v>380</v>
+      </c>
+      <c r="J56" t="s">
+        <v>381</v>
+      </c>
+      <c r="K56" t="s">
+        <v>382</v>
+      </c>
+      <c r="L56">
+        <v>5</v>
+      </c>
+      <c r="M56" t="s">
+        <v>383</v>
+      </c>
+      <c r="N56" t="s">
+        <v>384</v>
+      </c>
+      <c r="O56" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" t="s">
+        <v>47</v>
+      </c>
+      <c r="F57" t="s">
+        <v>374</v>
+      </c>
+      <c r="G57" t="s">
+        <v>375</v>
+      </c>
+      <c r="H57" t="s">
+        <v>376</v>
+      </c>
+      <c r="I57" t="s">
+        <v>223</v>
+      </c>
+      <c r="J57" t="s">
+        <v>224</v>
+      </c>
+      <c r="K57" t="s">
+        <v>385</v>
+      </c>
+      <c r="L57">
+        <v>6</v>
+      </c>
+      <c r="M57" t="s">
+        <v>226</v>
+      </c>
+      <c r="N57" t="s">
+        <v>221</v>
+      </c>
+      <c r="O57" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" t="s">
+        <v>47</v>
+      </c>
+      <c r="F58" t="s">
+        <v>374</v>
+      </c>
+      <c r="G58" t="s">
+        <v>375</v>
+      </c>
+      <c r="H58" t="s">
+        <v>376</v>
+      </c>
+      <c r="I58" t="s">
+        <v>386</v>
+      </c>
+      <c r="J58" t="s">
+        <v>387</v>
+      </c>
+      <c r="K58" t="s">
+        <v>388</v>
+      </c>
+      <c r="L58">
+        <v>7</v>
+      </c>
+      <c r="M58" t="s">
+        <v>152</v>
+      </c>
+      <c r="N58" t="s">
+        <v>152</v>
+      </c>
+      <c r="O58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" t="s">
+        <v>47</v>
+      </c>
+      <c r="F59" t="s">
+        <v>374</v>
+      </c>
+      <c r="G59" t="s">
+        <v>375</v>
+      </c>
+      <c r="H59" t="s">
+        <v>376</v>
+      </c>
+      <c r="I59" t="s">
+        <v>208</v>
+      </c>
+      <c r="J59" t="s">
+        <v>209</v>
+      </c>
+      <c r="K59" t="s">
+        <v>389</v>
+      </c>
+      <c r="L59">
+        <v>8</v>
+      </c>
+      <c r="M59" t="s">
+        <v>211</v>
+      </c>
+      <c r="N59" t="s">
+        <v>206</v>
+      </c>
+      <c r="O59" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" t="s">
+        <v>47</v>
+      </c>
+      <c r="F60" t="s">
+        <v>374</v>
+      </c>
+      <c r="G60" t="s">
+        <v>375</v>
+      </c>
+      <c r="H60" t="s">
+        <v>376</v>
+      </c>
+      <c r="I60" t="s">
+        <v>166</v>
+      </c>
+      <c r="J60" t="s">
+        <v>167</v>
+      </c>
+      <c r="K60" t="s">
+        <v>389</v>
+      </c>
+      <c r="L60">
+        <v>9</v>
+      </c>
+      <c r="M60" t="s">
+        <v>159</v>
+      </c>
+      <c r="N60" t="s">
+        <v>159</v>
+      </c>
+      <c r="O60" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" t="s">
+        <v>45</v>
+      </c>
+      <c r="D61" t="s">
+        <v>46</v>
+      </c>
+      <c r="E61" t="s">
+        <v>47</v>
+      </c>
+      <c r="F61" t="s">
+        <v>374</v>
+      </c>
+      <c r="G61" t="s">
+        <v>375</v>
+      </c>
+      <c r="H61" t="s">
+        <v>376</v>
+      </c>
+      <c r="I61" t="s">
+        <v>163</v>
+      </c>
+      <c r="J61" t="s">
+        <v>164</v>
+      </c>
+      <c r="K61" t="s">
+        <v>390</v>
+      </c>
+      <c r="L61">
+        <v>10</v>
+      </c>
+      <c r="M61" t="s">
+        <v>159</v>
+      </c>
+      <c r="N61" t="s">
+        <v>159</v>
+      </c>
+      <c r="O61" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:O61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="15" max="15" width="17.1346153846154" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K2" t="s">
+        <v>279</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>280</v>
+      </c>
+      <c r="N2" t="s">
+        <v>117</v>
+      </c>
+      <c r="O2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" t="s">
+        <v>275</v>
+      </c>
+      <c r="H3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>281</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" t="s">
+        <v>275</v>
+      </c>
+      <c r="H4" t="s">
+        <v>276</v>
+      </c>
+      <c r="I4" t="s">
+        <v>233</v>
+      </c>
+      <c r="J4" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" t="s">
+        <v>282</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4" t="s">
+        <v>236</v>
+      </c>
+      <c r="N4" t="s">
+        <v>231</v>
+      </c>
+      <c r="O4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G5" t="s">
+        <v>275</v>
+      </c>
+      <c r="H5" t="s">
+        <v>276</v>
+      </c>
+      <c r="I5" t="s">
+        <v>227</v>
+      </c>
+      <c r="J5" t="s">
+        <v>228</v>
+      </c>
+      <c r="K5" t="s">
+        <v>283</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5" t="s">
+        <v>230</v>
+      </c>
+      <c r="N5" t="s">
+        <v>231</v>
+      </c>
+      <c r="O5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>274</v>
+      </c>
+      <c r="G6" t="s">
+        <v>275</v>
+      </c>
+      <c r="H6" t="s">
+        <v>276</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>284</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H7" t="s">
+        <v>276</v>
+      </c>
+      <c r="I7" t="s">
+        <v>285</v>
+      </c>
+      <c r="J7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7" t="s">
+        <v>280</v>
+      </c>
+      <c r="N7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G8" t="s">
+        <v>275</v>
+      </c>
+      <c r="H8" t="s">
+        <v>276</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>288</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="M8" t="s">
+        <v>96</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G9" t="s">
+        <v>275</v>
+      </c>
+      <c r="H9" t="s">
+        <v>276</v>
+      </c>
+      <c r="I9" t="s">
+        <v>289</v>
+      </c>
+      <c r="J9" t="s">
+        <v>290</v>
+      </c>
+      <c r="K9" t="s">
+        <v>291</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9" t="s">
+        <v>292</v>
+      </c>
+      <c r="N9" t="s">
+        <v>292</v>
+      </c>
+      <c r="O9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G10" t="s">
+        <v>275</v>
+      </c>
+      <c r="H10" t="s">
+        <v>276</v>
+      </c>
+      <c r="I10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" t="s">
+        <v>293</v>
+      </c>
+      <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="M10" t="s">
+        <v>70</v>
+      </c>
+      <c r="N10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G11" t="s">
+        <v>275</v>
+      </c>
+      <c r="H11" t="s">
+        <v>276</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" t="s">
+        <v>294</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>391</v>
+      </c>
+      <c r="C12" t="s">
+        <v>392</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>393</v>
+      </c>
+      <c r="F12" t="s">
+        <v>394</v>
+      </c>
+      <c r="G12" t="s">
+        <v>395</v>
+      </c>
+      <c r="H12" t="s">
+        <v>396</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" t="s">
+        <v>397</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12" t="s">
+        <v>38</v>
+      </c>
+      <c r="O12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>391</v>
+      </c>
+      <c r="C13" t="s">
+        <v>392</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>393</v>
+      </c>
+      <c r="F13" t="s">
+        <v>394</v>
+      </c>
+      <c r="G13" t="s">
+        <v>395</v>
+      </c>
+      <c r="H13" t="s">
+        <v>396</v>
+      </c>
+      <c r="I13" t="s">
+        <v>163</v>
+      </c>
+      <c r="J13" t="s">
+        <v>164</v>
+      </c>
+      <c r="K13" t="s">
+        <v>398</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N13" t="s">
+        <v>159</v>
+      </c>
+      <c r="O13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>391</v>
+      </c>
+      <c r="C14" t="s">
+        <v>392</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>393</v>
+      </c>
+      <c r="F14" t="s">
+        <v>394</v>
+      </c>
+      <c r="G14" t="s">
+        <v>395</v>
+      </c>
+      <c r="H14" t="s">
+        <v>396</v>
+      </c>
+      <c r="I14" t="s">
+        <v>181</v>
+      </c>
+      <c r="J14" t="s">
+        <v>182</v>
+      </c>
+      <c r="K14" t="s">
+        <v>399</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14" t="s">
+        <v>184</v>
+      </c>
+      <c r="N14" t="s">
+        <v>184</v>
+      </c>
+      <c r="O14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>391</v>
+      </c>
+      <c r="C15" t="s">
+        <v>392</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>393</v>
+      </c>
+      <c r="F15" t="s">
+        <v>394</v>
+      </c>
+      <c r="G15" t="s">
+        <v>395</v>
+      </c>
+      <c r="H15" t="s">
+        <v>396</v>
+      </c>
+      <c r="I15" t="s">
+        <v>400</v>
+      </c>
+      <c r="J15" t="s">
+        <v>401</v>
+      </c>
+      <c r="K15" t="s">
+        <v>402</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15" t="s">
+        <v>403</v>
+      </c>
+      <c r="N15" t="s">
+        <v>403</v>
+      </c>
+      <c r="O15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>391</v>
+      </c>
+      <c r="C16" t="s">
+        <v>392</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>393</v>
+      </c>
+      <c r="F16" t="s">
+        <v>394</v>
+      </c>
+      <c r="G16" t="s">
+        <v>395</v>
+      </c>
+      <c r="H16" t="s">
+        <v>396</v>
+      </c>
+      <c r="I16" t="s">
+        <v>339</v>
+      </c>
+      <c r="J16" t="s">
+        <v>340</v>
+      </c>
+      <c r="K16" t="s">
+        <v>405</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16" t="s">
+        <v>194</v>
+      </c>
+      <c r="N16" t="s">
+        <v>195</v>
+      </c>
+      <c r="O16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>391</v>
+      </c>
+      <c r="C17" t="s">
+        <v>392</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>393</v>
+      </c>
+      <c r="F17" t="s">
+        <v>394</v>
+      </c>
+      <c r="G17" t="s">
+        <v>395</v>
+      </c>
+      <c r="H17" t="s">
+        <v>396</v>
+      </c>
+      <c r="I17" t="s">
+        <v>277</v>
+      </c>
+      <c r="J17" t="s">
+        <v>278</v>
+      </c>
+      <c r="K17" t="s">
+        <v>293</v>
+      </c>
+      <c r="L17">
+        <v>6</v>
+      </c>
+      <c r="M17" t="s">
+        <v>280</v>
+      </c>
+      <c r="N17" t="s">
+        <v>117</v>
+      </c>
+      <c r="O17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>391</v>
+      </c>
+      <c r="C18" t="s">
+        <v>392</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>393</v>
+      </c>
+      <c r="F18" t="s">
+        <v>394</v>
+      </c>
+      <c r="G18" t="s">
+        <v>395</v>
+      </c>
+      <c r="H18" t="s">
+        <v>396</v>
+      </c>
+      <c r="I18" t="s">
+        <v>171</v>
+      </c>
+      <c r="J18" t="s">
+        <v>172</v>
+      </c>
+      <c r="K18" t="s">
+        <v>406</v>
+      </c>
+      <c r="L18">
+        <v>7</v>
+      </c>
+      <c r="M18" t="s">
+        <v>159</v>
+      </c>
+      <c r="N18" t="s">
+        <v>159</v>
+      </c>
+      <c r="O18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>391</v>
+      </c>
+      <c r="C19" t="s">
+        <v>392</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>393</v>
+      </c>
+      <c r="F19" t="s">
+        <v>394</v>
+      </c>
+      <c r="G19" t="s">
+        <v>395</v>
+      </c>
+      <c r="H19" t="s">
+        <v>396</v>
+      </c>
+      <c r="I19" t="s">
+        <v>407</v>
+      </c>
+      <c r="J19" t="s">
+        <v>408</v>
+      </c>
+      <c r="K19" t="s">
+        <v>409</v>
+      </c>
+      <c r="L19">
+        <v>8</v>
+      </c>
+      <c r="M19" t="s">
+        <v>410</v>
+      </c>
+      <c r="N19" t="s">
+        <v>195</v>
+      </c>
+      <c r="O19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>391</v>
+      </c>
+      <c r="C20" t="s">
+        <v>392</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>393</v>
+      </c>
+      <c r="F20" t="s">
+        <v>394</v>
+      </c>
+      <c r="G20" t="s">
+        <v>395</v>
+      </c>
+      <c r="H20" t="s">
+        <v>396</v>
+      </c>
+      <c r="I20" t="s">
+        <v>196</v>
+      </c>
+      <c r="J20" t="s">
+        <v>197</v>
+      </c>
+      <c r="K20" t="s">
+        <v>411</v>
+      </c>
+      <c r="L20">
+        <v>9</v>
+      </c>
+      <c r="M20" t="s">
+        <v>194</v>
+      </c>
+      <c r="N20" t="s">
+        <v>195</v>
+      </c>
+      <c r="O20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>391</v>
+      </c>
+      <c r="C21" t="s">
+        <v>392</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>393</v>
+      </c>
+      <c r="F21" t="s">
+        <v>394</v>
+      </c>
+      <c r="G21" t="s">
+        <v>395</v>
+      </c>
+      <c r="H21" t="s">
+        <v>396</v>
+      </c>
+      <c r="I21" t="s">
+        <v>412</v>
+      </c>
+      <c r="J21" t="s">
+        <v>413</v>
+      </c>
+      <c r="K21" t="s">
+        <v>414</v>
+      </c>
+      <c r="L21">
+        <v>10</v>
+      </c>
+      <c r="M21" t="s">
+        <v>70</v>
+      </c>
+      <c r="N21" t="s">
+        <v>71</v>
+      </c>
+      <c r="O21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>415</v>
+      </c>
+      <c r="C22" t="s">
+        <v>416</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>417</v>
+      </c>
+      <c r="F22" t="s">
+        <v>418</v>
+      </c>
+      <c r="G22" t="s">
+        <v>419</v>
+      </c>
+      <c r="H22" t="s">
+        <v>420</v>
+      </c>
+      <c r="I22" t="s">
+        <v>421</v>
+      </c>
+      <c r="J22" t="s">
+        <v>422</v>
+      </c>
+      <c r="K22" t="s">
+        <v>423</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>424</v>
+      </c>
+      <c r="N22" t="s">
+        <v>424</v>
+      </c>
+      <c r="O22" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>415</v>
+      </c>
+      <c r="C23" t="s">
+        <v>416</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>417</v>
+      </c>
+      <c r="F23" t="s">
+        <v>418</v>
+      </c>
+      <c r="G23" t="s">
+        <v>419</v>
+      </c>
+      <c r="H23" t="s">
+        <v>420</v>
+      </c>
+      <c r="I23" t="s">
+        <v>426</v>
+      </c>
+      <c r="J23" t="s">
+        <v>427</v>
+      </c>
+      <c r="K23" t="s">
+        <v>428</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23" t="s">
+        <v>159</v>
+      </c>
+      <c r="N23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>415</v>
+      </c>
+      <c r="C24" t="s">
+        <v>416</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>417</v>
+      </c>
+      <c r="F24" t="s">
+        <v>418</v>
+      </c>
+      <c r="G24" t="s">
+        <v>419</v>
+      </c>
+      <c r="H24" t="s">
+        <v>420</v>
+      </c>
+      <c r="I24" t="s">
+        <v>429</v>
+      </c>
+      <c r="J24" t="s">
+        <v>430</v>
+      </c>
+      <c r="K24" t="s">
+        <v>431</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24" t="s">
+        <v>159</v>
+      </c>
+      <c r="N24" t="s">
+        <v>159</v>
+      </c>
+      <c r="O24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>415</v>
+      </c>
+      <c r="C25" t="s">
+        <v>416</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>417</v>
+      </c>
+      <c r="F25" t="s">
+        <v>418</v>
+      </c>
+      <c r="G25" t="s">
+        <v>419</v>
+      </c>
+      <c r="H25" t="s">
+        <v>420</v>
+      </c>
+      <c r="I25" t="s">
+        <v>318</v>
+      </c>
+      <c r="J25" t="s">
+        <v>319</v>
+      </c>
+      <c r="K25" t="s">
+        <v>432</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="M25" t="s">
+        <v>159</v>
+      </c>
+      <c r="N25" t="s">
+        <v>159</v>
+      </c>
+      <c r="O25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>415</v>
+      </c>
+      <c r="C26" t="s">
+        <v>416</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>417</v>
+      </c>
+      <c r="F26" t="s">
+        <v>418</v>
+      </c>
+      <c r="G26" t="s">
+        <v>419</v>
+      </c>
+      <c r="H26" t="s">
+        <v>420</v>
+      </c>
+      <c r="I26" t="s">
+        <v>433</v>
+      </c>
+      <c r="J26" t="s">
+        <v>434</v>
+      </c>
+      <c r="K26" t="s">
+        <v>435</v>
+      </c>
+      <c r="L26">
+        <v>5</v>
+      </c>
+      <c r="M26" t="s">
+        <v>436</v>
+      </c>
+      <c r="N26" t="s">
+        <v>436</v>
+      </c>
+      <c r="O26" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>415</v>
+      </c>
+      <c r="C27" t="s">
+        <v>416</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>417</v>
+      </c>
+      <c r="F27" t="s">
+        <v>418</v>
+      </c>
+      <c r="G27" t="s">
+        <v>419</v>
+      </c>
+      <c r="H27" t="s">
+        <v>420</v>
+      </c>
+      <c r="I27" t="s">
+        <v>166</v>
+      </c>
+      <c r="J27" t="s">
+        <v>167</v>
+      </c>
+      <c r="K27" t="s">
+        <v>438</v>
+      </c>
+      <c r="L27">
+        <v>6</v>
+      </c>
+      <c r="M27" t="s">
+        <v>159</v>
+      </c>
+      <c r="N27" t="s">
+        <v>159</v>
+      </c>
+      <c r="O27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>415</v>
+      </c>
+      <c r="C28" t="s">
+        <v>416</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>417</v>
+      </c>
+      <c r="F28" t="s">
+        <v>418</v>
+      </c>
+      <c r="G28" t="s">
+        <v>419</v>
+      </c>
+      <c r="H28" t="s">
+        <v>420</v>
+      </c>
+      <c r="I28" t="s">
+        <v>439</v>
+      </c>
+      <c r="J28" t="s">
+        <v>440</v>
+      </c>
+      <c r="K28" t="s">
+        <v>305</v>
+      </c>
+      <c r="L28">
+        <v>7</v>
+      </c>
+      <c r="M28" t="s">
+        <v>441</v>
+      </c>
+      <c r="N28" t="s">
+        <v>441</v>
+      </c>
+      <c r="O28" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>415</v>
+      </c>
+      <c r="C29" t="s">
+        <v>416</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>417</v>
+      </c>
+      <c r="F29" t="s">
+        <v>418</v>
+      </c>
+      <c r="G29" t="s">
+        <v>419</v>
+      </c>
+      <c r="H29" t="s">
+        <v>420</v>
+      </c>
+      <c r="I29" t="s">
+        <v>443</v>
+      </c>
+      <c r="J29" t="s">
+        <v>444</v>
+      </c>
+      <c r="K29" t="s">
+        <v>445</v>
+      </c>
+      <c r="L29">
+        <v>8</v>
+      </c>
+      <c r="M29" t="s">
+        <v>258</v>
+      </c>
+      <c r="N29" t="s">
+        <v>258</v>
+      </c>
+      <c r="O29" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>415</v>
+      </c>
+      <c r="C30" t="s">
+        <v>416</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>417</v>
+      </c>
+      <c r="F30" t="s">
+        <v>418</v>
+      </c>
+      <c r="G30" t="s">
+        <v>419</v>
+      </c>
+      <c r="H30" t="s">
+        <v>420</v>
+      </c>
+      <c r="I30" t="s">
+        <v>446</v>
+      </c>
+      <c r="J30" t="s">
+        <v>447</v>
+      </c>
+      <c r="K30" t="s">
+        <v>406</v>
+      </c>
+      <c r="L30">
+        <v>9</v>
+      </c>
+      <c r="M30" t="s">
+        <v>436</v>
+      </c>
+      <c r="N30" t="s">
+        <v>436</v>
+      </c>
+      <c r="O30" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>415</v>
+      </c>
+      <c r="C31" t="s">
+        <v>416</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>417</v>
+      </c>
+      <c r="F31" t="s">
+        <v>418</v>
+      </c>
+      <c r="G31" t="s">
+        <v>419</v>
+      </c>
+      <c r="H31" t="s">
+        <v>420</v>
+      </c>
+      <c r="I31" t="s">
+        <v>448</v>
+      </c>
+      <c r="J31" t="s">
+        <v>449</v>
+      </c>
+      <c r="K31" t="s">
+        <v>450</v>
+      </c>
+      <c r="L31">
+        <v>10</v>
+      </c>
+      <c r="M31" t="s">
+        <v>451</v>
+      </c>
+      <c r="N31" t="s">
+        <v>452</v>
+      </c>
+      <c r="O31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>453</v>
+      </c>
+      <c r="C32" t="s">
+        <v>454</v>
+      </c>
+      <c r="D32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" t="s">
+        <v>455</v>
+      </c>
+      <c r="F32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" t="s">
+        <v>456</v>
+      </c>
+      <c r="H32" t="s">
+        <v>457</v>
+      </c>
+      <c r="I32" t="s">
+        <v>34</v>
+      </c>
+      <c r="J32" t="s">
+        <v>35</v>
+      </c>
+      <c r="K32" t="s">
+        <v>183</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32" t="s">
+        <v>37</v>
+      </c>
+      <c r="N32" t="s">
+        <v>38</v>
+      </c>
+      <c r="O32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>453</v>
+      </c>
+      <c r="C33" t="s">
+        <v>454</v>
+      </c>
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" t="s">
+        <v>455</v>
+      </c>
+      <c r="F33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" t="s">
+        <v>456</v>
+      </c>
+      <c r="H33" t="s">
+        <v>457</v>
+      </c>
+      <c r="I33" t="s">
+        <v>458</v>
+      </c>
+      <c r="J33" t="s">
+        <v>459</v>
+      </c>
+      <c r="K33" t="s">
+        <v>460</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33" t="s">
+        <v>88</v>
+      </c>
+      <c r="N33" t="s">
+        <v>77</v>
+      </c>
+      <c r="O33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>453</v>
+      </c>
+      <c r="C34" t="s">
+        <v>454</v>
+      </c>
+      <c r="D34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" t="s">
+        <v>455</v>
+      </c>
+      <c r="F34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" t="s">
+        <v>456</v>
+      </c>
+      <c r="H34" t="s">
+        <v>457</v>
+      </c>
+      <c r="I34" t="s">
+        <v>461</v>
+      </c>
+      <c r="J34" t="s">
+        <v>462</v>
+      </c>
+      <c r="K34" t="s">
+        <v>169</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34" t="s">
+        <v>463</v>
+      </c>
+      <c r="N34" t="s">
+        <v>464</v>
+      </c>
+      <c r="O34" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>453</v>
+      </c>
+      <c r="C35" t="s">
+        <v>454</v>
+      </c>
+      <c r="D35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" t="s">
+        <v>455</v>
+      </c>
+      <c r="F35" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" t="s">
+        <v>456</v>
+      </c>
+      <c r="H35" t="s">
+        <v>457</v>
+      </c>
+      <c r="I35" t="s">
+        <v>306</v>
+      </c>
+      <c r="J35" t="s">
+        <v>307</v>
+      </c>
+      <c r="K35" t="s">
+        <v>465</v>
+      </c>
+      <c r="L35">
+        <v>4</v>
+      </c>
+      <c r="M35" t="s">
+        <v>309</v>
+      </c>
+      <c r="N35" t="s">
+        <v>309</v>
+      </c>
+      <c r="O35" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>453</v>
+      </c>
+      <c r="C36" t="s">
+        <v>454</v>
+      </c>
+      <c r="D36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" t="s">
+        <v>455</v>
+      </c>
+      <c r="F36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" t="s">
+        <v>456</v>
+      </c>
+      <c r="H36" t="s">
+        <v>457</v>
+      </c>
+      <c r="I36" t="s">
+        <v>466</v>
+      </c>
+      <c r="J36" t="s">
+        <v>467</v>
+      </c>
+      <c r="K36" t="s">
+        <v>468</v>
+      </c>
+      <c r="L36">
+        <v>5</v>
+      </c>
+      <c r="M36" t="s">
+        <v>177</v>
+      </c>
+      <c r="N36" t="s">
+        <v>177</v>
+      </c>
+      <c r="O36" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>453</v>
+      </c>
+      <c r="C37" t="s">
+        <v>454</v>
+      </c>
+      <c r="D37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" t="s">
+        <v>455</v>
+      </c>
+      <c r="F37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" t="s">
+        <v>456</v>
+      </c>
+      <c r="H37" t="s">
+        <v>457</v>
+      </c>
+      <c r="I37" t="s">
+        <v>174</v>
+      </c>
+      <c r="J37" t="s">
+        <v>175</v>
+      </c>
+      <c r="K37" t="s">
+        <v>257</v>
+      </c>
+      <c r="L37">
+        <v>6</v>
+      </c>
+      <c r="M37" t="s">
+        <v>177</v>
+      </c>
+      <c r="N37" t="s">
+        <v>177</v>
+      </c>
+      <c r="O37" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>453</v>
+      </c>
+      <c r="C38" t="s">
+        <v>454</v>
+      </c>
+      <c r="D38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" t="s">
+        <v>455</v>
+      </c>
+      <c r="F38" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" t="s">
+        <v>456</v>
+      </c>
+      <c r="H38" t="s">
+        <v>457</v>
+      </c>
+      <c r="I38" t="s">
+        <v>469</v>
+      </c>
+      <c r="J38" t="s">
+        <v>470</v>
+      </c>
+      <c r="K38" t="s">
+        <v>471</v>
+      </c>
+      <c r="L38">
+        <v>7</v>
+      </c>
+      <c r="M38" t="s">
+        <v>472</v>
+      </c>
+      <c r="N38" t="s">
+        <v>117</v>
+      </c>
+      <c r="O38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>453</v>
+      </c>
+      <c r="C39" t="s">
+        <v>454</v>
+      </c>
+      <c r="D39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" t="s">
+        <v>455</v>
+      </c>
+      <c r="F39" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" t="s">
+        <v>456</v>
+      </c>
+      <c r="H39" t="s">
+        <v>457</v>
+      </c>
+      <c r="I39" t="s">
+        <v>473</v>
+      </c>
+      <c r="J39" t="s">
+        <v>474</v>
+      </c>
+      <c r="K39" t="s">
+        <v>475</v>
+      </c>
+      <c r="L39">
+        <v>8</v>
+      </c>
+      <c r="M39" t="s">
+        <v>309</v>
+      </c>
+      <c r="N39" t="s">
+        <v>309</v>
+      </c>
+      <c r="O39" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>453</v>
+      </c>
+      <c r="C40" t="s">
+        <v>454</v>
+      </c>
+      <c r="D40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" t="s">
+        <v>455</v>
+      </c>
+      <c r="F40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" t="s">
+        <v>456</v>
+      </c>
+      <c r="H40" t="s">
+        <v>457</v>
+      </c>
+      <c r="I40" t="s">
+        <v>476</v>
+      </c>
+      <c r="J40" t="s">
+        <v>477</v>
+      </c>
+      <c r="K40" t="s">
+        <v>475</v>
+      </c>
+      <c r="L40">
+        <v>9</v>
+      </c>
+      <c r="M40" t="s">
+        <v>478</v>
+      </c>
+      <c r="N40" t="s">
+        <v>117</v>
+      </c>
+      <c r="O40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>453</v>
+      </c>
+      <c r="C41" t="s">
+        <v>454</v>
+      </c>
+      <c r="D41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" t="s">
+        <v>455</v>
+      </c>
+      <c r="F41" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" t="s">
+        <v>456</v>
+      </c>
+      <c r="H41" t="s">
+        <v>457</v>
+      </c>
+      <c r="I41" t="s">
+        <v>479</v>
+      </c>
+      <c r="J41" t="s">
+        <v>480</v>
+      </c>
+      <c r="K41" t="s">
+        <v>288</v>
+      </c>
+      <c r="L41">
+        <v>10</v>
+      </c>
+      <c r="M41" t="s">
+        <v>159</v>
+      </c>
+      <c r="N41" t="s">
+        <v>159</v>
+      </c>
+      <c r="O41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" t="s">
+        <v>344</v>
+      </c>
+      <c r="G42" t="s">
+        <v>345</v>
+      </c>
+      <c r="H42" t="s">
+        <v>346</v>
+      </c>
+      <c r="I42" t="s">
+        <v>347</v>
+      </c>
+      <c r="J42" t="s">
+        <v>348</v>
+      </c>
+      <c r="K42" t="s">
+        <v>349</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42" t="s">
+        <v>226</v>
+      </c>
+      <c r="N42" t="s">
+        <v>221</v>
+      </c>
+      <c r="O42" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" t="s">
+        <v>344</v>
+      </c>
+      <c r="G43" t="s">
+        <v>345</v>
+      </c>
+      <c r="H43" t="s">
+        <v>346</v>
+      </c>
+      <c r="I43" t="s">
+        <v>67</v>
+      </c>
+      <c r="J43" t="s">
+        <v>68</v>
+      </c>
+      <c r="K43" t="s">
+        <v>350</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+      <c r="M43" t="s">
+        <v>70</v>
+      </c>
+      <c r="N43" t="s">
+        <v>71</v>
+      </c>
+      <c r="O43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" t="s">
+        <v>344</v>
+      </c>
+      <c r="G44" t="s">
+        <v>345</v>
+      </c>
+      <c r="H44" t="s">
+        <v>346</v>
+      </c>
+      <c r="I44" t="s">
+        <v>351</v>
+      </c>
+      <c r="J44" t="s">
+        <v>352</v>
+      </c>
+      <c r="K44" t="s">
+        <v>353</v>
+      </c>
+      <c r="L44">
+        <v>3</v>
+      </c>
+      <c r="M44" t="s">
+        <v>70</v>
+      </c>
+      <c r="N44" t="s">
+        <v>71</v>
+      </c>
+      <c r="O44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" t="s">
+        <v>344</v>
+      </c>
+      <c r="G45" t="s">
+        <v>345</v>
+      </c>
+      <c r="H45" t="s">
+        <v>346</v>
+      </c>
+      <c r="I45" t="s">
+        <v>354</v>
+      </c>
+      <c r="J45" t="s">
+        <v>355</v>
+      </c>
+      <c r="K45" t="s">
+        <v>356</v>
+      </c>
+      <c r="L45">
+        <v>4</v>
+      </c>
+      <c r="M45" t="s">
+        <v>357</v>
+      </c>
+      <c r="N45" t="s">
+        <v>195</v>
+      </c>
+      <c r="O45" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" t="s">
+        <v>344</v>
+      </c>
+      <c r="G46" t="s">
+        <v>345</v>
+      </c>
+      <c r="H46" t="s">
+        <v>346</v>
+      </c>
+      <c r="I46" t="s">
+        <v>358</v>
+      </c>
+      <c r="J46" t="s">
+        <v>359</v>
+      </c>
+      <c r="K46" t="s">
+        <v>360</v>
+      </c>
+      <c r="L46">
+        <v>5</v>
+      </c>
+      <c r="M46" t="s">
+        <v>361</v>
+      </c>
+      <c r="N46" t="s">
+        <v>253</v>
+      </c>
+      <c r="O46" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" t="s">
+        <v>344</v>
+      </c>
+      <c r="G47" t="s">
+        <v>345</v>
+      </c>
+      <c r="H47" t="s">
+        <v>346</v>
+      </c>
+      <c r="I47" t="s">
+        <v>318</v>
+      </c>
+      <c r="J47" t="s">
+        <v>319</v>
+      </c>
+      <c r="K47" t="s">
+        <v>362</v>
+      </c>
+      <c r="L47">
+        <v>6</v>
+      </c>
+      <c r="M47" t="s">
+        <v>159</v>
+      </c>
+      <c r="N47" t="s">
+        <v>159</v>
+      </c>
+      <c r="O47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" t="s">
+        <v>63</v>
+      </c>
+      <c r="F48" t="s">
+        <v>344</v>
+      </c>
+      <c r="G48" t="s">
+        <v>345</v>
+      </c>
+      <c r="H48" t="s">
+        <v>346</v>
+      </c>
+      <c r="I48" t="s">
+        <v>363</v>
+      </c>
+      <c r="J48" t="s">
+        <v>364</v>
+      </c>
+      <c r="K48" t="s">
+        <v>324</v>
+      </c>
+      <c r="L48">
+        <v>7</v>
+      </c>
+      <c r="M48" t="s">
+        <v>240</v>
+      </c>
+      <c r="N48" t="s">
+        <v>241</v>
+      </c>
+      <c r="O48" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" t="s">
+        <v>344</v>
+      </c>
+      <c r="G49" t="s">
+        <v>345</v>
+      </c>
+      <c r="H49" t="s">
+        <v>346</v>
+      </c>
+      <c r="I49" t="s">
+        <v>365</v>
+      </c>
+      <c r="J49" t="s">
+        <v>366</v>
+      </c>
+      <c r="K49" t="s">
+        <v>367</v>
+      </c>
+      <c r="L49">
+        <v>8</v>
+      </c>
+      <c r="M49" t="s">
+        <v>368</v>
+      </c>
+      <c r="N49" t="s">
+        <v>368</v>
+      </c>
+      <c r="O49" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" t="s">
+        <v>344</v>
+      </c>
+      <c r="G50" t="s">
+        <v>345</v>
+      </c>
+      <c r="H50" t="s">
+        <v>346</v>
+      </c>
+      <c r="I50" t="s">
+        <v>369</v>
+      </c>
+      <c r="J50" t="s">
+        <v>370</v>
+      </c>
+      <c r="K50" t="s">
+        <v>371</v>
+      </c>
+      <c r="L50">
+        <v>9</v>
+      </c>
+      <c r="M50" t="s">
+        <v>372</v>
+      </c>
+      <c r="N50" t="s">
+        <v>106</v>
+      </c>
+      <c r="O50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" t="s">
+        <v>344</v>
+      </c>
+      <c r="G51" t="s">
+        <v>345</v>
+      </c>
+      <c r="H51" t="s">
+        <v>346</v>
+      </c>
+      <c r="I51" t="s">
+        <v>102</v>
+      </c>
+      <c r="J51" t="s">
+        <v>103</v>
+      </c>
+      <c r="K51" t="s">
+        <v>373</v>
+      </c>
+      <c r="L51">
+        <v>10</v>
+      </c>
+      <c r="M51" t="s">
+        <v>105</v>
+      </c>
+      <c r="N51" t="s">
+        <v>106</v>
+      </c>
+      <c r="O51" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>481</v>
+      </c>
+      <c r="C52" t="s">
+        <v>482</v>
+      </c>
+      <c r="D52" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" t="s">
+        <v>483</v>
+      </c>
+      <c r="F52" t="s">
+        <v>484</v>
+      </c>
+      <c r="G52" t="s">
+        <v>485</v>
+      </c>
+      <c r="H52" t="s">
+        <v>486</v>
+      </c>
+      <c r="I52" t="s">
+        <v>73</v>
+      </c>
+      <c r="J52" t="s">
+        <v>74</v>
+      </c>
+      <c r="K52" t="s">
+        <v>198</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52" t="s">
+        <v>76</v>
+      </c>
+      <c r="N52" t="s">
+        <v>77</v>
+      </c>
+      <c r="O52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>481</v>
+      </c>
+      <c r="C53" t="s">
+        <v>482</v>
+      </c>
+      <c r="D53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" t="s">
+        <v>483</v>
+      </c>
+      <c r="F53" t="s">
+        <v>484</v>
+      </c>
+      <c r="G53" t="s">
+        <v>485</v>
+      </c>
+      <c r="H53" t="s">
+        <v>486</v>
+      </c>
+      <c r="I53" t="s">
+        <v>487</v>
+      </c>
+      <c r="J53" t="s">
+        <v>488</v>
+      </c>
+      <c r="K53" t="s">
+        <v>489</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53" t="s">
+        <v>490</v>
+      </c>
+      <c r="N53" t="s">
+        <v>221</v>
+      </c>
+      <c r="O53" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>481</v>
+      </c>
+      <c r="C54" t="s">
+        <v>482</v>
+      </c>
+      <c r="D54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" t="s">
+        <v>483</v>
+      </c>
+      <c r="F54" t="s">
+        <v>484</v>
+      </c>
+      <c r="G54" t="s">
+        <v>485</v>
+      </c>
+      <c r="H54" t="s">
+        <v>486</v>
+      </c>
+      <c r="I54" t="s">
+        <v>491</v>
+      </c>
+      <c r="J54" t="s">
+        <v>492</v>
+      </c>
+      <c r="K54" t="s">
+        <v>193</v>
+      </c>
+      <c r="L54">
+        <v>3</v>
+      </c>
+      <c r="M54" t="s">
+        <v>493</v>
+      </c>
+      <c r="N54" t="s">
+        <v>493</v>
+      </c>
+      <c r="O54" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>481</v>
+      </c>
+      <c r="C55" t="s">
+        <v>482</v>
+      </c>
+      <c r="D55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" t="s">
+        <v>483</v>
+      </c>
+      <c r="F55" t="s">
+        <v>484</v>
+      </c>
+      <c r="G55" t="s">
+        <v>485</v>
+      </c>
+      <c r="H55" t="s">
+        <v>486</v>
+      </c>
+      <c r="I55" t="s">
+        <v>181</v>
+      </c>
+      <c r="J55" t="s">
+        <v>182</v>
+      </c>
+      <c r="K55" t="s">
+        <v>494</v>
+      </c>
+      <c r="L55">
+        <v>4</v>
+      </c>
+      <c r="M55" t="s">
+        <v>184</v>
+      </c>
+      <c r="N55" t="s">
+        <v>184</v>
+      </c>
+      <c r="O55" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>481</v>
+      </c>
+      <c r="C56" t="s">
+        <v>482</v>
+      </c>
+      <c r="D56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" t="s">
+        <v>483</v>
+      </c>
+      <c r="F56" t="s">
+        <v>484</v>
+      </c>
+      <c r="G56" t="s">
+        <v>485</v>
+      </c>
+      <c r="H56" t="s">
+        <v>486</v>
+      </c>
+      <c r="I56" t="s">
+        <v>495</v>
+      </c>
+      <c r="J56" t="s">
+        <v>496</v>
+      </c>
+      <c r="K56" t="s">
+        <v>225</v>
+      </c>
+      <c r="L56">
+        <v>5</v>
+      </c>
+      <c r="M56" t="s">
+        <v>497</v>
+      </c>
+      <c r="N56" t="s">
+        <v>497</v>
+      </c>
+      <c r="O56" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>481</v>
+      </c>
+      <c r="C57" t="s">
+        <v>482</v>
+      </c>
+      <c r="D57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" t="s">
+        <v>483</v>
+      </c>
+      <c r="F57" t="s">
+        <v>484</v>
+      </c>
+      <c r="G57" t="s">
+        <v>485</v>
+      </c>
+      <c r="H57" t="s">
+        <v>486</v>
+      </c>
+      <c r="I57" t="s">
+        <v>498</v>
+      </c>
+      <c r="J57" t="s">
+        <v>499</v>
+      </c>
+      <c r="K57" t="s">
+        <v>500</v>
+      </c>
+      <c r="L57">
+        <v>6</v>
+      </c>
+      <c r="M57" t="s">
+        <v>501</v>
+      </c>
+      <c r="N57" t="s">
+        <v>452</v>
+      </c>
+      <c r="O57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>481</v>
+      </c>
+      <c r="C58" t="s">
+        <v>482</v>
+      </c>
+      <c r="D58" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" t="s">
+        <v>483</v>
+      </c>
+      <c r="F58" t="s">
+        <v>484</v>
+      </c>
+      <c r="G58" t="s">
+        <v>485</v>
+      </c>
+      <c r="H58" t="s">
+        <v>486</v>
+      </c>
+      <c r="I58" t="s">
+        <v>502</v>
+      </c>
+      <c r="J58" t="s">
+        <v>503</v>
+      </c>
+      <c r="K58" t="s">
+        <v>409</v>
+      </c>
+      <c r="L58">
+        <v>7</v>
+      </c>
+      <c r="M58" t="s">
+        <v>504</v>
+      </c>
+      <c r="N58" t="s">
+        <v>504</v>
+      </c>
+      <c r="O58" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>481</v>
+      </c>
+      <c r="C59" t="s">
+        <v>482</v>
+      </c>
+      <c r="D59" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" t="s">
+        <v>483</v>
+      </c>
+      <c r="F59" t="s">
+        <v>484</v>
+      </c>
+      <c r="G59" t="s">
+        <v>485</v>
+      </c>
+      <c r="H59" t="s">
+        <v>486</v>
+      </c>
+      <c r="I59" t="s">
+        <v>458</v>
+      </c>
+      <c r="J59" t="s">
+        <v>459</v>
+      </c>
+      <c r="K59" t="s">
+        <v>337</v>
+      </c>
+      <c r="L59">
+        <v>8</v>
+      </c>
+      <c r="M59" t="s">
+        <v>88</v>
+      </c>
+      <c r="N59" t="s">
+        <v>77</v>
+      </c>
+      <c r="O59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>481</v>
+      </c>
+      <c r="C60" t="s">
+        <v>482</v>
+      </c>
+      <c r="D60" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" t="s">
+        <v>483</v>
+      </c>
+      <c r="F60" t="s">
+        <v>484</v>
+      </c>
+      <c r="G60" t="s">
+        <v>485</v>
+      </c>
+      <c r="H60" t="s">
+        <v>486</v>
+      </c>
+      <c r="I60" t="s">
+        <v>39</v>
+      </c>
+      <c r="J60" t="s">
+        <v>40</v>
+      </c>
+      <c r="K60" t="s">
+        <v>505</v>
+      </c>
+      <c r="L60">
+        <v>9</v>
+      </c>
+      <c r="M60" t="s">
+        <v>42</v>
+      </c>
+      <c r="N60" t="s">
+        <v>38</v>
+      </c>
+      <c r="O60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>481</v>
+      </c>
+      <c r="C61" t="s">
+        <v>482</v>
+      </c>
+      <c r="D61" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61" t="s">
+        <v>483</v>
+      </c>
+      <c r="F61" t="s">
+        <v>484</v>
+      </c>
+      <c r="G61" t="s">
+        <v>485</v>
+      </c>
+      <c r="H61" t="s">
+        <v>486</v>
+      </c>
+      <c r="I61" t="s">
+        <v>506</v>
+      </c>
+      <c r="J61" t="s">
+        <v>507</v>
+      </c>
+      <c r="K61" t="s">
+        <v>508</v>
+      </c>
+      <c r="L61">
+        <v>10</v>
+      </c>
+      <c r="M61" t="s">
+        <v>220</v>
+      </c>
+      <c r="N61" t="s">
+        <v>221</v>
+      </c>
+      <c r="O61" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/数据整理/funds/高分权益基金组合十大持仓明细.xlsx
+++ b/数据整理/funds/高分权益基金组合十大持仓明细.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16920" activeTab="2"/>
+    <workbookView windowHeight="16920" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="十大持仓明细--2021-Q1" sheetId="1" r:id="rId1"/>
     <sheet name="十大持仓明细--2021-Q2" sheetId="2" r:id="rId2"/>
     <sheet name="十大持仓明细--2021-08-28" sheetId="3" r:id="rId3"/>
+    <sheet name="十大持仓明细--2021-Q3" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'十大持仓明细--2021-Q1'!$A$1:$O$61</definedName>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658">
   <si>
     <t>基金代码</t>
   </si>
@@ -1546,6 +1547,453 @@
   </si>
   <si>
     <t>1.93</t>
+  </si>
+  <si>
+    <t>99.38</t>
+  </si>
+  <si>
+    <t>91.28</t>
+  </si>
+  <si>
+    <t>48.90</t>
+  </si>
+  <si>
+    <t>9.00</t>
+  </si>
+  <si>
+    <t>电池化学品</t>
+  </si>
+  <si>
+    <t>电池</t>
+  </si>
+  <si>
+    <t>电力设备</t>
+  </si>
+  <si>
+    <t>7.73</t>
+  </si>
+  <si>
+    <t>锂电池</t>
+  </si>
+  <si>
+    <t>5.68</t>
+  </si>
+  <si>
+    <t>能源金属</t>
+  </si>
+  <si>
+    <t>4.54</t>
+  </si>
+  <si>
+    <t>逆变器</t>
+  </si>
+  <si>
+    <t>4.22</t>
+  </si>
+  <si>
+    <t>钴</t>
+  </si>
+  <si>
+    <t>002459</t>
+  </si>
+  <si>
+    <t>晶澳科技</t>
+  </si>
+  <si>
+    <t>3.63</t>
+  </si>
+  <si>
+    <t>光伏电池组件</t>
+  </si>
+  <si>
+    <t>002812</t>
+  </si>
+  <si>
+    <t>恩捷股份</t>
+  </si>
+  <si>
+    <t>3.61</t>
+  </si>
+  <si>
+    <t>硅料硅片</t>
+  </si>
+  <si>
+    <t>300037</t>
+  </si>
+  <si>
+    <t>新宙邦</t>
+  </si>
+  <si>
+    <t>3.29</t>
+  </si>
+  <si>
+    <t>93.52</t>
+  </si>
+  <si>
+    <t>88.29</t>
+  </si>
+  <si>
+    <t>38.14</t>
+  </si>
+  <si>
+    <t>6.94</t>
+  </si>
+  <si>
+    <t>证券Ⅲ</t>
+  </si>
+  <si>
+    <t>证券Ⅱ</t>
+  </si>
+  <si>
+    <t>5.79</t>
+  </si>
+  <si>
+    <t>军工电子Ⅲ</t>
+  </si>
+  <si>
+    <t>军工电子Ⅱ</t>
+  </si>
+  <si>
+    <t>5.64</t>
+  </si>
+  <si>
+    <t>城商行Ⅲ</t>
+  </si>
+  <si>
+    <t>城商行Ⅱ</t>
+  </si>
+  <si>
+    <t>3.44</t>
+  </si>
+  <si>
+    <t>白酒Ⅲ</t>
+  </si>
+  <si>
+    <t>白酒Ⅱ</t>
+  </si>
+  <si>
+    <t>2.44</t>
+  </si>
+  <si>
+    <t>2.41</t>
+  </si>
+  <si>
+    <t>非白酒</t>
+  </si>
+  <si>
+    <t>2.39</t>
+  </si>
+  <si>
+    <t>2.31</t>
+  </si>
+  <si>
+    <t>47.29</t>
+  </si>
+  <si>
+    <t>93.74</t>
+  </si>
+  <si>
+    <t>43.56</t>
+  </si>
+  <si>
+    <t>9.30</t>
+  </si>
+  <si>
+    <t>房屋建设Ⅲ</t>
+  </si>
+  <si>
+    <t>房屋建设Ⅱ</t>
+  </si>
+  <si>
+    <t>8.77</t>
+  </si>
+  <si>
+    <t>股份制银行Ⅲ</t>
+  </si>
+  <si>
+    <t>股份制银行Ⅱ</t>
+  </si>
+  <si>
+    <t>4.03</t>
+  </si>
+  <si>
+    <t>601838</t>
+  </si>
+  <si>
+    <t>成都银行</t>
+  </si>
+  <si>
+    <t>3.45</t>
+  </si>
+  <si>
+    <t>3.16</t>
+  </si>
+  <si>
+    <t>装修建材</t>
+  </si>
+  <si>
+    <t>保利发展</t>
+  </si>
+  <si>
+    <t>3.01</t>
+  </si>
+  <si>
+    <t>住宅开发</t>
+  </si>
+  <si>
+    <t>600030</t>
+  </si>
+  <si>
+    <t>中信证券</t>
+  </si>
+  <si>
+    <t>002120</t>
+  </si>
+  <si>
+    <t>韵达股份</t>
+  </si>
+  <si>
+    <t>快递</t>
+  </si>
+  <si>
+    <t>物流</t>
+  </si>
+  <si>
+    <t>83.42</t>
+  </si>
+  <si>
+    <t>93.13</t>
+  </si>
+  <si>
+    <t>39.66</t>
+  </si>
+  <si>
+    <t>6.48</t>
+  </si>
+  <si>
+    <t>600256</t>
+  </si>
+  <si>
+    <t>广汇能源</t>
+  </si>
+  <si>
+    <t>5.67</t>
+  </si>
+  <si>
+    <t>油品石化贸易</t>
+  </si>
+  <si>
+    <t>炼化及贸易</t>
+  </si>
+  <si>
+    <t>石油石化</t>
+  </si>
+  <si>
+    <t>3.98</t>
+  </si>
+  <si>
+    <t>保险Ⅲ</t>
+  </si>
+  <si>
+    <t>保险Ⅱ</t>
+  </si>
+  <si>
+    <t>3.94</t>
+  </si>
+  <si>
+    <t>3.41</t>
+  </si>
+  <si>
+    <t>民爆制品</t>
+  </si>
+  <si>
+    <t>基础化工</t>
+  </si>
+  <si>
+    <t>688798</t>
+  </si>
+  <si>
+    <t>艾为电子</t>
+  </si>
+  <si>
+    <t>3.21</t>
+  </si>
+  <si>
+    <t>模拟芯片设计</t>
+  </si>
+  <si>
+    <t>3.09</t>
+  </si>
+  <si>
+    <t>锂电专用设备</t>
+  </si>
+  <si>
+    <t>农化制品</t>
+  </si>
+  <si>
+    <t>300070</t>
+  </si>
+  <si>
+    <t>碧水源</t>
+  </si>
+  <si>
+    <t>水务及水治理</t>
+  </si>
+  <si>
+    <t>环境治理</t>
+  </si>
+  <si>
+    <t>环保</t>
+  </si>
+  <si>
+    <t>7.56</t>
+  </si>
+  <si>
+    <t>84.83</t>
+  </si>
+  <si>
+    <t>31.64</t>
+  </si>
+  <si>
+    <t>300033</t>
+  </si>
+  <si>
+    <t>同花顺</t>
+  </si>
+  <si>
+    <t>3.72</t>
+  </si>
+  <si>
+    <t>垂直应用软件</t>
+  </si>
+  <si>
+    <t>300772</t>
+  </si>
+  <si>
+    <t>运达股份</t>
+  </si>
+  <si>
+    <t>3.65</t>
+  </si>
+  <si>
+    <t>风电整机</t>
+  </si>
+  <si>
+    <t>风电设备</t>
+  </si>
+  <si>
+    <t>300421</t>
+  </si>
+  <si>
+    <t>力星股份</t>
+  </si>
+  <si>
+    <t>3.30</t>
+  </si>
+  <si>
+    <t>金属制品</t>
+  </si>
+  <si>
+    <t>通用设备</t>
+  </si>
+  <si>
+    <t>000739</t>
+  </si>
+  <si>
+    <t>普洛药业</t>
+  </si>
+  <si>
+    <t>3.28</t>
+  </si>
+  <si>
+    <t>原料药</t>
+  </si>
+  <si>
+    <t>002557</t>
+  </si>
+  <si>
+    <t>洽洽食品</t>
+  </si>
+  <si>
+    <t>零食</t>
+  </si>
+  <si>
+    <t>休闲食品</t>
+  </si>
+  <si>
+    <t>2.82</t>
+  </si>
+  <si>
+    <t>数字芯片设计</t>
+  </si>
+  <si>
+    <t>600884</t>
+  </si>
+  <si>
+    <t>杉杉股份</t>
+  </si>
+  <si>
+    <t>2.77</t>
+  </si>
+  <si>
+    <t>2.72</t>
+  </si>
+  <si>
+    <t>000733</t>
+  </si>
+  <si>
+    <t>振华科技</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>102.16</t>
+  </si>
+  <si>
+    <t>90.04</t>
+  </si>
+  <si>
+    <t>38.16</t>
+  </si>
+  <si>
+    <t>6.47</t>
+  </si>
+  <si>
+    <t>视频媒体</t>
+  </si>
+  <si>
+    <t>数字媒体</t>
+  </si>
+  <si>
+    <t>安防设备</t>
+  </si>
+  <si>
+    <t>计算机设备</t>
+  </si>
+  <si>
+    <t>300476</t>
+  </si>
+  <si>
+    <t>胜宏科技</t>
+  </si>
+  <si>
+    <t>3.42</t>
+  </si>
+  <si>
+    <t>炼油化工</t>
+  </si>
+  <si>
+    <t>3.08</t>
+  </si>
+  <si>
+    <t>3.04</t>
+  </si>
+  <si>
+    <t>2.79</t>
+  </si>
+  <si>
+    <t>2.66</t>
   </si>
 </sst>
 </file>
@@ -1553,9 +2001,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -1582,7 +2030,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1596,15 +2059,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1618,17 +2097,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1651,7 +2137,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1664,31 +2150,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1702,31 +2165,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1741,7 +2189,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1753,49 +2321,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1807,91 +2345,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1903,25 +2369,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1953,23 +2401,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1998,17 +2466,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2024,180 +2481,175 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="9">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2209,6 +2661,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2580,52 +3034,52 @@
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:15">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="4">
+      <c r="A2" s="6">
         <v>25</v>
       </c>
       <c r="B2" t="s">
@@ -2672,7 +3126,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="4">
+      <c r="A3" s="6">
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -2719,7 +3173,7 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="4">
+      <c r="A4" s="6">
         <v>20</v>
       </c>
       <c r="B4" t="s">
@@ -2766,7 +3220,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="4">
+      <c r="A5" s="6">
         <v>23</v>
       </c>
       <c r="B5" t="s">
@@ -2813,7 +3267,7 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="4">
+      <c r="A6" s="6">
         <v>30</v>
       </c>
       <c r="B6" t="s">
@@ -2860,7 +3314,7 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="4">
+      <c r="A7" s="6">
         <v>45</v>
       </c>
       <c r="B7" t="s">
@@ -2907,7 +3361,7 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="4">
+      <c r="A8" s="6">
         <v>55</v>
       </c>
       <c r="B8" t="s">
@@ -2954,7 +3408,7 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="4">
+      <c r="A9" s="6">
         <v>1</v>
       </c>
       <c r="B9" t="s">
@@ -3001,7 +3455,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="4">
+      <c r="A10" s="6">
         <v>17</v>
       </c>
       <c r="B10" t="s">
@@ -3048,7 +3502,7 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="4">
+      <c r="A11" s="6">
         <v>26</v>
       </c>
       <c r="B11" t="s">
@@ -3095,7 +3549,7 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="4">
+      <c r="A12" s="6">
         <v>42</v>
       </c>
       <c r="B12" t="s">
@@ -3142,7 +3596,7 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="4">
+      <c r="A13" s="6">
         <v>57</v>
       </c>
       <c r="B13" t="s">
@@ -3189,7 +3643,7 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="4">
+      <c r="A14" s="6">
         <v>7</v>
       </c>
       <c r="B14" t="s">
@@ -3236,7 +3690,7 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="4">
+      <c r="A15" s="6">
         <v>49</v>
       </c>
       <c r="B15" t="s">
@@ -3283,7 +3737,7 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="4">
+      <c r="A16" s="6">
         <v>50</v>
       </c>
       <c r="B16" t="s">
@@ -3330,7 +3784,7 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="4">
+      <c r="A17" s="6">
         <v>31</v>
       </c>
       <c r="B17" t="s">
@@ -3377,7 +3831,7 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="4">
+      <c r="A18" s="6">
         <v>4</v>
       </c>
       <c r="B18" t="s">
@@ -3424,7 +3878,7 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="4">
+      <c r="A19" s="6">
         <v>29</v>
       </c>
       <c r="B19" t="s">
@@ -3471,7 +3925,7 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="4">
+      <c r="A20" s="6">
         <v>58</v>
       </c>
       <c r="B20" t="s">
@@ -3518,7 +3972,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="4">
+      <c r="A21" s="6">
         <v>59</v>
       </c>
       <c r="B21" t="s">
@@ -3565,7 +4019,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="4">
+      <c r="A22" s="6">
         <v>52</v>
       </c>
       <c r="B22" t="s">
@@ -3612,7 +4066,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="4">
+      <c r="A23" s="6">
         <v>15</v>
       </c>
       <c r="B23" t="s">
@@ -3659,7 +4113,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="4">
+      <c r="A24" s="6">
         <v>36</v>
       </c>
       <c r="B24" t="s">
@@ -3706,7 +4160,7 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="4">
+      <c r="A25" s="6">
         <v>51</v>
       </c>
       <c r="B25" t="s">
@@ -3753,7 +4207,7 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="4">
+      <c r="A26" s="6">
         <v>46</v>
       </c>
       <c r="B26" t="s">
@@ -3800,7 +4254,7 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="4">
+      <c r="A27" s="6">
         <v>28</v>
       </c>
       <c r="B27" t="s">
@@ -3847,7 +4301,7 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="4">
+      <c r="A28" s="6">
         <v>39</v>
       </c>
       <c r="B28" t="s">
@@ -3894,7 +4348,7 @@
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="4">
+      <c r="A29" s="6">
         <v>48</v>
       </c>
       <c r="B29" t="s">
@@ -3941,7 +4395,7 @@
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="4">
+      <c r="A30" s="6">
         <v>5</v>
       </c>
       <c r="B30" t="s">
@@ -3988,7 +4442,7 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="4">
+      <c r="A31" s="6">
         <v>11</v>
       </c>
       <c r="B31" t="s">
@@ -4035,7 +4489,7 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="4">
+      <c r="A32" s="6">
         <v>22</v>
       </c>
       <c r="B32" t="s">
@@ -4082,7 +4536,7 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="4">
+      <c r="A33" s="6">
         <v>34</v>
       </c>
       <c r="B33" t="s">
@@ -4129,7 +4583,7 @@
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="4">
+      <c r="A34" s="6">
         <v>37</v>
       </c>
       <c r="B34" t="s">
@@ -4176,7 +4630,7 @@
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="4">
+      <c r="A35" s="6">
         <v>40</v>
       </c>
       <c r="B35" t="s">
@@ -4223,7 +4677,7 @@
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="4">
+      <c r="A36" s="6">
         <v>43</v>
       </c>
       <c r="B36" t="s">
@@ -4270,7 +4724,7 @@
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="4">
+      <c r="A37" s="6">
         <v>47</v>
       </c>
       <c r="B37" t="s">
@@ -4317,7 +4771,7 @@
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="4">
+      <c r="A38" s="6">
         <v>2</v>
       </c>
       <c r="B38" t="s">
@@ -4364,7 +4818,7 @@
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="4">
+      <c r="A39" s="6">
         <v>13</v>
       </c>
       <c r="B39" t="s">
@@ -4411,7 +4865,7 @@
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="4">
+      <c r="A40" s="6">
         <v>21</v>
       </c>
       <c r="B40" t="s">
@@ -4458,7 +4912,7 @@
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="4">
+      <c r="A41" s="6">
         <v>35</v>
       </c>
       <c r="B41" t="s">
@@ -4505,7 +4959,7 @@
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="4">
+      <c r="A42" s="6">
         <v>16</v>
       </c>
       <c r="B42" t="s">
@@ -4552,7 +5006,7 @@
       </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="4">
+      <c r="A43" s="6">
         <v>24</v>
       </c>
       <c r="B43" t="s">
@@ -4599,7 +5053,7 @@
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="4">
+      <c r="A44" s="6">
         <v>41</v>
       </c>
       <c r="B44" t="s">
@@ -4646,7 +5100,7 @@
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="4">
+      <c r="A45" s="6">
         <v>44</v>
       </c>
       <c r="B45" t="s">
@@ -4693,7 +5147,7 @@
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="4">
+      <c r="A46" s="6">
         <v>53</v>
       </c>
       <c r="B46" t="s">
@@ -4740,7 +5194,7 @@
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="4">
+      <c r="A47" s="6">
         <v>14</v>
       </c>
       <c r="B47" t="s">
@@ -4787,7 +5241,7 @@
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="4">
+      <c r="A48" s="6">
         <v>33</v>
       </c>
       <c r="B48" t="s">
@@ -4834,7 +5288,7 @@
       </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="4">
+      <c r="A49" s="6">
         <v>54</v>
       </c>
       <c r="B49" t="s">
@@ -4881,7 +5335,7 @@
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="4">
+      <c r="A50" s="6">
         <v>56</v>
       </c>
       <c r="B50" t="s">
@@ -4928,7 +5382,7 @@
       </c>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="4">
+      <c r="A51" s="6">
         <v>10</v>
       </c>
       <c r="B51" t="s">
@@ -4975,7 +5429,7 @@
       </c>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="4">
+      <c r="A52" s="6">
         <v>38</v>
       </c>
       <c r="B52" t="s">
@@ -5022,7 +5476,7 @@
       </c>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="4">
+      <c r="A53" s="6">
         <v>0</v>
       </c>
       <c r="B53" t="s">
@@ -5069,7 +5523,7 @@
       </c>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="4">
+      <c r="A54" s="6">
         <v>9</v>
       </c>
       <c r="B54" t="s">
@@ -5116,7 +5570,7 @@
       </c>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="4">
+      <c r="A55" s="6">
         <v>18</v>
       </c>
       <c r="B55" t="s">
@@ -5163,7 +5617,7 @@
       </c>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="4">
+      <c r="A56" s="6">
         <v>19</v>
       </c>
       <c r="B56" t="s">
@@ -5210,7 +5664,7 @@
       </c>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="4">
+      <c r="A57" s="6">
         <v>27</v>
       </c>
       <c r="B57" t="s">
@@ -5257,7 +5711,7 @@
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="4">
+      <c r="A58" s="6">
         <v>8</v>
       </c>
       <c r="B58" t="s">
@@ -5304,7 +5758,7 @@
       </c>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="4">
+      <c r="A59" s="6">
         <v>6</v>
       </c>
       <c r="B59" t="s">
@@ -5351,7 +5805,7 @@
       </c>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="4">
+      <c r="A60" s="6">
         <v>32</v>
       </c>
       <c r="B60" t="s">
@@ -5398,7 +5852,7 @@
       </c>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="4">
+      <c r="A61" s="6">
         <v>12</v>
       </c>
       <c r="B61" t="s">
@@ -5472,51 +5926,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -5563,7 +6017,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -5610,7 +6064,7 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -5657,7 +6111,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -5704,7 +6158,7 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -5751,7 +6205,7 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -5798,7 +6252,7 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -5845,7 +6299,7 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -5892,7 +6346,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -5939,7 +6393,7 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -5986,7 +6440,7 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -6033,7 +6487,7 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -6080,7 +6534,7 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -6127,7 +6581,7 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -6174,7 +6628,7 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -6221,7 +6675,7 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -6268,7 +6722,7 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -6315,7 +6769,7 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -6362,7 +6816,7 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -6409,7 +6863,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -6456,7 +6910,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -6503,7 +6957,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -6550,7 +7004,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -6597,7 +7051,7 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" t="s">
@@ -6644,7 +7098,7 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26" t="s">
@@ -6691,7 +7145,7 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27" t="s">
@@ -6738,7 +7192,7 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28" t="s">
@@ -6785,7 +7239,7 @@
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
       <c r="B29" t="s">
@@ -6832,7 +7286,7 @@
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30" t="s">
@@ -6879,7 +7333,7 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31" t="s">
@@ -6926,7 +7380,7 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32" t="s">
@@ -6973,7 +7427,7 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33" t="s">
@@ -7020,7 +7474,7 @@
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34" t="s">
@@ -7067,7 +7521,7 @@
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
       <c r="B35" t="s">
@@ -7114,7 +7568,7 @@
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36" t="s">
@@ -7161,7 +7615,7 @@
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>35</v>
       </c>
       <c r="B37" t="s">
@@ -7208,7 +7662,7 @@
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
       <c r="B38" t="s">
@@ -7255,7 +7709,7 @@
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>37</v>
       </c>
       <c r="B39" t="s">
@@ -7302,7 +7756,7 @@
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>38</v>
       </c>
       <c r="B40" t="s">
@@ -7349,7 +7803,7 @@
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>39</v>
       </c>
       <c r="B41" t="s">
@@ -7396,7 +7850,7 @@
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>40</v>
       </c>
       <c r="B42" t="s">
@@ -7443,7 +7897,7 @@
       </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>41</v>
       </c>
       <c r="B43" t="s">
@@ -7490,7 +7944,7 @@
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>42</v>
       </c>
       <c r="B44" t="s">
@@ -7537,7 +7991,7 @@
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>43</v>
       </c>
       <c r="B45" t="s">
@@ -7584,7 +8038,7 @@
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>44</v>
       </c>
       <c r="B46" t="s">
@@ -7631,7 +8085,7 @@
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>45</v>
       </c>
       <c r="B47" t="s">
@@ -7678,7 +8132,7 @@
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>46</v>
       </c>
       <c r="B48" t="s">
@@ -7725,7 +8179,7 @@
       </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="1">
+      <c r="A49" s="2">
         <v>47</v>
       </c>
       <c r="B49" t="s">
@@ -7772,7 +8226,7 @@
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="1">
+      <c r="A50" s="2">
         <v>48</v>
       </c>
       <c r="B50" t="s">
@@ -7819,7 +8273,7 @@
       </c>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="1">
+      <c r="A51" s="2">
         <v>49</v>
       </c>
       <c r="B51" t="s">
@@ -7866,7 +8320,7 @@
       </c>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="1">
+      <c r="A52" s="2">
         <v>50</v>
       </c>
       <c r="B52" t="s">
@@ -7913,7 +8367,7 @@
       </c>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="1">
+      <c r="A53" s="2">
         <v>51</v>
       </c>
       <c r="B53" t="s">
@@ -7960,7 +8414,7 @@
       </c>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="1">
+      <c r="A54" s="2">
         <v>52</v>
       </c>
       <c r="B54" t="s">
@@ -8007,7 +8461,7 @@
       </c>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="1">
+      <c r="A55" s="2">
         <v>53</v>
       </c>
       <c r="B55" t="s">
@@ -8054,7 +8508,7 @@
       </c>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="1">
+      <c r="A56" s="2">
         <v>54</v>
       </c>
       <c r="B56" t="s">
@@ -8101,7 +8555,7 @@
       </c>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="1">
+      <c r="A57" s="2">
         <v>55</v>
       </c>
       <c r="B57" t="s">
@@ -8148,7 +8602,7 @@
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="1">
+      <c r="A58" s="2">
         <v>56</v>
       </c>
       <c r="B58" t="s">
@@ -8195,7 +8649,7 @@
       </c>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="1">
+      <c r="A59" s="2">
         <v>57</v>
       </c>
       <c r="B59" t="s">
@@ -8242,7 +8696,7 @@
       </c>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="1">
+      <c r="A60" s="2">
         <v>58</v>
       </c>
       <c r="B60" t="s">
@@ -8289,7 +8743,7 @@
       </c>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="1">
+      <c r="A61" s="2">
         <v>59</v>
       </c>
       <c r="B61" t="s">
@@ -8346,8 +8800,8 @@
   <sheetPr/>
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -8356,51 +8810,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -8447,7 +8901,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -8494,7 +8948,7 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -8541,7 +8995,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -8588,7 +9042,7 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -8635,7 +9089,7 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -8682,7 +9136,7 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -8729,7 +9183,7 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -8776,7 +9230,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -8823,7 +9277,7 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -8870,7 +9324,7 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -8917,7 +9371,7 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -8964,7 +9418,7 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -9011,7 +9465,7 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -9058,7 +9512,7 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -9105,7 +9559,7 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -9152,7 +9606,7 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -9199,7 +9653,7 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -9246,7 +9700,7 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -9293,7 +9747,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -9340,7 +9794,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -9387,7 +9841,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -9434,7 +9888,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -9481,7 +9935,7 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" t="s">
@@ -9528,7 +9982,7 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26" t="s">
@@ -9575,7 +10029,7 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27" t="s">
@@ -9622,7 +10076,7 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28" t="s">
@@ -9669,7 +10123,7 @@
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
       <c r="B29" t="s">
@@ -9716,7 +10170,7 @@
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30" t="s">
@@ -9763,7 +10217,7 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31" t="s">
@@ -9810,7 +10264,7 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32" t="s">
@@ -9857,7 +10311,7 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33" t="s">
@@ -9904,7 +10358,7 @@
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34" t="s">
@@ -9951,7 +10405,7 @@
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
       <c r="B35" t="s">
@@ -9998,7 +10452,7 @@
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36" t="s">
@@ -10045,7 +10499,7 @@
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>35</v>
       </c>
       <c r="B37" t="s">
@@ -10092,7 +10546,7 @@
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
       <c r="B38" t="s">
@@ -10139,7 +10593,7 @@
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>37</v>
       </c>
       <c r="B39" t="s">
@@ -10186,7 +10640,7 @@
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>38</v>
       </c>
       <c r="B40" t="s">
@@ -10233,7 +10687,7 @@
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>39</v>
       </c>
       <c r="B41" t="s">
@@ -10280,7 +10734,7 @@
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>40</v>
       </c>
       <c r="B42" t="s">
@@ -10327,7 +10781,7 @@
       </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>41</v>
       </c>
       <c r="B43" t="s">
@@ -10374,7 +10828,7 @@
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>42</v>
       </c>
       <c r="B44" t="s">
@@ -10421,7 +10875,7 @@
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>43</v>
       </c>
       <c r="B45" t="s">
@@ -10468,7 +10922,7 @@
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>44</v>
       </c>
       <c r="B46" t="s">
@@ -10515,7 +10969,7 @@
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>45</v>
       </c>
       <c r="B47" t="s">
@@ -10562,7 +11016,7 @@
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>46</v>
       </c>
       <c r="B48" t="s">
@@ -10609,7 +11063,7 @@
       </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="1">
+      <c r="A49" s="2">
         <v>47</v>
       </c>
       <c r="B49" t="s">
@@ -10656,7 +11110,7 @@
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="1">
+      <c r="A50" s="2">
         <v>48</v>
       </c>
       <c r="B50" t="s">
@@ -10703,7 +11157,7 @@
       </c>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="1">
+      <c r="A51" s="2">
         <v>49</v>
       </c>
       <c r="B51" t="s">
@@ -10750,7 +11204,7 @@
       </c>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="1">
+      <c r="A52" s="2">
         <v>50</v>
       </c>
       <c r="B52" t="s">
@@ -10797,7 +11251,7 @@
       </c>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="1">
+      <c r="A53" s="2">
         <v>51</v>
       </c>
       <c r="B53" t="s">
@@ -10844,7 +11298,7 @@
       </c>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="1">
+      <c r="A54" s="2">
         <v>52</v>
       </c>
       <c r="B54" t="s">
@@ -10891,7 +11345,7 @@
       </c>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="1">
+      <c r="A55" s="2">
         <v>53</v>
       </c>
       <c r="B55" t="s">
@@ -10938,7 +11392,7 @@
       </c>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="1">
+      <c r="A56" s="2">
         <v>54</v>
       </c>
       <c r="B56" t="s">
@@ -10985,7 +11439,7 @@
       </c>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="1">
+      <c r="A57" s="2">
         <v>55</v>
       </c>
       <c r="B57" t="s">
@@ -11032,7 +11486,7 @@
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="1">
+      <c r="A58" s="2">
         <v>56</v>
       </c>
       <c r="B58" t="s">
@@ -11079,7 +11533,7 @@
       </c>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="1">
+      <c r="A59" s="2">
         <v>57</v>
       </c>
       <c r="B59" t="s">
@@ -11126,7 +11580,7 @@
       </c>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="1">
+      <c r="A60" s="2">
         <v>58</v>
       </c>
       <c r="B60" t="s">
@@ -11173,7 +11627,7 @@
       </c>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="1">
+      <c r="A61" s="2">
         <v>59</v>
       </c>
       <c r="B61" t="s">
@@ -11217,6 +11671,2893 @@
       </c>
       <c r="O61" t="s">
         <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:O61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="3" max="3" width="29.9615384615385" customWidth="1"/>
+    <col min="4" max="4" width="14.7403846153846" customWidth="1"/>
+    <col min="7" max="7" width="15.2211538461538" customWidth="1"/>
+    <col min="10" max="10" width="14.2596153846154" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>509</v>
+      </c>
+      <c r="G2" t="s">
+        <v>510</v>
+      </c>
+      <c r="H2" t="s">
+        <v>511</v>
+      </c>
+      <c r="I2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K2" t="s">
+        <v>512</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>513</v>
+      </c>
+      <c r="N2" t="s">
+        <v>514</v>
+      </c>
+      <c r="O2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>509</v>
+      </c>
+      <c r="G3" t="s">
+        <v>510</v>
+      </c>
+      <c r="H3" t="s">
+        <v>511</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>516</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>517</v>
+      </c>
+      <c r="N3" t="s">
+        <v>514</v>
+      </c>
+      <c r="O3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>509</v>
+      </c>
+      <c r="G4" t="s">
+        <v>510</v>
+      </c>
+      <c r="H4" t="s">
+        <v>511</v>
+      </c>
+      <c r="I4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J4" t="s">
+        <v>228</v>
+      </c>
+      <c r="K4" t="s">
+        <v>518</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4" t="s">
+        <v>230</v>
+      </c>
+      <c r="N4" t="s">
+        <v>519</v>
+      </c>
+      <c r="O4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:15">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>509</v>
+      </c>
+      <c r="G6" t="s">
+        <v>510</v>
+      </c>
+      <c r="H6" t="s">
+        <v>511</v>
+      </c>
+      <c r="I6" t="s">
+        <v>233</v>
+      </c>
+      <c r="J6" t="s">
+        <v>234</v>
+      </c>
+      <c r="K6" t="s">
+        <v>522</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6" t="s">
+        <v>523</v>
+      </c>
+      <c r="N6" t="s">
+        <v>519</v>
+      </c>
+      <c r="O6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>509</v>
+      </c>
+      <c r="G7" t="s">
+        <v>510</v>
+      </c>
+      <c r="H7" t="s">
+        <v>511</v>
+      </c>
+      <c r="I7" t="s">
+        <v>289</v>
+      </c>
+      <c r="J7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K7" t="s">
+        <v>438</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7" t="s">
+        <v>513</v>
+      </c>
+      <c r="N7" t="s">
+        <v>514</v>
+      </c>
+      <c r="O7" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:15">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="L8" s="1">
+        <v>7</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:15">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="L9" s="1">
+        <v>8</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>509</v>
+      </c>
+      <c r="G10" t="s">
+        <v>510</v>
+      </c>
+      <c r="H10" t="s">
+        <v>511</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" t="s">
+        <v>475</v>
+      </c>
+      <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="M10" t="s">
+        <v>531</v>
+      </c>
+      <c r="N10" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:15">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="L11" s="1">
+        <v>10</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>391</v>
+      </c>
+      <c r="C12" t="s">
+        <v>392</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>393</v>
+      </c>
+      <c r="F12" t="s">
+        <v>535</v>
+      </c>
+      <c r="G12" t="s">
+        <v>536</v>
+      </c>
+      <c r="H12" t="s">
+        <v>537</v>
+      </c>
+      <c r="I12" t="s">
+        <v>181</v>
+      </c>
+      <c r="J12" t="s">
+        <v>182</v>
+      </c>
+      <c r="K12" t="s">
+        <v>538</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>539</v>
+      </c>
+      <c r="N12" t="s">
+        <v>540</v>
+      </c>
+      <c r="O12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="C13" t="s">
+        <v>392</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>393</v>
+      </c>
+      <c r="F13" t="s">
+        <v>535</v>
+      </c>
+      <c r="G13" t="s">
+        <v>536</v>
+      </c>
+      <c r="H13" t="s">
+        <v>537</v>
+      </c>
+      <c r="I13" t="s">
+        <v>400</v>
+      </c>
+      <c r="J13" t="s">
+        <v>401</v>
+      </c>
+      <c r="K13" t="s">
+        <v>541</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13" t="s">
+        <v>542</v>
+      </c>
+      <c r="N13" t="s">
+        <v>543</v>
+      </c>
+      <c r="O13" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>391</v>
+      </c>
+      <c r="C14" t="s">
+        <v>392</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>393</v>
+      </c>
+      <c r="F14" t="s">
+        <v>535</v>
+      </c>
+      <c r="G14" t="s">
+        <v>536</v>
+      </c>
+      <c r="H14" t="s">
+        <v>537</v>
+      </c>
+      <c r="I14" t="s">
+        <v>163</v>
+      </c>
+      <c r="J14" t="s">
+        <v>164</v>
+      </c>
+      <c r="K14" t="s">
+        <v>544</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14" t="s">
+        <v>545</v>
+      </c>
+      <c r="N14" t="s">
+        <v>546</v>
+      </c>
+      <c r="O14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>391</v>
+      </c>
+      <c r="C15" t="s">
+        <v>392</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>393</v>
+      </c>
+      <c r="F15" t="s">
+        <v>535</v>
+      </c>
+      <c r="G15" t="s">
+        <v>536</v>
+      </c>
+      <c r="H15" t="s">
+        <v>537</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" t="s">
+        <v>405</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15" t="s">
+        <v>517</v>
+      </c>
+      <c r="N15" t="s">
+        <v>514</v>
+      </c>
+      <c r="O15" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>391</v>
+      </c>
+      <c r="C16" t="s">
+        <v>392</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>393</v>
+      </c>
+      <c r="F16" t="s">
+        <v>535</v>
+      </c>
+      <c r="G16" t="s">
+        <v>536</v>
+      </c>
+      <c r="H16" t="s">
+        <v>537</v>
+      </c>
+      <c r="I16" t="s">
+        <v>339</v>
+      </c>
+      <c r="J16" t="s">
+        <v>340</v>
+      </c>
+      <c r="K16" t="s">
+        <v>547</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16" t="s">
+        <v>548</v>
+      </c>
+      <c r="N16" t="s">
+        <v>549</v>
+      </c>
+      <c r="O16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:15">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L17" s="1">
+        <v>6</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>391</v>
+      </c>
+      <c r="C18" t="s">
+        <v>392</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>393</v>
+      </c>
+      <c r="F18" t="s">
+        <v>535</v>
+      </c>
+      <c r="G18" t="s">
+        <v>536</v>
+      </c>
+      <c r="H18" t="s">
+        <v>537</v>
+      </c>
+      <c r="I18" t="s">
+        <v>277</v>
+      </c>
+      <c r="J18" t="s">
+        <v>278</v>
+      </c>
+      <c r="K18" t="s">
+        <v>550</v>
+      </c>
+      <c r="L18">
+        <v>7</v>
+      </c>
+      <c r="M18" t="s">
+        <v>513</v>
+      </c>
+      <c r="N18" t="s">
+        <v>514</v>
+      </c>
+      <c r="O18" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>391</v>
+      </c>
+      <c r="C19" t="s">
+        <v>392</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>393</v>
+      </c>
+      <c r="F19" t="s">
+        <v>535</v>
+      </c>
+      <c r="G19" t="s">
+        <v>536</v>
+      </c>
+      <c r="H19" t="s">
+        <v>537</v>
+      </c>
+      <c r="I19" t="s">
+        <v>407</v>
+      </c>
+      <c r="J19" t="s">
+        <v>408</v>
+      </c>
+      <c r="K19" t="s">
+        <v>551</v>
+      </c>
+      <c r="L19">
+        <v>8</v>
+      </c>
+      <c r="M19" t="s">
+        <v>410</v>
+      </c>
+      <c r="N19" t="s">
+        <v>552</v>
+      </c>
+      <c r="O19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>391</v>
+      </c>
+      <c r="C20" t="s">
+        <v>392</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>393</v>
+      </c>
+      <c r="F20" t="s">
+        <v>535</v>
+      </c>
+      <c r="G20" t="s">
+        <v>536</v>
+      </c>
+      <c r="H20" t="s">
+        <v>537</v>
+      </c>
+      <c r="I20" t="s">
+        <v>171</v>
+      </c>
+      <c r="J20" t="s">
+        <v>172</v>
+      </c>
+      <c r="K20" t="s">
+        <v>553</v>
+      </c>
+      <c r="L20">
+        <v>9</v>
+      </c>
+      <c r="M20" t="s">
+        <v>545</v>
+      </c>
+      <c r="N20" t="s">
+        <v>546</v>
+      </c>
+      <c r="O20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:15">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="L21" s="1">
+        <v>10</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="C22" t="s">
+        <v>416</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>417</v>
+      </c>
+      <c r="F22" t="s">
+        <v>555</v>
+      </c>
+      <c r="G22" t="s">
+        <v>556</v>
+      </c>
+      <c r="H22" t="s">
+        <v>557</v>
+      </c>
+      <c r="I22" t="s">
+        <v>421</v>
+      </c>
+      <c r="J22" t="s">
+        <v>422</v>
+      </c>
+      <c r="K22" t="s">
+        <v>558</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>559</v>
+      </c>
+      <c r="N22" t="s">
+        <v>560</v>
+      </c>
+      <c r="O22" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>415</v>
+      </c>
+      <c r="C23" t="s">
+        <v>416</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>417</v>
+      </c>
+      <c r="F23" t="s">
+        <v>555</v>
+      </c>
+      <c r="G23" t="s">
+        <v>556</v>
+      </c>
+      <c r="H23" t="s">
+        <v>557</v>
+      </c>
+      <c r="I23" t="s">
+        <v>318</v>
+      </c>
+      <c r="J23" t="s">
+        <v>319</v>
+      </c>
+      <c r="K23" t="s">
+        <v>561</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23" t="s">
+        <v>562</v>
+      </c>
+      <c r="N23" t="s">
+        <v>563</v>
+      </c>
+      <c r="O23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>415</v>
+      </c>
+      <c r="C24" t="s">
+        <v>416</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>417</v>
+      </c>
+      <c r="F24" t="s">
+        <v>555</v>
+      </c>
+      <c r="G24" t="s">
+        <v>556</v>
+      </c>
+      <c r="H24" t="s">
+        <v>557</v>
+      </c>
+      <c r="I24" t="s">
+        <v>429</v>
+      </c>
+      <c r="J24" t="s">
+        <v>430</v>
+      </c>
+      <c r="K24" t="s">
+        <v>564</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24" t="s">
+        <v>562</v>
+      </c>
+      <c r="N24" t="s">
+        <v>563</v>
+      </c>
+      <c r="O24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>415</v>
+      </c>
+      <c r="C25" t="s">
+        <v>416</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>417</v>
+      </c>
+      <c r="F25" t="s">
+        <v>555</v>
+      </c>
+      <c r="G25" t="s">
+        <v>556</v>
+      </c>
+      <c r="H25" t="s">
+        <v>557</v>
+      </c>
+      <c r="I25" t="s">
+        <v>426</v>
+      </c>
+      <c r="J25" t="s">
+        <v>427</v>
+      </c>
+      <c r="K25" t="s">
+        <v>362</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="M25" t="s">
+        <v>545</v>
+      </c>
+      <c r="N25" t="s">
+        <v>546</v>
+      </c>
+      <c r="O25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:15">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="L26" s="1">
+        <v>5</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>415</v>
+      </c>
+      <c r="C27" t="s">
+        <v>416</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>417</v>
+      </c>
+      <c r="F27" t="s">
+        <v>555</v>
+      </c>
+      <c r="G27" t="s">
+        <v>556</v>
+      </c>
+      <c r="H27" t="s">
+        <v>557</v>
+      </c>
+      <c r="I27" t="s">
+        <v>439</v>
+      </c>
+      <c r="J27" t="s">
+        <v>440</v>
+      </c>
+      <c r="K27" t="s">
+        <v>568</v>
+      </c>
+      <c r="L27">
+        <v>6</v>
+      </c>
+      <c r="M27" t="s">
+        <v>441</v>
+      </c>
+      <c r="N27" t="s">
+        <v>569</v>
+      </c>
+      <c r="O27" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:15">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="L28" s="1">
+        <v>7</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:15">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="L29" s="1">
+        <v>8</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>415</v>
+      </c>
+      <c r="C30" t="s">
+        <v>416</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>417</v>
+      </c>
+      <c r="F30" t="s">
+        <v>555</v>
+      </c>
+      <c r="G30" t="s">
+        <v>556</v>
+      </c>
+      <c r="H30" t="s">
+        <v>557</v>
+      </c>
+      <c r="I30" t="s">
+        <v>448</v>
+      </c>
+      <c r="J30" t="s">
+        <v>449</v>
+      </c>
+      <c r="K30" t="s">
+        <v>450</v>
+      </c>
+      <c r="L30">
+        <v>9</v>
+      </c>
+      <c r="M30" t="s">
+        <v>451</v>
+      </c>
+      <c r="N30" t="s">
+        <v>452</v>
+      </c>
+      <c r="O30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:15">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="L31" s="1">
+        <v>10</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>453</v>
+      </c>
+      <c r="C32" t="s">
+        <v>454</v>
+      </c>
+      <c r="D32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" t="s">
+        <v>455</v>
+      </c>
+      <c r="F32" t="s">
+        <v>579</v>
+      </c>
+      <c r="G32" t="s">
+        <v>580</v>
+      </c>
+      <c r="H32" t="s">
+        <v>581</v>
+      </c>
+      <c r="I32" t="s">
+        <v>306</v>
+      </c>
+      <c r="J32" t="s">
+        <v>307</v>
+      </c>
+      <c r="K32" t="s">
+        <v>582</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N32" t="s">
+        <v>309</v>
+      </c>
+      <c r="O32" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:15">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="L33" s="1">
+        <v>2</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>540003</v>
+      </c>
+      <c r="C34" t="s">
+        <v>454</v>
+      </c>
+      <c r="D34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" t="s">
+        <v>455</v>
+      </c>
+      <c r="F34" t="s">
+        <v>579</v>
+      </c>
+      <c r="G34" t="s">
+        <v>580</v>
+      </c>
+      <c r="H34" t="s">
+        <v>581</v>
+      </c>
+      <c r="I34" t="s">
+        <v>466</v>
+      </c>
+      <c r="J34" t="s">
+        <v>467</v>
+      </c>
+      <c r="K34" t="s">
+        <v>589</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34" t="s">
+        <v>590</v>
+      </c>
+      <c r="N34" t="s">
+        <v>591</v>
+      </c>
+      <c r="O34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>453</v>
+      </c>
+      <c r="C35" t="s">
+        <v>454</v>
+      </c>
+      <c r="D35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" t="s">
+        <v>455</v>
+      </c>
+      <c r="F35" t="s">
+        <v>579</v>
+      </c>
+      <c r="G35" t="s">
+        <v>580</v>
+      </c>
+      <c r="H35" t="s">
+        <v>581</v>
+      </c>
+      <c r="I35" t="s">
+        <v>473</v>
+      </c>
+      <c r="J35" t="s">
+        <v>570</v>
+      </c>
+      <c r="K35" t="s">
+        <v>465</v>
+      </c>
+      <c r="L35">
+        <v>4</v>
+      </c>
+      <c r="M35" t="s">
+        <v>572</v>
+      </c>
+      <c r="N35" t="s">
+        <v>309</v>
+      </c>
+      <c r="O35" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>453</v>
+      </c>
+      <c r="C36" t="s">
+        <v>454</v>
+      </c>
+      <c r="D36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" t="s">
+        <v>455</v>
+      </c>
+      <c r="F36" t="s">
+        <v>579</v>
+      </c>
+      <c r="G36" t="s">
+        <v>580</v>
+      </c>
+      <c r="H36" t="s">
+        <v>581</v>
+      </c>
+      <c r="I36" t="s">
+        <v>174</v>
+      </c>
+      <c r="J36" t="s">
+        <v>175</v>
+      </c>
+      <c r="K36" t="s">
+        <v>592</v>
+      </c>
+      <c r="L36">
+        <v>5</v>
+      </c>
+      <c r="M36" t="s">
+        <v>590</v>
+      </c>
+      <c r="N36" t="s">
+        <v>591</v>
+      </c>
+      <c r="O36" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>453</v>
+      </c>
+      <c r="C37" t="s">
+        <v>454</v>
+      </c>
+      <c r="D37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" t="s">
+        <v>455</v>
+      </c>
+      <c r="F37" t="s">
+        <v>579</v>
+      </c>
+      <c r="G37" t="s">
+        <v>580</v>
+      </c>
+      <c r="H37" t="s">
+        <v>581</v>
+      </c>
+      <c r="I37" t="s">
+        <v>469</v>
+      </c>
+      <c r="J37" t="s">
+        <v>470</v>
+      </c>
+      <c r="K37" t="s">
+        <v>593</v>
+      </c>
+      <c r="L37">
+        <v>6</v>
+      </c>
+      <c r="M37" t="s">
+        <v>594</v>
+      </c>
+      <c r="N37" t="s">
+        <v>117</v>
+      </c>
+      <c r="O37" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:15">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="L38" s="1">
+        <v>7</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>453</v>
+      </c>
+      <c r="C39" t="s">
+        <v>454</v>
+      </c>
+      <c r="D39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" t="s">
+        <v>455</v>
+      </c>
+      <c r="F39" t="s">
+        <v>579</v>
+      </c>
+      <c r="G39" t="s">
+        <v>580</v>
+      </c>
+      <c r="H39" t="s">
+        <v>581</v>
+      </c>
+      <c r="I39" t="s">
+        <v>461</v>
+      </c>
+      <c r="J39" t="s">
+        <v>462</v>
+      </c>
+      <c r="K39" t="s">
+        <v>600</v>
+      </c>
+      <c r="L39">
+        <v>8</v>
+      </c>
+      <c r="M39" t="s">
+        <v>601</v>
+      </c>
+      <c r="N39" t="s">
+        <v>514</v>
+      </c>
+      <c r="O39" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>453</v>
+      </c>
+      <c r="C40" t="s">
+        <v>454</v>
+      </c>
+      <c r="D40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" t="s">
+        <v>455</v>
+      </c>
+      <c r="F40" t="s">
+        <v>579</v>
+      </c>
+      <c r="G40" t="s">
+        <v>580</v>
+      </c>
+      <c r="H40" t="s">
+        <v>581</v>
+      </c>
+      <c r="I40" t="s">
+        <v>476</v>
+      </c>
+      <c r="J40" t="s">
+        <v>477</v>
+      </c>
+      <c r="K40" t="s">
+        <v>294</v>
+      </c>
+      <c r="L40">
+        <v>9</v>
+      </c>
+      <c r="M40" t="s">
+        <v>478</v>
+      </c>
+      <c r="N40" t="s">
+        <v>602</v>
+      </c>
+      <c r="O40" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="14" customHeight="1" spans="1:15">
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L41" s="1">
+        <v>10</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:15">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="L42" s="1">
+        <v>1</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:15">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="L43" s="1">
+        <v>2</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="1:15">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="L44" s="1">
+        <v>3</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="1:15">
+      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="L45" s="1">
+        <v>4</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="1:15">
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="L46" s="1">
+        <v>5</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="1:15">
+      <c r="A47" s="3">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="L47" s="1">
+        <v>6</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="2">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" t="s">
+        <v>63</v>
+      </c>
+      <c r="F48" t="s">
+        <v>608</v>
+      </c>
+      <c r="G48" t="s">
+        <v>609</v>
+      </c>
+      <c r="H48" t="s">
+        <v>610</v>
+      </c>
+      <c r="I48" t="s">
+        <v>351</v>
+      </c>
+      <c r="J48" t="s">
+        <v>352</v>
+      </c>
+      <c r="K48" t="s">
+        <v>633</v>
+      </c>
+      <c r="L48">
+        <v>7</v>
+      </c>
+      <c r="M48" t="s">
+        <v>634</v>
+      </c>
+      <c r="N48" t="s">
+        <v>71</v>
+      </c>
+      <c r="O48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="1:15">
+      <c r="A49" s="3">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="L49" s="1">
+        <v>8</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="2">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" t="s">
+        <v>608</v>
+      </c>
+      <c r="G50" t="s">
+        <v>609</v>
+      </c>
+      <c r="H50" t="s">
+        <v>610</v>
+      </c>
+      <c r="I50" t="s">
+        <v>102</v>
+      </c>
+      <c r="J50" t="s">
+        <v>103</v>
+      </c>
+      <c r="K50" t="s">
+        <v>638</v>
+      </c>
+      <c r="L50">
+        <v>9</v>
+      </c>
+      <c r="M50" t="s">
+        <v>105</v>
+      </c>
+      <c r="N50" t="s">
+        <v>106</v>
+      </c>
+      <c r="O50" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="1:15">
+      <c r="A51" s="3">
+        <v>49</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="L51" s="1">
+        <v>10</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" ht="14" customHeight="1" spans="1:15">
+      <c r="A52" s="3">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1">
+        <v>163409</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="L52" s="1">
+        <v>1</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="2">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>481</v>
+      </c>
+      <c r="C53" t="s">
+        <v>482</v>
+      </c>
+      <c r="D53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" t="s">
+        <v>483</v>
+      </c>
+      <c r="F53" t="s">
+        <v>642</v>
+      </c>
+      <c r="G53" t="s">
+        <v>643</v>
+      </c>
+      <c r="H53" t="s">
+        <v>644</v>
+      </c>
+      <c r="I53" t="s">
+        <v>73</v>
+      </c>
+      <c r="J53" t="s">
+        <v>74</v>
+      </c>
+      <c r="K53" t="s">
+        <v>282</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53" t="s">
+        <v>648</v>
+      </c>
+      <c r="N53" t="s">
+        <v>649</v>
+      </c>
+      <c r="O53" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="1:15">
+      <c r="A54" s="3">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="L54" s="1">
+        <v>3</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="1:15">
+      <c r="A55" s="3">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="L55" s="1">
+        <v>4</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="2">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>481</v>
+      </c>
+      <c r="C56" t="s">
+        <v>482</v>
+      </c>
+      <c r="D56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" t="s">
+        <v>483</v>
+      </c>
+      <c r="F56" t="s">
+        <v>642</v>
+      </c>
+      <c r="G56" t="s">
+        <v>643</v>
+      </c>
+      <c r="H56" t="s">
+        <v>644</v>
+      </c>
+      <c r="I56" t="s">
+        <v>495</v>
+      </c>
+      <c r="J56" t="s">
+        <v>496</v>
+      </c>
+      <c r="K56" t="s">
+        <v>652</v>
+      </c>
+      <c r="L56">
+        <v>5</v>
+      </c>
+      <c r="M56" t="s">
+        <v>653</v>
+      </c>
+      <c r="N56" t="s">
+        <v>587</v>
+      </c>
+      <c r="O56" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="1:15">
+      <c r="A57" s="3">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="L57" s="1">
+        <v>6</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="2">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>481</v>
+      </c>
+      <c r="C58" t="s">
+        <v>482</v>
+      </c>
+      <c r="D58" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" t="s">
+        <v>483</v>
+      </c>
+      <c r="F58" t="s">
+        <v>642</v>
+      </c>
+      <c r="G58" t="s">
+        <v>643</v>
+      </c>
+      <c r="H58" t="s">
+        <v>644</v>
+      </c>
+      <c r="I58" t="s">
+        <v>498</v>
+      </c>
+      <c r="J58" t="s">
+        <v>499</v>
+      </c>
+      <c r="K58" t="s">
+        <v>655</v>
+      </c>
+      <c r="L58">
+        <v>7</v>
+      </c>
+      <c r="M58" t="s">
+        <v>501</v>
+      </c>
+      <c r="N58" t="s">
+        <v>452</v>
+      </c>
+      <c r="O58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="2">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>481</v>
+      </c>
+      <c r="C59" t="s">
+        <v>482</v>
+      </c>
+      <c r="D59" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" t="s">
+        <v>483</v>
+      </c>
+      <c r="F59" t="s">
+        <v>642</v>
+      </c>
+      <c r="G59" t="s">
+        <v>643</v>
+      </c>
+      <c r="H59" t="s">
+        <v>644</v>
+      </c>
+      <c r="I59" t="s">
+        <v>487</v>
+      </c>
+      <c r="J59" t="s">
+        <v>488</v>
+      </c>
+      <c r="K59" t="s">
+        <v>294</v>
+      </c>
+      <c r="L59">
+        <v>8</v>
+      </c>
+      <c r="M59" t="s">
+        <v>490</v>
+      </c>
+      <c r="N59" t="s">
+        <v>221</v>
+      </c>
+      <c r="O59" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="1:15">
+      <c r="A60" s="3">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="L60" s="1">
+        <v>9</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="2">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>481</v>
+      </c>
+      <c r="C61" t="s">
+        <v>482</v>
+      </c>
+      <c r="D61" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61" t="s">
+        <v>483</v>
+      </c>
+      <c r="F61" t="s">
+        <v>642</v>
+      </c>
+      <c r="G61" t="s">
+        <v>643</v>
+      </c>
+      <c r="H61" t="s">
+        <v>644</v>
+      </c>
+      <c r="I61" t="s">
+        <v>181</v>
+      </c>
+      <c r="J61" t="s">
+        <v>182</v>
+      </c>
+      <c r="K61" t="s">
+        <v>657</v>
+      </c>
+      <c r="L61">
+        <v>10</v>
+      </c>
+      <c r="M61" t="s">
+        <v>539</v>
+      </c>
+      <c r="N61" t="s">
+        <v>540</v>
+      </c>
+      <c r="O61" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/funds/高分权益基金组合十大持仓明细.xlsx
+++ b/数据整理/funds/高分权益基金组合十大持仓明细.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16920" activeTab="3"/>
+    <workbookView windowHeight="16920" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="十大持仓明细--2021-Q1" sheetId="1" r:id="rId1"/>
     <sheet name="十大持仓明细--2021-Q2" sheetId="2" r:id="rId2"/>
     <sheet name="十大持仓明细--2021-08-28" sheetId="3" r:id="rId3"/>
     <sheet name="十大持仓明细--2021-Q3" sheetId="4" r:id="rId4"/>
+    <sheet name="十大持仓明细--2021-Q4" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'十大持仓明细--2021-Q1'!$A$1:$O$61</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795">
   <si>
     <t>基金代码</t>
   </si>
@@ -1994,6 +1995,417 @@
   </si>
   <si>
     <t>2.66</t>
+  </si>
+  <si>
+    <t>104.29</t>
+  </si>
+  <si>
+    <t>87.53</t>
+  </si>
+  <si>
+    <t>42.57</t>
+  </si>
+  <si>
+    <t>6.86</t>
+  </si>
+  <si>
+    <t>001718</t>
+  </si>
+  <si>
+    <t>工银瑞信物流产业股票</t>
+  </si>
+  <si>
+    <t>张宇帆</t>
+  </si>
+  <si>
+    <t>85.73</t>
+  </si>
+  <si>
+    <t>34.40</t>
+  </si>
+  <si>
+    <t>6.22</t>
+  </si>
+  <si>
+    <t>102.87</t>
+  </si>
+  <si>
+    <t>92.95</t>
+  </si>
+  <si>
+    <t>38.63</t>
+  </si>
+  <si>
+    <t>3.88</t>
+  </si>
+  <si>
+    <t>13.51</t>
+  </si>
+  <si>
+    <t>86.26</t>
+  </si>
+  <si>
+    <t>32.59</t>
+  </si>
+  <si>
+    <t>3.20</t>
+  </si>
+  <si>
+    <t>601877</t>
+  </si>
+  <si>
+    <t>正泰电器</t>
+  </si>
+  <si>
+    <t>配电设备</t>
+  </si>
+  <si>
+    <t>电网设备</t>
+  </si>
+  <si>
+    <t>20.52</t>
+  </si>
+  <si>
+    <t>63.37</t>
+  </si>
+  <si>
+    <t>37.76</t>
+  </si>
+  <si>
+    <t>3.53</t>
+  </si>
+  <si>
+    <t>688008</t>
+  </si>
+  <si>
+    <t>澜起科技</t>
+  </si>
+  <si>
+    <t>3.38</t>
+  </si>
+  <si>
+    <t>002371</t>
+  </si>
+  <si>
+    <t>北方华创</t>
+  </si>
+  <si>
+    <t>半导体设备</t>
+  </si>
+  <si>
+    <t>603986</t>
+  </si>
+  <si>
+    <t>兆易创新</t>
+  </si>
+  <si>
+    <t>2.91</t>
+  </si>
+  <si>
+    <t>600703</t>
+  </si>
+  <si>
+    <t>三安光电</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>光学光电子</t>
+  </si>
+  <si>
+    <t>4.74</t>
+  </si>
+  <si>
+    <t>48.06</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>47.07</t>
+  </si>
+  <si>
+    <t>4.35</t>
+  </si>
+  <si>
+    <t>600383</t>
+  </si>
+  <si>
+    <t>金地集团</t>
+  </si>
+  <si>
+    <t>4.01</t>
+  </si>
+  <si>
+    <t>001979</t>
+  </si>
+  <si>
+    <t>招商蛇口</t>
+  </si>
+  <si>
+    <t>商业地产</t>
+  </si>
+  <si>
+    <t>5.97</t>
+  </si>
+  <si>
+    <t>3.57</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>3.66</t>
+  </si>
+  <si>
+    <t>2.99</t>
+  </si>
+  <si>
+    <t>519002</t>
+  </si>
+  <si>
+    <t>华安安信消费混合</t>
+  </si>
+  <si>
+    <t>王斌</t>
+  </si>
+  <si>
+    <t>72.61</t>
+  </si>
+  <si>
+    <t>74.50</t>
+  </si>
+  <si>
+    <t>27.78</t>
+  </si>
+  <si>
+    <t>600011</t>
+  </si>
+  <si>
+    <t>华能国际</t>
+  </si>
+  <si>
+    <t>火力发电</t>
+  </si>
+  <si>
+    <t>电力</t>
+  </si>
+  <si>
+    <t>公用事业</t>
+  </si>
+  <si>
+    <t>600642</t>
+  </si>
+  <si>
+    <t>申能股份</t>
+  </si>
+  <si>
+    <t>1.92</t>
+  </si>
+  <si>
+    <t>2.86</t>
+  </si>
+  <si>
+    <t>3.18</t>
+  </si>
+  <si>
+    <t>603338</t>
+  </si>
+  <si>
+    <t>浙江鼎力</t>
+  </si>
+  <si>
+    <t>工程机械整机</t>
+  </si>
+  <si>
+    <t>工程机械</t>
+  </si>
+  <si>
+    <t>002597</t>
+  </si>
+  <si>
+    <t>金禾实业</t>
+  </si>
+  <si>
+    <t>食品及饲料添加剂</t>
+  </si>
+  <si>
+    <t>卫星化学</t>
+  </si>
+  <si>
+    <t>5.44</t>
+  </si>
+  <si>
+    <t>000977</t>
+  </si>
+  <si>
+    <t>浪潮信息</t>
+  </si>
+  <si>
+    <t>3.49</t>
+  </si>
+  <si>
+    <t>其他计算机设备</t>
+  </si>
+  <si>
+    <t>5.53</t>
+  </si>
+  <si>
+    <t>2.78</t>
+  </si>
+  <si>
+    <t>9.23</t>
+  </si>
+  <si>
+    <t>601111</t>
+  </si>
+  <si>
+    <t>中国国航</t>
+  </si>
+  <si>
+    <t>航空机场</t>
+  </si>
+  <si>
+    <t>601021</t>
+  </si>
+  <si>
+    <t>春秋航空</t>
+  </si>
+  <si>
+    <t>002352</t>
+  </si>
+  <si>
+    <t>顺丰控股</t>
+  </si>
+  <si>
+    <t>600660</t>
+  </si>
+  <si>
+    <t>福耀玻璃</t>
+  </si>
+  <si>
+    <t>2.95</t>
+  </si>
+  <si>
+    <t>车身附件及饰件</t>
+  </si>
+  <si>
+    <t>601966</t>
+  </si>
+  <si>
+    <t>玲珑轮胎</t>
+  </si>
+  <si>
+    <t>2.38</t>
+  </si>
+  <si>
+    <t>轮胎轮毂</t>
+  </si>
+  <si>
+    <t>底盘与发动机系统</t>
+  </si>
+  <si>
+    <t>002434</t>
+  </si>
+  <si>
+    <t>万里扬</t>
+  </si>
+  <si>
+    <t>3.97</t>
+  </si>
+  <si>
+    <t>文化用品</t>
+  </si>
+  <si>
+    <t>2.53</t>
+  </si>
+  <si>
+    <t>酒店餐饮</t>
+  </si>
+  <si>
+    <t>社会服务</t>
+  </si>
+  <si>
+    <t>000568</t>
+  </si>
+  <si>
+    <t>泸州老窖</t>
+  </si>
+  <si>
+    <t>2.01</t>
+  </si>
+  <si>
+    <t>3.05</t>
+  </si>
+  <si>
+    <t>300627</t>
+  </si>
+  <si>
+    <t>华测导航</t>
+  </si>
+  <si>
+    <t>通信终端及配件</t>
+  </si>
+  <si>
+    <t>通信设备</t>
+  </si>
+  <si>
+    <t>通信</t>
+  </si>
+  <si>
+    <t>600216</t>
+  </si>
+  <si>
+    <t>浙江医药</t>
+  </si>
+  <si>
+    <t>2.80</t>
+  </si>
+  <si>
+    <t>2.32</t>
+  </si>
+  <si>
+    <t>603456</t>
+  </si>
+  <si>
+    <t>九洲药业</t>
+  </si>
+  <si>
+    <t>3.40</t>
+  </si>
+  <si>
+    <t>医疗研发外包</t>
+  </si>
+  <si>
+    <t>600529</t>
+  </si>
+  <si>
+    <t>山东药玻</t>
+  </si>
+  <si>
+    <t>2.76</t>
+  </si>
+  <si>
+    <t>医疗耗材</t>
+  </si>
+  <si>
+    <t>3.89</t>
+  </si>
+  <si>
+    <t>8.49</t>
+  </si>
+  <si>
+    <t>3.69</t>
+  </si>
+  <si>
+    <t>002466</t>
+  </si>
+  <si>
+    <t>天齐锂业</t>
+  </si>
+  <si>
+    <t>3.52</t>
   </si>
 </sst>
 </file>
@@ -2001,10 +2413,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -2043,19 +2455,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2076,6 +2495,53 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2089,64 +2555,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2165,11 +2578,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2195,7 +2607,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2213,19 +2637,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2243,13 +2655,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2261,7 +2673,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2273,103 +2781,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2411,18 +2823,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2442,15 +2858,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2462,6 +2869,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2481,162 +2899,156 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="8">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="9">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2">
@@ -2645,10 +3057,10 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -5926,51 +6338,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -6017,7 +6429,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -6064,7 +6476,7 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -6111,7 +6523,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -6158,7 +6570,7 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -6205,7 +6617,7 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -6252,7 +6664,7 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -6299,7 +6711,7 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -6346,7 +6758,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -6393,7 +6805,7 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -6440,7 +6852,7 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -6487,7 +6899,7 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -6534,7 +6946,7 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -6581,7 +6993,7 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -6628,7 +7040,7 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -6675,7 +7087,7 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -6722,7 +7134,7 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -6769,7 +7181,7 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -6816,7 +7228,7 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -6863,7 +7275,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -6910,7 +7322,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -6957,7 +7369,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -7004,7 +7416,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -7051,7 +7463,7 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
@@ -7098,7 +7510,7 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
@@ -7145,7 +7557,7 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
@@ -7192,7 +7604,7 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
@@ -7239,7 +7651,7 @@
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
@@ -7286,7 +7698,7 @@
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
@@ -7333,7 +7745,7 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
@@ -7380,7 +7792,7 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
@@ -7427,7 +7839,7 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
@@ -7474,7 +7886,7 @@
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
@@ -7521,7 +7933,7 @@
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
@@ -7568,7 +7980,7 @@
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
@@ -7615,7 +8027,7 @@
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
@@ -7662,7 +8074,7 @@
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
@@ -7709,7 +8121,7 @@
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
@@ -7756,7 +8168,7 @@
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
@@ -7803,7 +8215,7 @@
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
@@ -7850,7 +8262,7 @@
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
@@ -7897,7 +8309,7 @@
       </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
@@ -7944,7 +8356,7 @@
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
@@ -7991,7 +8403,7 @@
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
@@ -8038,7 +8450,7 @@
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
@@ -8085,7 +8497,7 @@
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
@@ -8132,7 +8544,7 @@
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
@@ -8179,7 +8591,7 @@
       </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
@@ -8226,7 +8638,7 @@
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
@@ -8273,7 +8685,7 @@
       </c>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
@@ -8320,7 +8732,7 @@
       </c>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
@@ -8367,7 +8779,7 @@
       </c>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
@@ -8414,7 +8826,7 @@
       </c>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
@@ -8461,7 +8873,7 @@
       </c>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
@@ -8508,7 +8920,7 @@
       </c>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
@@ -8555,7 +8967,7 @@
       </c>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
@@ -8602,7 +9014,7 @@
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
@@ -8649,7 +9061,7 @@
       </c>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
@@ -8696,7 +9108,7 @@
       </c>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
@@ -8743,7 +9155,7 @@
       </c>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="2">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
@@ -8810,51 +9222,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -8901,7 +9313,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -8948,7 +9360,7 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -8995,7 +9407,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -9042,7 +9454,7 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -9089,7 +9501,7 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -9136,7 +9548,7 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -9183,7 +9595,7 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -9230,7 +9642,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -9277,7 +9689,7 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -9324,7 +9736,7 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -9371,7 +9783,7 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -9418,7 +9830,7 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -9465,7 +9877,7 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -9512,7 +9924,7 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -9559,7 +9971,7 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -9606,7 +10018,7 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -9653,7 +10065,7 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -9700,7 +10112,7 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -9747,7 +10159,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -9794,7 +10206,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -9841,7 +10253,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -9888,7 +10300,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -9935,7 +10347,7 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
@@ -9982,7 +10394,7 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
@@ -10029,7 +10441,7 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
@@ -10076,7 +10488,7 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
@@ -10123,7 +10535,7 @@
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
@@ -10170,7 +10582,7 @@
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
@@ -10217,7 +10629,7 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
@@ -10264,7 +10676,7 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
@@ -10311,7 +10723,7 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
@@ -10358,7 +10770,7 @@
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
@@ -10405,7 +10817,7 @@
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
@@ -10452,7 +10864,7 @@
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
@@ -10499,7 +10911,7 @@
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
@@ -10546,7 +10958,7 @@
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
@@ -10593,7 +11005,7 @@
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
@@ -10640,7 +11052,7 @@
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
@@ -10687,7 +11099,7 @@
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
@@ -10734,7 +11146,7 @@
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
@@ -10781,7 +11193,7 @@
       </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
@@ -10828,7 +11240,7 @@
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
@@ -10875,7 +11287,7 @@
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
@@ -10922,7 +11334,7 @@
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
@@ -10969,7 +11381,7 @@
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
@@ -11016,7 +11428,7 @@
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
@@ -11063,7 +11475,7 @@
       </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
@@ -11110,7 +11522,7 @@
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
@@ -11157,7 +11569,7 @@
       </c>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
@@ -11204,7 +11616,7 @@
       </c>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
@@ -11251,7 +11663,7 @@
       </c>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
@@ -11298,7 +11710,7 @@
       </c>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
@@ -11345,7 +11757,7 @@
       </c>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
@@ -11392,7 +11804,7 @@
       </c>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
@@ -11439,7 +11851,7 @@
       </c>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
@@ -11486,7 +11898,7 @@
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
@@ -11533,7 +11945,7 @@
       </c>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
@@ -11580,7 +11992,7 @@
       </c>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
@@ -11627,7 +12039,7 @@
       </c>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="2">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
@@ -11684,8 +12096,8 @@
   <sheetPr/>
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -11697,51 +12109,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -11788,7 +12200,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -11835,7 +12247,7 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -11881,55 +12293,55 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:15">
+    <row r="5" s="2" customFormat="1" spans="1:15">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="2">
         <v>4</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="2" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -11976,7 +12388,7 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -12022,102 +12434,102 @@
         <v>515</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:15">
+    <row r="8" s="2" customFormat="1" spans="1:15">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="2">
         <v>7</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="2" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:15">
+    <row r="9" s="2" customFormat="1" spans="1:15">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="2">
         <v>8</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" s="2" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -12163,55 +12575,55 @@
         <v>515</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:15">
+    <row r="11" s="2" customFormat="1" spans="1:15">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="2">
         <v>10</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="O11" s="2" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -12258,7 +12670,7 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -12305,7 +12717,7 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -12352,7 +12764,7 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -12399,7 +12811,7 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -12445,55 +12857,55 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:15">
+    <row r="17" s="2" customFormat="1" spans="1:15">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="2">
         <v>6</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="O17" s="2" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -12540,7 +12952,7 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -12587,7 +12999,7 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -12633,55 +13045,55 @@
         <v>159</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:15">
+    <row r="21" s="2" customFormat="1" spans="1:15">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="2">
         <v>10</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M21" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="N21" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="O21" s="2" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -12728,7 +13140,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -12775,7 +13187,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -12822,7 +13234,7 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
@@ -12868,55 +13280,55 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:15">
+    <row r="26" s="2" customFormat="1" spans="1:15">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K26" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="2">
         <v>5</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="M26" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="N26" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="O26" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
@@ -12962,102 +13374,102 @@
         <v>442</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:15">
+    <row r="28" s="2" customFormat="1" spans="1:15">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="2">
         <v>7</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="M28" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="N28" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="O28" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:15">
+    <row r="29" s="2" customFormat="1" spans="1:15">
       <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K29" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="2">
         <v>8</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="M29" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="N29" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="O29" s="2" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
@@ -13103,55 +13515,55 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:15">
+    <row r="31" s="2" customFormat="1" spans="1:15">
       <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K31" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="2">
         <v>10</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="M31" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="N31" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="O31" s="2" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
@@ -13197,55 +13609,55 @@
         <v>310</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" spans="1:15">
+    <row r="33" s="2" customFormat="1" spans="1:15">
       <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="D33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K33" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="L33" s="1">
+      <c r="L33" s="2">
         <v>2</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="M33" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="N33" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="O33" s="2" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
@@ -13292,7 +13704,7 @@
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
@@ -13339,7 +13751,7 @@
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
@@ -13386,7 +13798,7 @@
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
@@ -13432,55 +13844,55 @@
         <v>595</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" spans="1:15">
+    <row r="38" s="2" customFormat="1" spans="1:15">
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" s="1" t="s">
+      <c r="D38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="K38" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="L38" s="1">
+      <c r="L38" s="2">
         <v>7</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="M38" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="N38" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O38" s="1" t="s">
+      <c r="O38" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
@@ -13527,7 +13939,7 @@
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
@@ -13573,337 +13985,337 @@
         <v>595</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="14" customHeight="1" spans="1:15">
+    <row r="41" s="2" customFormat="1" ht="14" customHeight="1" spans="1:15">
       <c r="A41" s="3">
         <v>39</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" s="1" t="s">
+      <c r="D41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="K41" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="L41" s="1">
+      <c r="L41" s="2">
         <v>10</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="M41" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="N41" s="1" t="s">
+      <c r="N41" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="O41" s="1" t="s">
+      <c r="O41" s="2" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" spans="1:15">
+    <row r="42" s="2" customFormat="1" spans="1:15">
       <c r="A42" s="3">
         <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E42" s="1" t="s">
+      <c r="D42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H42" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="K42" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="L42" s="1">
+      <c r="L42" s="2">
         <v>1</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="M42" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="N42" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="O42" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" spans="1:15">
+    <row r="43" s="2" customFormat="1" spans="1:15">
       <c r="A43" s="3">
         <v>41</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" s="1" t="s">
+      <c r="D43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J43" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="K43" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="L43" s="1">
+      <c r="L43" s="2">
         <v>2</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="M43" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="N43" s="1" t="s">
+      <c r="N43" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="O43" s="1" t="s">
+      <c r="O43" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" spans="1:15">
+    <row r="44" s="2" customFormat="1" spans="1:15">
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E44" s="1" t="s">
+      <c r="D44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H44" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J44" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="K44" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="L44" s="1">
+      <c r="L44" s="2">
         <v>3</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="M44" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="N44" s="1" t="s">
+      <c r="N44" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="O44" s="1" t="s">
+      <c r="O44" s="2" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" spans="1:15">
+    <row r="45" s="2" customFormat="1" spans="1:15">
       <c r="A45" s="3">
         <v>43</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E45" s="1" t="s">
+      <c r="D45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H45" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I45" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="J45" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="K45" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="L45" s="1">
+      <c r="L45" s="2">
         <v>4</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="M45" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="N45" s="1" t="s">
+      <c r="N45" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="O45" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" spans="1:15">
+    <row r="46" s="2" customFormat="1" spans="1:15">
       <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E46" s="1" t="s">
+      <c r="D46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H46" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I46" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="J46" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="K46" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="L46" s="1">
+      <c r="L46" s="2">
         <v>5</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="M46" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="N46" s="1" t="s">
+      <c r="N46" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O46" s="1" t="s">
+      <c r="O46" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" spans="1:15">
+    <row r="47" s="2" customFormat="1" spans="1:15">
       <c r="A47" s="3">
         <v>45</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E47" s="1" t="s">
+      <c r="D47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H47" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I47" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="J47" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="K47" s="1" t="s">
+      <c r="K47" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="L47" s="1">
+      <c r="L47" s="2">
         <v>6</v>
       </c>
-      <c r="M47" s="1" t="s">
+      <c r="M47" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="N47" s="1" t="s">
+      <c r="N47" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="O47" s="1" t="s">
+      <c r="O47" s="2" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
@@ -13949,55 +14361,55 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" spans="1:15">
+    <row r="49" s="2" customFormat="1" spans="1:15">
       <c r="A49" s="3">
         <v>47</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E49" s="1" t="s">
+      <c r="D49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H49" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I49" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="J49" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="K49" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="L49" s="1">
+      <c r="L49" s="2">
         <v>8</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="M49" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="N49" s="1" t="s">
+      <c r="N49" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="O49" s="1" t="s">
+      <c r="O49" s="2" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
@@ -14043,102 +14455,102 @@
         <v>595</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" spans="1:15">
+    <row r="51" s="2" customFormat="1" spans="1:15">
       <c r="A51" s="3">
         <v>49</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E51" s="1" t="s">
+      <c r="D51" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H51" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I51" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="J51" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="K51" s="1" t="s">
+      <c r="K51" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="L51" s="1">
+      <c r="L51" s="2">
         <v>10</v>
       </c>
-      <c r="M51" s="1" t="s">
+      <c r="M51" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="N51" s="1" t="s">
+      <c r="N51" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="O51" s="1" t="s">
+      <c r="O51" s="2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="14" customHeight="1" spans="1:15">
+    <row r="52" s="2" customFormat="1" ht="14" customHeight="1" spans="1:15">
       <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="2">
         <v>163409</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E52" s="1" t="s">
+      <c r="D52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="H52" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="I52" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="J52" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="K52" s="1" t="s">
+      <c r="K52" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="L52" s="1">
+      <c r="L52" s="2">
         <v>1</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="M52" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="N52" s="1" t="s">
+      <c r="N52" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="O52" s="1" t="s">
+      <c r="O52" s="2" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
@@ -14184,102 +14596,102 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" spans="1:15">
+    <row r="54" s="2" customFormat="1" spans="1:15">
       <c r="A54" s="3">
         <v>52</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E54" s="1" t="s">
+      <c r="D54" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H54" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="I54" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="J54" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="K54" s="1" t="s">
+      <c r="K54" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="L54" s="1">
+      <c r="L54" s="2">
         <v>3</v>
       </c>
-      <c r="M54" s="1" t="s">
+      <c r="M54" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="N54" s="1" t="s">
+      <c r="N54" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="O54" s="1" t="s">
+      <c r="O54" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" spans="1:15">
+    <row r="55" s="2" customFormat="1" spans="1:15">
       <c r="A55" s="3">
         <v>53</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E55" s="1" t="s">
+      <c r="D55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H55" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="I55" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="J55" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="K55" s="1" t="s">
+      <c r="K55" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="L55" s="1">
+      <c r="L55" s="2">
         <v>4</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="M55" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="N55" s="1" t="s">
+      <c r="N55" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="O55" s="1" t="s">
+      <c r="O55" s="2" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
@@ -14325,55 +14737,55 @@
         <v>588</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" spans="1:15">
+    <row r="57" s="2" customFormat="1" spans="1:15">
       <c r="A57" s="3">
         <v>55</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E57" s="1" t="s">
+      <c r="D57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H57" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="I57" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="J57" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="K57" s="1" t="s">
+      <c r="K57" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="L57" s="1">
+      <c r="L57" s="2">
         <v>6</v>
       </c>
-      <c r="M57" s="1" t="s">
+      <c r="M57" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="N57" s="1" t="s">
+      <c r="N57" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="O57" s="1" t="s">
+      <c r="O57" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
@@ -14420,7 +14832,7 @@
       </c>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
@@ -14466,55 +14878,55 @@
         <v>222</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" spans="1:15">
+    <row r="60" s="2" customFormat="1" spans="1:15">
       <c r="A60" s="3">
         <v>58</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E60" s="1" t="s">
+      <c r="D60" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H60" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="I60" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="J60" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="K60" s="1" t="s">
+      <c r="K60" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="L60" s="1">
+      <c r="L60" s="2">
         <v>9</v>
       </c>
-      <c r="M60" s="1" t="s">
+      <c r="M60" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="N60" s="1" t="s">
+      <c r="N60" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="O60" s="1" t="s">
+      <c r="O60" s="2" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="2">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
@@ -14564,4 +14976,3362 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:O71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="13" max="13" width="19.2211538461538" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>483</v>
+      </c>
+      <c r="F2" t="s">
+        <v>658</v>
+      </c>
+      <c r="G2" t="s">
+        <v>659</v>
+      </c>
+      <c r="H2" t="s">
+        <v>660</v>
+      </c>
+      <c r="I2" t="s">
+        <v>363</v>
+      </c>
+      <c r="J2" t="s">
+        <v>364</v>
+      </c>
+      <c r="K2" t="s">
+        <v>661</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>646</v>
+      </c>
+      <c r="N2" t="s">
+        <v>647</v>
+      </c>
+      <c r="O2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>662</v>
+      </c>
+      <c r="C3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>664</v>
+      </c>
+      <c r="F3" t="s">
+        <v>641</v>
+      </c>
+      <c r="G3" t="s">
+        <v>665</v>
+      </c>
+      <c r="H3" t="s">
+        <v>666</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>667</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>517</v>
+      </c>
+      <c r="N3" t="s">
+        <v>514</v>
+      </c>
+      <c r="O3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>662</v>
+      </c>
+      <c r="C4" t="s">
+        <v>663</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>664</v>
+      </c>
+      <c r="F4" t="s">
+        <v>641</v>
+      </c>
+      <c r="G4" t="s">
+        <v>665</v>
+      </c>
+      <c r="H4" t="s">
+        <v>666</v>
+      </c>
+      <c r="I4" t="s">
+        <v>528</v>
+      </c>
+      <c r="J4" t="s">
+        <v>529</v>
+      </c>
+      <c r="K4" t="s">
+        <v>371</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4" t="s">
+        <v>513</v>
+      </c>
+      <c r="N4" t="s">
+        <v>514</v>
+      </c>
+      <c r="O4" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C5" t="s">
+        <v>454</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>455</v>
+      </c>
+      <c r="F5" t="s">
+        <v>668</v>
+      </c>
+      <c r="G5" t="s">
+        <v>669</v>
+      </c>
+      <c r="H5" t="s">
+        <v>670</v>
+      </c>
+      <c r="I5" t="s">
+        <v>461</v>
+      </c>
+      <c r="J5" t="s">
+        <v>462</v>
+      </c>
+      <c r="K5" t="s">
+        <v>671</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>601</v>
+      </c>
+      <c r="N5" t="s">
+        <v>514</v>
+      </c>
+      <c r="O5" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" t="s">
+        <v>672</v>
+      </c>
+      <c r="G6" t="s">
+        <v>673</v>
+      </c>
+      <c r="H6" t="s">
+        <v>674</v>
+      </c>
+      <c r="I6" t="s">
+        <v>635</v>
+      </c>
+      <c r="J6" t="s">
+        <v>636</v>
+      </c>
+      <c r="K6" t="s">
+        <v>675</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6" t="s">
+        <v>513</v>
+      </c>
+      <c r="N6" t="s">
+        <v>514</v>
+      </c>
+      <c r="O6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>662</v>
+      </c>
+      <c r="C7" t="s">
+        <v>663</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>664</v>
+      </c>
+      <c r="F7" t="s">
+        <v>641</v>
+      </c>
+      <c r="G7" t="s">
+        <v>665</v>
+      </c>
+      <c r="H7" t="s">
+        <v>666</v>
+      </c>
+      <c r="I7" t="s">
+        <v>676</v>
+      </c>
+      <c r="J7" t="s">
+        <v>677</v>
+      </c>
+      <c r="K7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7" t="s">
+        <v>678</v>
+      </c>
+      <c r="N7" t="s">
+        <v>679</v>
+      </c>
+      <c r="O7" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>680</v>
+      </c>
+      <c r="G8" t="s">
+        <v>681</v>
+      </c>
+      <c r="H8" t="s">
+        <v>682</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" t="s">
+        <v>683</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8" t="s">
+        <v>531</v>
+      </c>
+      <c r="N8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>662</v>
+      </c>
+      <c r="C9" t="s">
+        <v>663</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>664</v>
+      </c>
+      <c r="F9" t="s">
+        <v>641</v>
+      </c>
+      <c r="G9" t="s">
+        <v>665</v>
+      </c>
+      <c r="H9" t="s">
+        <v>666</v>
+      </c>
+      <c r="I9" t="s">
+        <v>684</v>
+      </c>
+      <c r="J9" t="s">
+        <v>685</v>
+      </c>
+      <c r="K9" t="s">
+        <v>133</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9" t="s">
+        <v>634</v>
+      </c>
+      <c r="N9" t="s">
+        <v>71</v>
+      </c>
+      <c r="O9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>453</v>
+      </c>
+      <c r="C10" t="s">
+        <v>454</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>455</v>
+      </c>
+      <c r="F10" t="s">
+        <v>668</v>
+      </c>
+      <c r="G10" t="s">
+        <v>669</v>
+      </c>
+      <c r="H10" t="s">
+        <v>670</v>
+      </c>
+      <c r="I10" t="s">
+        <v>596</v>
+      </c>
+      <c r="J10" t="s">
+        <v>597</v>
+      </c>
+      <c r="K10" t="s">
+        <v>686</v>
+      </c>
+      <c r="L10">
+        <v>8</v>
+      </c>
+      <c r="M10" t="s">
+        <v>599</v>
+      </c>
+      <c r="N10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>680</v>
+      </c>
+      <c r="G11" t="s">
+        <v>681</v>
+      </c>
+      <c r="H11" t="s">
+        <v>682</v>
+      </c>
+      <c r="I11" t="s">
+        <v>684</v>
+      </c>
+      <c r="J11" t="s">
+        <v>685</v>
+      </c>
+      <c r="K11" t="s">
+        <v>475</v>
+      </c>
+      <c r="L11">
+        <v>8</v>
+      </c>
+      <c r="M11" t="s">
+        <v>634</v>
+      </c>
+      <c r="N11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" t="s">
+        <v>672</v>
+      </c>
+      <c r="G12" t="s">
+        <v>673</v>
+      </c>
+      <c r="H12" t="s">
+        <v>674</v>
+      </c>
+      <c r="I12" t="s">
+        <v>687</v>
+      </c>
+      <c r="J12" t="s">
+        <v>688</v>
+      </c>
+      <c r="K12" t="s">
+        <v>373</v>
+      </c>
+      <c r="L12">
+        <v>7</v>
+      </c>
+      <c r="M12" t="s">
+        <v>689</v>
+      </c>
+      <c r="N12" t="s">
+        <v>71</v>
+      </c>
+      <c r="O12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>481</v>
+      </c>
+      <c r="C13" t="s">
+        <v>482</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>483</v>
+      </c>
+      <c r="F13" t="s">
+        <v>658</v>
+      </c>
+      <c r="G13" t="s">
+        <v>659</v>
+      </c>
+      <c r="H13" t="s">
+        <v>660</v>
+      </c>
+      <c r="I13" t="s">
+        <v>690</v>
+      </c>
+      <c r="J13" t="s">
+        <v>691</v>
+      </c>
+      <c r="K13" t="s">
+        <v>692</v>
+      </c>
+      <c r="L13">
+        <v>8</v>
+      </c>
+      <c r="M13" t="s">
+        <v>634</v>
+      </c>
+      <c r="N13" t="s">
+        <v>71</v>
+      </c>
+      <c r="O13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>481</v>
+      </c>
+      <c r="C14" t="s">
+        <v>482</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>483</v>
+      </c>
+      <c r="F14" t="s">
+        <v>658</v>
+      </c>
+      <c r="G14" t="s">
+        <v>659</v>
+      </c>
+      <c r="H14" t="s">
+        <v>660</v>
+      </c>
+      <c r="I14" t="s">
+        <v>693</v>
+      </c>
+      <c r="J14" t="s">
+        <v>694</v>
+      </c>
+      <c r="K14" t="s">
+        <v>589</v>
+      </c>
+      <c r="L14">
+        <v>6</v>
+      </c>
+      <c r="M14" t="s">
+        <v>695</v>
+      </c>
+      <c r="N14" t="s">
+        <v>696</v>
+      </c>
+      <c r="O14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>481</v>
+      </c>
+      <c r="C15" t="s">
+        <v>482</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>483</v>
+      </c>
+      <c r="F15" t="s">
+        <v>658</v>
+      </c>
+      <c r="G15" t="s">
+        <v>659</v>
+      </c>
+      <c r="H15" t="s">
+        <v>660</v>
+      </c>
+      <c r="I15" t="s">
+        <v>650</v>
+      </c>
+      <c r="J15" t="s">
+        <v>651</v>
+      </c>
+      <c r="K15" t="s">
+        <v>282</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15" t="s">
+        <v>501</v>
+      </c>
+      <c r="N15" t="s">
+        <v>452</v>
+      </c>
+      <c r="O15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>481</v>
+      </c>
+      <c r="C16" t="s">
+        <v>482</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>483</v>
+      </c>
+      <c r="F16" t="s">
+        <v>658</v>
+      </c>
+      <c r="G16" t="s">
+        <v>659</v>
+      </c>
+      <c r="H16" t="s">
+        <v>660</v>
+      </c>
+      <c r="I16" t="s">
+        <v>498</v>
+      </c>
+      <c r="J16" t="s">
+        <v>499</v>
+      </c>
+      <c r="K16" t="s">
+        <v>697</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
+      <c r="M16" t="s">
+        <v>501</v>
+      </c>
+      <c r="N16" t="s">
+        <v>452</v>
+      </c>
+      <c r="O16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>415</v>
+      </c>
+      <c r="C17" t="s">
+        <v>416</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>417</v>
+      </c>
+      <c r="F17" t="s">
+        <v>698</v>
+      </c>
+      <c r="G17" t="s">
+        <v>699</v>
+      </c>
+      <c r="H17" t="s">
+        <v>700</v>
+      </c>
+      <c r="I17" t="s">
+        <v>473</v>
+      </c>
+      <c r="J17" t="s">
+        <v>570</v>
+      </c>
+      <c r="K17" t="s">
+        <v>701</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17" t="s">
+        <v>572</v>
+      </c>
+      <c r="N17" t="s">
+        <v>309</v>
+      </c>
+      <c r="O17" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="1">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>415</v>
+      </c>
+      <c r="C18" t="s">
+        <v>416</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>417</v>
+      </c>
+      <c r="F18" t="s">
+        <v>698</v>
+      </c>
+      <c r="G18" t="s">
+        <v>699</v>
+      </c>
+      <c r="H18" t="s">
+        <v>700</v>
+      </c>
+      <c r="I18" t="s">
+        <v>702</v>
+      </c>
+      <c r="J18" t="s">
+        <v>703</v>
+      </c>
+      <c r="K18" t="s">
+        <v>704</v>
+      </c>
+      <c r="L18">
+        <v>5</v>
+      </c>
+      <c r="M18" t="s">
+        <v>572</v>
+      </c>
+      <c r="N18" t="s">
+        <v>309</v>
+      </c>
+      <c r="O18" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>415</v>
+      </c>
+      <c r="C19" t="s">
+        <v>416</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>417</v>
+      </c>
+      <c r="F19" t="s">
+        <v>698</v>
+      </c>
+      <c r="G19" t="s">
+        <v>699</v>
+      </c>
+      <c r="H19" t="s">
+        <v>700</v>
+      </c>
+      <c r="I19" t="s">
+        <v>705</v>
+      </c>
+      <c r="J19" t="s">
+        <v>706</v>
+      </c>
+      <c r="K19" t="s">
+        <v>293</v>
+      </c>
+      <c r="L19">
+        <v>9</v>
+      </c>
+      <c r="M19" t="s">
+        <v>707</v>
+      </c>
+      <c r="N19" t="s">
+        <v>309</v>
+      </c>
+      <c r="O19" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="1">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>453</v>
+      </c>
+      <c r="C20" t="s">
+        <v>454</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>455</v>
+      </c>
+      <c r="F20" t="s">
+        <v>668</v>
+      </c>
+      <c r="G20" t="s">
+        <v>669</v>
+      </c>
+      <c r="H20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I20" t="s">
+        <v>306</v>
+      </c>
+      <c r="J20" t="s">
+        <v>307</v>
+      </c>
+      <c r="K20" t="s">
+        <v>708</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>572</v>
+      </c>
+      <c r="N20" t="s">
+        <v>309</v>
+      </c>
+      <c r="O20" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="1">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>453</v>
+      </c>
+      <c r="C21" t="s">
+        <v>454</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" t="s">
+        <v>455</v>
+      </c>
+      <c r="F21" t="s">
+        <v>668</v>
+      </c>
+      <c r="G21" t="s">
+        <v>669</v>
+      </c>
+      <c r="H21" t="s">
+        <v>670</v>
+      </c>
+      <c r="I21" t="s">
+        <v>473</v>
+      </c>
+      <c r="J21" t="s">
+        <v>570</v>
+      </c>
+      <c r="K21" t="s">
+        <v>709</v>
+      </c>
+      <c r="L21">
+        <v>5</v>
+      </c>
+      <c r="M21" t="s">
+        <v>572</v>
+      </c>
+      <c r="N21" t="s">
+        <v>309</v>
+      </c>
+      <c r="O21" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="1">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>481</v>
+      </c>
+      <c r="C22" t="s">
+        <v>482</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
+        <v>483</v>
+      </c>
+      <c r="F22" t="s">
+        <v>658</v>
+      </c>
+      <c r="G22" t="s">
+        <v>659</v>
+      </c>
+      <c r="H22" t="s">
+        <v>660</v>
+      </c>
+      <c r="I22" t="s">
+        <v>473</v>
+      </c>
+      <c r="J22" t="s">
+        <v>570</v>
+      </c>
+      <c r="K22" t="s">
+        <v>710</v>
+      </c>
+      <c r="L22">
+        <v>7</v>
+      </c>
+      <c r="M22" t="s">
+        <v>572</v>
+      </c>
+      <c r="N22" t="s">
+        <v>309</v>
+      </c>
+      <c r="O22" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="1">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>453</v>
+      </c>
+      <c r="C23" t="s">
+        <v>454</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>455</v>
+      </c>
+      <c r="F23" t="s">
+        <v>668</v>
+      </c>
+      <c r="G23" t="s">
+        <v>669</v>
+      </c>
+      <c r="H23" t="s">
+        <v>670</v>
+      </c>
+      <c r="I23" t="s">
+        <v>174</v>
+      </c>
+      <c r="J23" t="s">
+        <v>175</v>
+      </c>
+      <c r="K23" t="s">
+        <v>711</v>
+      </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23" t="s">
+        <v>590</v>
+      </c>
+      <c r="N23" t="s">
+        <v>591</v>
+      </c>
+      <c r="O23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="1">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>453</v>
+      </c>
+      <c r="C24" t="s">
+        <v>454</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" t="s">
+        <v>455</v>
+      </c>
+      <c r="F24" t="s">
+        <v>668</v>
+      </c>
+      <c r="G24" t="s">
+        <v>669</v>
+      </c>
+      <c r="H24" t="s">
+        <v>670</v>
+      </c>
+      <c r="I24" t="s">
+        <v>466</v>
+      </c>
+      <c r="J24" t="s">
+        <v>467</v>
+      </c>
+      <c r="K24" t="s">
+        <v>547</v>
+      </c>
+      <c r="L24">
+        <v>7</v>
+      </c>
+      <c r="M24" t="s">
+        <v>590</v>
+      </c>
+      <c r="N24" t="s">
+        <v>591</v>
+      </c>
+      <c r="O24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="1">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" t="s">
+        <v>680</v>
+      </c>
+      <c r="G25" t="s">
+        <v>681</v>
+      </c>
+      <c r="H25" t="s">
+        <v>682</v>
+      </c>
+      <c r="I25" t="s">
+        <v>174</v>
+      </c>
+      <c r="J25" t="s">
+        <v>175</v>
+      </c>
+      <c r="K25" t="s">
+        <v>547</v>
+      </c>
+      <c r="L25">
+        <v>7</v>
+      </c>
+      <c r="M25" t="s">
+        <v>590</v>
+      </c>
+      <c r="N25" t="s">
+        <v>591</v>
+      </c>
+      <c r="O25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="1">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" t="s">
+        <v>680</v>
+      </c>
+      <c r="G26" t="s">
+        <v>681</v>
+      </c>
+      <c r="H26" t="s">
+        <v>682</v>
+      </c>
+      <c r="I26" t="s">
+        <v>181</v>
+      </c>
+      <c r="J26" t="s">
+        <v>182</v>
+      </c>
+      <c r="K26" t="s">
+        <v>89</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26" t="s">
+        <v>539</v>
+      </c>
+      <c r="N26" t="s">
+        <v>540</v>
+      </c>
+      <c r="O26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="1">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" t="s">
+        <v>672</v>
+      </c>
+      <c r="G27" t="s">
+        <v>673</v>
+      </c>
+      <c r="H27" t="s">
+        <v>674</v>
+      </c>
+      <c r="I27" t="s">
+        <v>181</v>
+      </c>
+      <c r="J27" t="s">
+        <v>182</v>
+      </c>
+      <c r="K27" t="s">
+        <v>712</v>
+      </c>
+      <c r="L27">
+        <v>8</v>
+      </c>
+      <c r="M27" t="s">
+        <v>539</v>
+      </c>
+      <c r="N27" t="s">
+        <v>540</v>
+      </c>
+      <c r="O27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>713</v>
+      </c>
+      <c r="C28" t="s">
+        <v>714</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" t="s">
+        <v>715</v>
+      </c>
+      <c r="F28" t="s">
+        <v>716</v>
+      </c>
+      <c r="G28" t="s">
+        <v>717</v>
+      </c>
+      <c r="H28" t="s">
+        <v>718</v>
+      </c>
+      <c r="I28" t="s">
+        <v>719</v>
+      </c>
+      <c r="J28" t="s">
+        <v>720</v>
+      </c>
+      <c r="K28" t="s">
+        <v>294</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28" t="s">
+        <v>721</v>
+      </c>
+      <c r="N28" t="s">
+        <v>722</v>
+      </c>
+      <c r="O28" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="1">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>713</v>
+      </c>
+      <c r="C29" t="s">
+        <v>714</v>
+      </c>
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" t="s">
+        <v>715</v>
+      </c>
+      <c r="F29" t="s">
+        <v>716</v>
+      </c>
+      <c r="G29" t="s">
+        <v>717</v>
+      </c>
+      <c r="H29" t="s">
+        <v>718</v>
+      </c>
+      <c r="I29" t="s">
+        <v>724</v>
+      </c>
+      <c r="J29" t="s">
+        <v>725</v>
+      </c>
+      <c r="K29" t="s">
+        <v>726</v>
+      </c>
+      <c r="L29">
+        <v>10</v>
+      </c>
+      <c r="M29" t="s">
+        <v>721</v>
+      </c>
+      <c r="N29" t="s">
+        <v>722</v>
+      </c>
+      <c r="O29" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>415</v>
+      </c>
+      <c r="C30" t="s">
+        <v>416</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>417</v>
+      </c>
+      <c r="F30" t="s">
+        <v>698</v>
+      </c>
+      <c r="G30" t="s">
+        <v>699</v>
+      </c>
+      <c r="H30" t="s">
+        <v>700</v>
+      </c>
+      <c r="I30" t="s">
+        <v>719</v>
+      </c>
+      <c r="J30" t="s">
+        <v>720</v>
+      </c>
+      <c r="K30" t="s">
+        <v>727</v>
+      </c>
+      <c r="L30">
+        <v>10</v>
+      </c>
+      <c r="M30" t="s">
+        <v>721</v>
+      </c>
+      <c r="N30" t="s">
+        <v>722</v>
+      </c>
+      <c r="O30" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="1">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" t="s">
+        <v>672</v>
+      </c>
+      <c r="G31" t="s">
+        <v>673</v>
+      </c>
+      <c r="H31" t="s">
+        <v>674</v>
+      </c>
+      <c r="I31" t="s">
+        <v>639</v>
+      </c>
+      <c r="J31" t="s">
+        <v>640</v>
+      </c>
+      <c r="K31" t="s">
+        <v>728</v>
+      </c>
+      <c r="L31">
+        <v>5</v>
+      </c>
+      <c r="M31" t="s">
+        <v>542</v>
+      </c>
+      <c r="N31" t="s">
+        <v>543</v>
+      </c>
+      <c r="O31" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="1">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>662</v>
+      </c>
+      <c r="C32" t="s">
+        <v>663</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>664</v>
+      </c>
+      <c r="F32" t="s">
+        <v>641</v>
+      </c>
+      <c r="G32" t="s">
+        <v>665</v>
+      </c>
+      <c r="H32" t="s">
+        <v>666</v>
+      </c>
+      <c r="I32" t="s">
+        <v>729</v>
+      </c>
+      <c r="J32" t="s">
+        <v>730</v>
+      </c>
+      <c r="K32" t="s">
+        <v>654</v>
+      </c>
+      <c r="L32">
+        <v>6</v>
+      </c>
+      <c r="M32" t="s">
+        <v>731</v>
+      </c>
+      <c r="N32" t="s">
+        <v>732</v>
+      </c>
+      <c r="O32" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="1">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" t="s">
+        <v>672</v>
+      </c>
+      <c r="G33" t="s">
+        <v>673</v>
+      </c>
+      <c r="H33" t="s">
+        <v>674</v>
+      </c>
+      <c r="I33" t="s">
+        <v>620</v>
+      </c>
+      <c r="J33" t="s">
+        <v>621</v>
+      </c>
+      <c r="K33" t="s">
+        <v>637</v>
+      </c>
+      <c r="L33">
+        <v>9</v>
+      </c>
+      <c r="M33" t="s">
+        <v>623</v>
+      </c>
+      <c r="N33" t="s">
+        <v>624</v>
+      </c>
+      <c r="O33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="1">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>713</v>
+      </c>
+      <c r="C34" t="s">
+        <v>714</v>
+      </c>
+      <c r="D34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" t="s">
+        <v>715</v>
+      </c>
+      <c r="F34" t="s">
+        <v>716</v>
+      </c>
+      <c r="G34" t="s">
+        <v>717</v>
+      </c>
+      <c r="H34" t="s">
+        <v>718</v>
+      </c>
+      <c r="I34" t="s">
+        <v>733</v>
+      </c>
+      <c r="J34" t="s">
+        <v>734</v>
+      </c>
+      <c r="K34" t="s">
+        <v>692</v>
+      </c>
+      <c r="L34">
+        <v>4</v>
+      </c>
+      <c r="M34" t="s">
+        <v>735</v>
+      </c>
+      <c r="N34" t="s">
+        <v>117</v>
+      </c>
+      <c r="O34" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="1">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>453</v>
+      </c>
+      <c r="C35" t="s">
+        <v>454</v>
+      </c>
+      <c r="D35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" t="s">
+        <v>455</v>
+      </c>
+      <c r="F35" t="s">
+        <v>668</v>
+      </c>
+      <c r="G35" t="s">
+        <v>669</v>
+      </c>
+      <c r="H35" t="s">
+        <v>670</v>
+      </c>
+      <c r="I35" t="s">
+        <v>469</v>
+      </c>
+      <c r="J35" t="s">
+        <v>470</v>
+      </c>
+      <c r="K35" t="s">
+        <v>121</v>
+      </c>
+      <c r="L35">
+        <v>10</v>
+      </c>
+      <c r="M35" t="s">
+        <v>594</v>
+      </c>
+      <c r="N35" t="s">
+        <v>117</v>
+      </c>
+      <c r="O35" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="1">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" t="s">
+        <v>680</v>
+      </c>
+      <c r="G36" t="s">
+        <v>681</v>
+      </c>
+      <c r="H36" t="s">
+        <v>682</v>
+      </c>
+      <c r="I36" t="s">
+        <v>108</v>
+      </c>
+      <c r="J36" t="s">
+        <v>736</v>
+      </c>
+      <c r="K36" t="s">
+        <v>737</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36" t="s">
+        <v>280</v>
+      </c>
+      <c r="N36" t="s">
+        <v>117</v>
+      </c>
+      <c r="O36" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="1">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>453</v>
+      </c>
+      <c r="C37" t="s">
+        <v>454</v>
+      </c>
+      <c r="D37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" t="s">
+        <v>455</v>
+      </c>
+      <c r="F37" t="s">
+        <v>668</v>
+      </c>
+      <c r="G37" t="s">
+        <v>669</v>
+      </c>
+      <c r="H37" t="s">
+        <v>670</v>
+      </c>
+      <c r="I37" t="s">
+        <v>476</v>
+      </c>
+      <c r="J37" t="s">
+        <v>477</v>
+      </c>
+      <c r="K37" t="s">
+        <v>728</v>
+      </c>
+      <c r="L37">
+        <v>9</v>
+      </c>
+      <c r="M37" t="s">
+        <v>478</v>
+      </c>
+      <c r="N37" t="s">
+        <v>602</v>
+      </c>
+      <c r="O37" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>713</v>
+      </c>
+      <c r="C38" t="s">
+        <v>714</v>
+      </c>
+      <c r="D38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" t="s">
+        <v>715</v>
+      </c>
+      <c r="F38" t="s">
+        <v>716</v>
+      </c>
+      <c r="G38" t="s">
+        <v>717</v>
+      </c>
+      <c r="H38" t="s">
+        <v>718</v>
+      </c>
+      <c r="I38" t="s">
+        <v>738</v>
+      </c>
+      <c r="J38" t="s">
+        <v>739</v>
+      </c>
+      <c r="K38" t="s">
+        <v>740</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="M38" t="s">
+        <v>741</v>
+      </c>
+      <c r="N38" t="s">
+        <v>649</v>
+      </c>
+      <c r="O38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="1">
+        <v>62</v>
+      </c>
+      <c r="B39" t="s">
+        <v>481</v>
+      </c>
+      <c r="C39" t="s">
+        <v>482</v>
+      </c>
+      <c r="D39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" t="s">
+        <v>483</v>
+      </c>
+      <c r="F39" t="s">
+        <v>658</v>
+      </c>
+      <c r="G39" t="s">
+        <v>659</v>
+      </c>
+      <c r="H39" t="s">
+        <v>660</v>
+      </c>
+      <c r="I39" t="s">
+        <v>73</v>
+      </c>
+      <c r="J39" t="s">
+        <v>74</v>
+      </c>
+      <c r="K39" t="s">
+        <v>742</v>
+      </c>
+      <c r="L39">
+        <v>3</v>
+      </c>
+      <c r="M39" t="s">
+        <v>648</v>
+      </c>
+      <c r="N39" t="s">
+        <v>649</v>
+      </c>
+      <c r="O39" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="1">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" t="s">
+        <v>672</v>
+      </c>
+      <c r="G40" t="s">
+        <v>673</v>
+      </c>
+      <c r="H40" t="s">
+        <v>674</v>
+      </c>
+      <c r="I40" t="s">
+        <v>611</v>
+      </c>
+      <c r="J40" t="s">
+        <v>612</v>
+      </c>
+      <c r="K40" t="s">
+        <v>378</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40" t="s">
+        <v>614</v>
+      </c>
+      <c r="N40" t="s">
+        <v>96</v>
+      </c>
+      <c r="O40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="1">
+        <v>68</v>
+      </c>
+      <c r="B41" t="s">
+        <v>481</v>
+      </c>
+      <c r="C41" t="s">
+        <v>482</v>
+      </c>
+      <c r="D41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" t="s">
+        <v>483</v>
+      </c>
+      <c r="F41" t="s">
+        <v>658</v>
+      </c>
+      <c r="G41" t="s">
+        <v>659</v>
+      </c>
+      <c r="H41" t="s">
+        <v>660</v>
+      </c>
+      <c r="I41" t="s">
+        <v>487</v>
+      </c>
+      <c r="J41" t="s">
+        <v>488</v>
+      </c>
+      <c r="K41" t="s">
+        <v>743</v>
+      </c>
+      <c r="L41">
+        <v>9</v>
+      </c>
+      <c r="M41" t="s">
+        <v>490</v>
+      </c>
+      <c r="N41" t="s">
+        <v>221</v>
+      </c>
+      <c r="O41" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="1">
+        <v>23</v>
+      </c>
+      <c r="B42" t="s">
+        <v>415</v>
+      </c>
+      <c r="C42" t="s">
+        <v>416</v>
+      </c>
+      <c r="D42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" t="s">
+        <v>417</v>
+      </c>
+      <c r="F42" t="s">
+        <v>698</v>
+      </c>
+      <c r="G42" t="s">
+        <v>699</v>
+      </c>
+      <c r="H42" t="s">
+        <v>700</v>
+      </c>
+      <c r="I42" t="s">
+        <v>439</v>
+      </c>
+      <c r="J42" t="s">
+        <v>440</v>
+      </c>
+      <c r="K42" t="s">
+        <v>494</v>
+      </c>
+      <c r="L42">
+        <v>4</v>
+      </c>
+      <c r="M42" t="s">
+        <v>441</v>
+      </c>
+      <c r="N42" t="s">
+        <v>569</v>
+      </c>
+      <c r="O42" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="1">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>415</v>
+      </c>
+      <c r="C43" t="s">
+        <v>416</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" t="s">
+        <v>417</v>
+      </c>
+      <c r="F43" t="s">
+        <v>698</v>
+      </c>
+      <c r="G43" t="s">
+        <v>699</v>
+      </c>
+      <c r="H43" t="s">
+        <v>700</v>
+      </c>
+      <c r="I43" t="s">
+        <v>421</v>
+      </c>
+      <c r="J43" t="s">
+        <v>422</v>
+      </c>
+      <c r="K43" t="s">
+        <v>744</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43" t="s">
+        <v>559</v>
+      </c>
+      <c r="N43" t="s">
+        <v>560</v>
+      </c>
+      <c r="O43" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="1">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>713</v>
+      </c>
+      <c r="C44" t="s">
+        <v>714</v>
+      </c>
+      <c r="D44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" t="s">
+        <v>715</v>
+      </c>
+      <c r="F44" t="s">
+        <v>716</v>
+      </c>
+      <c r="G44" t="s">
+        <v>717</v>
+      </c>
+      <c r="H44" t="s">
+        <v>718</v>
+      </c>
+      <c r="I44" t="s">
+        <v>745</v>
+      </c>
+      <c r="J44" t="s">
+        <v>746</v>
+      </c>
+      <c r="K44" t="s">
+        <v>239</v>
+      </c>
+      <c r="L44">
+        <v>6</v>
+      </c>
+      <c r="M44" t="s">
+        <v>258</v>
+      </c>
+      <c r="N44" t="s">
+        <v>747</v>
+      </c>
+      <c r="O44" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="1">
+        <v>18</v>
+      </c>
+      <c r="B45" t="s">
+        <v>662</v>
+      </c>
+      <c r="C45" t="s">
+        <v>663</v>
+      </c>
+      <c r="D45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" t="s">
+        <v>664</v>
+      </c>
+      <c r="F45" t="s">
+        <v>641</v>
+      </c>
+      <c r="G45" t="s">
+        <v>665</v>
+      </c>
+      <c r="H45" t="s">
+        <v>666</v>
+      </c>
+      <c r="I45" t="s">
+        <v>748</v>
+      </c>
+      <c r="J45" t="s">
+        <v>749</v>
+      </c>
+      <c r="K45" t="s">
+        <v>553</v>
+      </c>
+      <c r="L45">
+        <v>9</v>
+      </c>
+      <c r="M45" t="s">
+        <v>258</v>
+      </c>
+      <c r="N45" t="s">
+        <v>747</v>
+      </c>
+      <c r="O45" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="1">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>662</v>
+      </c>
+      <c r="C46" t="s">
+        <v>663</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" t="s">
+        <v>664</v>
+      </c>
+      <c r="F46" t="s">
+        <v>641</v>
+      </c>
+      <c r="G46" t="s">
+        <v>665</v>
+      </c>
+      <c r="H46" t="s">
+        <v>666</v>
+      </c>
+      <c r="I46" t="s">
+        <v>750</v>
+      </c>
+      <c r="J46" t="s">
+        <v>751</v>
+      </c>
+      <c r="K46" t="s">
+        <v>305</v>
+      </c>
+      <c r="L46">
+        <v>3</v>
+      </c>
+      <c r="M46" t="s">
+        <v>577</v>
+      </c>
+      <c r="N46" t="s">
+        <v>578</v>
+      </c>
+      <c r="O46" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="1">
+        <v>64</v>
+      </c>
+      <c r="B47" t="s">
+        <v>481</v>
+      </c>
+      <c r="C47" t="s">
+        <v>482</v>
+      </c>
+      <c r="D47" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" t="s">
+        <v>483</v>
+      </c>
+      <c r="F47" t="s">
+        <v>658</v>
+      </c>
+      <c r="G47" t="s">
+        <v>659</v>
+      </c>
+      <c r="H47" t="s">
+        <v>660</v>
+      </c>
+      <c r="I47" t="s">
+        <v>575</v>
+      </c>
+      <c r="J47" t="s">
+        <v>576</v>
+      </c>
+      <c r="K47" t="s">
+        <v>179</v>
+      </c>
+      <c r="L47">
+        <v>5</v>
+      </c>
+      <c r="M47" t="s">
+        <v>577</v>
+      </c>
+      <c r="N47" t="s">
+        <v>578</v>
+      </c>
+      <c r="O47" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="1">
+        <v>16</v>
+      </c>
+      <c r="B48" t="s">
+        <v>662</v>
+      </c>
+      <c r="C48" t="s">
+        <v>663</v>
+      </c>
+      <c r="D48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" t="s">
+        <v>664</v>
+      </c>
+      <c r="F48" t="s">
+        <v>641</v>
+      </c>
+      <c r="G48" t="s">
+        <v>665</v>
+      </c>
+      <c r="H48" t="s">
+        <v>666</v>
+      </c>
+      <c r="I48" t="s">
+        <v>752</v>
+      </c>
+      <c r="J48" t="s">
+        <v>753</v>
+      </c>
+      <c r="K48" t="s">
+        <v>754</v>
+      </c>
+      <c r="L48">
+        <v>7</v>
+      </c>
+      <c r="M48" t="s">
+        <v>755</v>
+      </c>
+      <c r="N48" t="s">
+        <v>267</v>
+      </c>
+      <c r="O48" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="1">
+        <v>19</v>
+      </c>
+      <c r="B49" t="s">
+        <v>662</v>
+      </c>
+      <c r="C49" t="s">
+        <v>663</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" t="s">
+        <v>664</v>
+      </c>
+      <c r="F49" t="s">
+        <v>641</v>
+      </c>
+      <c r="G49" t="s">
+        <v>665</v>
+      </c>
+      <c r="H49" t="s">
+        <v>666</v>
+      </c>
+      <c r="I49" t="s">
+        <v>756</v>
+      </c>
+      <c r="J49" t="s">
+        <v>757</v>
+      </c>
+      <c r="K49" t="s">
+        <v>758</v>
+      </c>
+      <c r="L49">
+        <v>10</v>
+      </c>
+      <c r="M49" t="s">
+        <v>759</v>
+      </c>
+      <c r="N49" t="s">
+        <v>267</v>
+      </c>
+      <c r="O49" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" t="s">
+        <v>680</v>
+      </c>
+      <c r="G50" t="s">
+        <v>681</v>
+      </c>
+      <c r="H50" t="s">
+        <v>682</v>
+      </c>
+      <c r="I50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J50" t="s">
+        <v>265</v>
+      </c>
+      <c r="K50" t="s">
+        <v>710</v>
+      </c>
+      <c r="L50">
+        <v>9</v>
+      </c>
+      <c r="M50" t="s">
+        <v>760</v>
+      </c>
+      <c r="N50" t="s">
+        <v>267</v>
+      </c>
+      <c r="O50" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="1">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" t="s">
+        <v>672</v>
+      </c>
+      <c r="G51" t="s">
+        <v>673</v>
+      </c>
+      <c r="H51" t="s">
+        <v>674</v>
+      </c>
+      <c r="I51" t="s">
+        <v>761</v>
+      </c>
+      <c r="J51" t="s">
+        <v>762</v>
+      </c>
+      <c r="K51" t="s">
+        <v>438</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51" t="s">
+        <v>760</v>
+      </c>
+      <c r="N51" t="s">
+        <v>267</v>
+      </c>
+      <c r="O51" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="1">
+        <v>42</v>
+      </c>
+      <c r="B52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" t="s">
+        <v>47</v>
+      </c>
+      <c r="F52" t="s">
+        <v>680</v>
+      </c>
+      <c r="G52" t="s">
+        <v>681</v>
+      </c>
+      <c r="H52" t="s">
+        <v>682</v>
+      </c>
+      <c r="I52" t="s">
+        <v>208</v>
+      </c>
+      <c r="J52" t="s">
+        <v>209</v>
+      </c>
+      <c r="K52" t="s">
+        <v>763</v>
+      </c>
+      <c r="L52">
+        <v>3</v>
+      </c>
+      <c r="M52" t="s">
+        <v>764</v>
+      </c>
+      <c r="N52" t="s">
+        <v>211</v>
+      </c>
+      <c r="O52" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="1">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>713</v>
+      </c>
+      <c r="C53" t="s">
+        <v>714</v>
+      </c>
+      <c r="D53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" t="s">
+        <v>715</v>
+      </c>
+      <c r="F53" t="s">
+        <v>716</v>
+      </c>
+      <c r="G53" t="s">
+        <v>717</v>
+      </c>
+      <c r="H53" t="s">
+        <v>718</v>
+      </c>
+      <c r="I53" t="s">
+        <v>269</v>
+      </c>
+      <c r="J53" t="s">
+        <v>270</v>
+      </c>
+      <c r="K53" t="s">
+        <v>765</v>
+      </c>
+      <c r="L53">
+        <v>7</v>
+      </c>
+      <c r="M53" t="s">
+        <v>272</v>
+      </c>
+      <c r="N53" t="s">
+        <v>766</v>
+      </c>
+      <c r="O53" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="1">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>713</v>
+      </c>
+      <c r="C54" t="s">
+        <v>714</v>
+      </c>
+      <c r="D54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" t="s">
+        <v>715</v>
+      </c>
+      <c r="F54" t="s">
+        <v>716</v>
+      </c>
+      <c r="G54" t="s">
+        <v>717</v>
+      </c>
+      <c r="H54" t="s">
+        <v>718</v>
+      </c>
+      <c r="I54" t="s">
+        <v>199</v>
+      </c>
+      <c r="J54" t="s">
+        <v>200</v>
+      </c>
+      <c r="K54" t="s">
+        <v>494</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54" t="s">
+        <v>548</v>
+      </c>
+      <c r="N54" t="s">
+        <v>549</v>
+      </c>
+      <c r="O54" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="1">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>713</v>
+      </c>
+      <c r="C55" t="s">
+        <v>714</v>
+      </c>
+      <c r="D55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" t="s">
+        <v>715</v>
+      </c>
+      <c r="F55" t="s">
+        <v>716</v>
+      </c>
+      <c r="G55" t="s">
+        <v>717</v>
+      </c>
+      <c r="H55" t="s">
+        <v>718</v>
+      </c>
+      <c r="I55" t="s">
+        <v>768</v>
+      </c>
+      <c r="J55" t="s">
+        <v>769</v>
+      </c>
+      <c r="K55" t="s">
+        <v>770</v>
+      </c>
+      <c r="L55">
+        <v>9</v>
+      </c>
+      <c r="M55" t="s">
+        <v>548</v>
+      </c>
+      <c r="N55" t="s">
+        <v>549</v>
+      </c>
+      <c r="O55" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" t="s">
+        <v>63</v>
+      </c>
+      <c r="F56" t="s">
+        <v>672</v>
+      </c>
+      <c r="G56" t="s">
+        <v>673</v>
+      </c>
+      <c r="H56" t="s">
+        <v>674</v>
+      </c>
+      <c r="I56" t="s">
+        <v>629</v>
+      </c>
+      <c r="J56" t="s">
+        <v>630</v>
+      </c>
+      <c r="K56" t="s">
+        <v>771</v>
+      </c>
+      <c r="L56">
+        <v>6</v>
+      </c>
+      <c r="M56" t="s">
+        <v>631</v>
+      </c>
+      <c r="N56" t="s">
+        <v>632</v>
+      </c>
+      <c r="O56" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="1">
+        <v>17</v>
+      </c>
+      <c r="B57" t="s">
+        <v>662</v>
+      </c>
+      <c r="C57" t="s">
+        <v>663</v>
+      </c>
+      <c r="D57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" t="s">
+        <v>664</v>
+      </c>
+      <c r="F57" t="s">
+        <v>641</v>
+      </c>
+      <c r="G57" t="s">
+        <v>665</v>
+      </c>
+      <c r="H57" t="s">
+        <v>666</v>
+      </c>
+      <c r="I57" t="s">
+        <v>772</v>
+      </c>
+      <c r="J57" t="s">
+        <v>773</v>
+      </c>
+      <c r="K57" t="s">
+        <v>765</v>
+      </c>
+      <c r="L57">
+        <v>8</v>
+      </c>
+      <c r="M57" t="s">
+        <v>774</v>
+      </c>
+      <c r="N57" t="s">
+        <v>775</v>
+      </c>
+      <c r="O57" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="1">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>713</v>
+      </c>
+      <c r="C58" t="s">
+        <v>714</v>
+      </c>
+      <c r="D58" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" t="s">
+        <v>715</v>
+      </c>
+      <c r="F58" t="s">
+        <v>716</v>
+      </c>
+      <c r="G58" t="s">
+        <v>717</v>
+      </c>
+      <c r="H58" t="s">
+        <v>718</v>
+      </c>
+      <c r="I58" t="s">
+        <v>777</v>
+      </c>
+      <c r="J58" t="s">
+        <v>778</v>
+      </c>
+      <c r="K58" t="s">
+        <v>779</v>
+      </c>
+      <c r="L58">
+        <v>5</v>
+      </c>
+      <c r="M58" t="s">
+        <v>628</v>
+      </c>
+      <c r="N58" t="s">
+        <v>135</v>
+      </c>
+      <c r="O58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="1">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>713</v>
+      </c>
+      <c r="C59" t="s">
+        <v>714</v>
+      </c>
+      <c r="D59" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" t="s">
+        <v>715</v>
+      </c>
+      <c r="F59" t="s">
+        <v>716</v>
+      </c>
+      <c r="G59" t="s">
+        <v>717</v>
+      </c>
+      <c r="H59" t="s">
+        <v>718</v>
+      </c>
+      <c r="I59" t="s">
+        <v>625</v>
+      </c>
+      <c r="J59" t="s">
+        <v>626</v>
+      </c>
+      <c r="K59" t="s">
+        <v>780</v>
+      </c>
+      <c r="L59">
+        <v>8</v>
+      </c>
+      <c r="M59" t="s">
+        <v>628</v>
+      </c>
+      <c r="N59" t="s">
+        <v>135</v>
+      </c>
+      <c r="O59" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="1">
+        <v>43</v>
+      </c>
+      <c r="B60" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" t="s">
+        <v>47</v>
+      </c>
+      <c r="F60" t="s">
+        <v>680</v>
+      </c>
+      <c r="G60" t="s">
+        <v>681</v>
+      </c>
+      <c r="H60" t="s">
+        <v>682</v>
+      </c>
+      <c r="I60" t="s">
+        <v>137</v>
+      </c>
+      <c r="J60" t="s">
+        <v>138</v>
+      </c>
+      <c r="K60" t="s">
+        <v>305</v>
+      </c>
+      <c r="L60">
+        <v>4</v>
+      </c>
+      <c r="M60" t="s">
+        <v>628</v>
+      </c>
+      <c r="N60" t="s">
+        <v>135</v>
+      </c>
+      <c r="O60" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="1">
+        <v>52</v>
+      </c>
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61" t="s">
+        <v>63</v>
+      </c>
+      <c r="F61" t="s">
+        <v>672</v>
+      </c>
+      <c r="G61" t="s">
+        <v>673</v>
+      </c>
+      <c r="H61" t="s">
+        <v>674</v>
+      </c>
+      <c r="I61" t="s">
+        <v>781</v>
+      </c>
+      <c r="J61" t="s">
+        <v>782</v>
+      </c>
+      <c r="K61" t="s">
+        <v>783</v>
+      </c>
+      <c r="L61">
+        <v>3</v>
+      </c>
+      <c r="M61" t="s">
+        <v>784</v>
+      </c>
+      <c r="N61" t="s">
+        <v>148</v>
+      </c>
+      <c r="O61" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="1">
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>62</v>
+      </c>
+      <c r="D62" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" t="s">
+        <v>63</v>
+      </c>
+      <c r="F62" t="s">
+        <v>672</v>
+      </c>
+      <c r="G62" t="s">
+        <v>673</v>
+      </c>
+      <c r="H62" t="s">
+        <v>674</v>
+      </c>
+      <c r="I62" t="s">
+        <v>785</v>
+      </c>
+      <c r="J62" t="s">
+        <v>786</v>
+      </c>
+      <c r="K62" t="s">
+        <v>787</v>
+      </c>
+      <c r="L62">
+        <v>10</v>
+      </c>
+      <c r="M62" t="s">
+        <v>788</v>
+      </c>
+      <c r="N62" t="s">
+        <v>152</v>
+      </c>
+      <c r="O62" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="1">
+        <v>25</v>
+      </c>
+      <c r="B63" t="s">
+        <v>415</v>
+      </c>
+      <c r="C63" t="s">
+        <v>416</v>
+      </c>
+      <c r="D63" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" t="s">
+        <v>417</v>
+      </c>
+      <c r="F63" t="s">
+        <v>698</v>
+      </c>
+      <c r="G63" t="s">
+        <v>699</v>
+      </c>
+      <c r="H63" t="s">
+        <v>700</v>
+      </c>
+      <c r="I63" t="s">
+        <v>426</v>
+      </c>
+      <c r="J63" t="s">
+        <v>427</v>
+      </c>
+      <c r="K63" t="s">
+        <v>789</v>
+      </c>
+      <c r="L63">
+        <v>6</v>
+      </c>
+      <c r="M63" t="s">
+        <v>545</v>
+      </c>
+      <c r="N63" t="s">
+        <v>546</v>
+      </c>
+      <c r="O63" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="1">
+        <v>27</v>
+      </c>
+      <c r="B64" t="s">
+        <v>415</v>
+      </c>
+      <c r="C64" t="s">
+        <v>416</v>
+      </c>
+      <c r="D64" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" t="s">
+        <v>417</v>
+      </c>
+      <c r="F64" t="s">
+        <v>698</v>
+      </c>
+      <c r="G64" t="s">
+        <v>699</v>
+      </c>
+      <c r="H64" t="s">
+        <v>700</v>
+      </c>
+      <c r="I64" t="s">
+        <v>565</v>
+      </c>
+      <c r="J64" t="s">
+        <v>566</v>
+      </c>
+      <c r="K64" t="s">
+        <v>321</v>
+      </c>
+      <c r="L64">
+        <v>8</v>
+      </c>
+      <c r="M64" t="s">
+        <v>545</v>
+      </c>
+      <c r="N64" t="s">
+        <v>546</v>
+      </c>
+      <c r="O64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="1">
+        <v>44</v>
+      </c>
+      <c r="B65" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" t="s">
+        <v>46</v>
+      </c>
+      <c r="E65" t="s">
+        <v>47</v>
+      </c>
+      <c r="F65" t="s">
+        <v>680</v>
+      </c>
+      <c r="G65" t="s">
+        <v>681</v>
+      </c>
+      <c r="H65" t="s">
+        <v>682</v>
+      </c>
+      <c r="I65" t="s">
+        <v>163</v>
+      </c>
+      <c r="J65" t="s">
+        <v>164</v>
+      </c>
+      <c r="K65" t="s">
+        <v>709</v>
+      </c>
+      <c r="L65">
+        <v>5</v>
+      </c>
+      <c r="M65" t="s">
+        <v>545</v>
+      </c>
+      <c r="N65" t="s">
+        <v>546</v>
+      </c>
+      <c r="O65" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="1">
+        <v>21</v>
+      </c>
+      <c r="B66" t="s">
+        <v>415</v>
+      </c>
+      <c r="C66" t="s">
+        <v>416</v>
+      </c>
+      <c r="D66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" t="s">
+        <v>417</v>
+      </c>
+      <c r="F66" t="s">
+        <v>698</v>
+      </c>
+      <c r="G66" t="s">
+        <v>699</v>
+      </c>
+      <c r="H66" t="s">
+        <v>700</v>
+      </c>
+      <c r="I66" t="s">
+        <v>318</v>
+      </c>
+      <c r="J66" t="s">
+        <v>319</v>
+      </c>
+      <c r="K66" t="s">
+        <v>790</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66" t="s">
+        <v>562</v>
+      </c>
+      <c r="N66" t="s">
+        <v>563</v>
+      </c>
+      <c r="O66" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="1">
+        <v>26</v>
+      </c>
+      <c r="B67" t="s">
+        <v>415</v>
+      </c>
+      <c r="C67" t="s">
+        <v>416</v>
+      </c>
+      <c r="D67" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" t="s">
+        <v>417</v>
+      </c>
+      <c r="F67" t="s">
+        <v>698</v>
+      </c>
+      <c r="G67" t="s">
+        <v>699</v>
+      </c>
+      <c r="H67" t="s">
+        <v>700</v>
+      </c>
+      <c r="I67" t="s">
+        <v>429</v>
+      </c>
+      <c r="J67" t="s">
+        <v>430</v>
+      </c>
+      <c r="K67" t="s">
+        <v>791</v>
+      </c>
+      <c r="L67">
+        <v>7</v>
+      </c>
+      <c r="M67" t="s">
+        <v>562</v>
+      </c>
+      <c r="N67" t="s">
+        <v>563</v>
+      </c>
+      <c r="O67" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="1">
+        <v>49</v>
+      </c>
+      <c r="B68" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" t="s">
+        <v>45</v>
+      </c>
+      <c r="D68" t="s">
+        <v>46</v>
+      </c>
+      <c r="E68" t="s">
+        <v>47</v>
+      </c>
+      <c r="F68" t="s">
+        <v>680</v>
+      </c>
+      <c r="G68" t="s">
+        <v>681</v>
+      </c>
+      <c r="H68" t="s">
+        <v>682</v>
+      </c>
+      <c r="I68" t="s">
+        <v>166</v>
+      </c>
+      <c r="J68" t="s">
+        <v>167</v>
+      </c>
+      <c r="K68" t="s">
+        <v>201</v>
+      </c>
+      <c r="L68">
+        <v>10</v>
+      </c>
+      <c r="M68" t="s">
+        <v>562</v>
+      </c>
+      <c r="N68" t="s">
+        <v>563</v>
+      </c>
+      <c r="O68" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="1">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>481</v>
+      </c>
+      <c r="C69" t="s">
+        <v>482</v>
+      </c>
+      <c r="D69" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" t="s">
+        <v>483</v>
+      </c>
+      <c r="F69" t="s">
+        <v>658</v>
+      </c>
+      <c r="G69" t="s">
+        <v>659</v>
+      </c>
+      <c r="H69" t="s">
+        <v>660</v>
+      </c>
+      <c r="I69" t="s">
+        <v>318</v>
+      </c>
+      <c r="J69" t="s">
+        <v>319</v>
+      </c>
+      <c r="K69" t="s">
+        <v>553</v>
+      </c>
+      <c r="L69">
+        <v>10</v>
+      </c>
+      <c r="M69" t="s">
+        <v>562</v>
+      </c>
+      <c r="N69" t="s">
+        <v>563</v>
+      </c>
+      <c r="O69" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="1">
+        <v>31</v>
+      </c>
+      <c r="B70" t="s">
+        <v>453</v>
+      </c>
+      <c r="C70" t="s">
+        <v>454</v>
+      </c>
+      <c r="D70" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" t="s">
+        <v>455</v>
+      </c>
+      <c r="F70" t="s">
+        <v>668</v>
+      </c>
+      <c r="G70" t="s">
+        <v>669</v>
+      </c>
+      <c r="H70" t="s">
+        <v>670</v>
+      </c>
+      <c r="I70" t="s">
+        <v>792</v>
+      </c>
+      <c r="J70" t="s">
+        <v>793</v>
+      </c>
+      <c r="K70" t="s">
+        <v>332</v>
+      </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
+      <c r="M70" t="s">
+        <v>230</v>
+      </c>
+      <c r="N70" t="s">
+        <v>519</v>
+      </c>
+      <c r="O70" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="1">
+        <v>35</v>
+      </c>
+      <c r="B71" t="s">
+        <v>453</v>
+      </c>
+      <c r="C71" t="s">
+        <v>454</v>
+      </c>
+      <c r="D71" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71" t="s">
+        <v>455</v>
+      </c>
+      <c r="F71" t="s">
+        <v>668</v>
+      </c>
+      <c r="G71" t="s">
+        <v>669</v>
+      </c>
+      <c r="H71" t="s">
+        <v>670</v>
+      </c>
+      <c r="I71" t="s">
+        <v>227</v>
+      </c>
+      <c r="J71" t="s">
+        <v>228</v>
+      </c>
+      <c r="K71" t="s">
+        <v>794</v>
+      </c>
+      <c r="L71">
+        <v>6</v>
+      </c>
+      <c r="M71" t="s">
+        <v>230</v>
+      </c>
+      <c r="N71" t="s">
+        <v>519</v>
+      </c>
+      <c r="O71" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:O71">
+    <sortCondition ref="O2:O71"/>
+    <sortCondition ref="N2:N71"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/数据整理/funds/高分权益基金组合十大持仓明细.xlsx
+++ b/数据整理/funds/高分权益基金组合十大持仓明细.xlsx
@@ -12,6 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="十大持仓明细--2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="十大持仓明细--2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="十大持仓明细--2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="十大持仓明细--2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'十大持仓明细--2021-Q1'!$A$1:$O$61</definedName>
@@ -29417,4 +29418,5205 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="9" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="9" t="inlineStr">
+        <is>
+          <t>基金类型</t>
+        </is>
+      </c>
+      <c r="E1" s="9" t="inlineStr">
+        <is>
+          <t>基金经理</t>
+        </is>
+      </c>
+      <c r="F1" s="9" t="inlineStr">
+        <is>
+          <t>基金总资产（亿元）</t>
+        </is>
+      </c>
+      <c r="G1" s="9" t="inlineStr">
+        <is>
+          <t>基金股票总仓位</t>
+        </is>
+      </c>
+      <c r="H1" s="9" t="inlineStr">
+        <is>
+          <t>十大股票仓位</t>
+        </is>
+      </c>
+      <c r="I1" s="9" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="J1" s="9" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="K1" s="9" t="inlineStr">
+        <is>
+          <t>所占仓位</t>
+        </is>
+      </c>
+      <c r="L1" s="9" t="inlineStr">
+        <is>
+          <t>所处仓位排名</t>
+        </is>
+      </c>
+      <c r="M1" s="9" t="inlineStr">
+        <is>
+          <t>三级行业</t>
+        </is>
+      </c>
+      <c r="N1" s="9" t="inlineStr">
+        <is>
+          <t>二级行业</t>
+        </is>
+      </c>
+      <c r="O1" s="9" t="inlineStr">
+        <is>
+          <t>一级行业</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>王斌</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>28.77</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>600519</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>贵州茅台</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>白酒Ⅲ</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>白酒Ⅱ</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>食品饮料</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>王斌</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>28.77</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>600559</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>老白干酒</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>白酒Ⅲ</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>白酒Ⅱ</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>食品饮料</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>王斌</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>28.77</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>600029</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>南方航空</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>3</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>航空运输</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>航空机场</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>交通运输</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>王斌</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>28.77</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>002597</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>金禾实业</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>食品及饲料添加剂</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>基础化工</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>王斌</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>28.77</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>比亚迪</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>电动乘用车</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>乘用车</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>汽车</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>王斌</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>28.77</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>601816</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>京沪高铁</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>6</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>铁路运输</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>铁路公路</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>交通运输</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>王斌</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>28.77</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>600690</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>海尔智家</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>7</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>冰洗</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>白色家电</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>家用电器</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>王斌</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>28.77</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>600754</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>锦江酒店</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>8</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>酒店</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>酒店餐饮</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>社会服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>王斌</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>28.77</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>600216</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>浙江医药</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>9</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>原料药</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>化学制药</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>医药生物</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>王斌</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>28.77</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>601111</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>中国国航</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>10</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>航空运输</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>航空机场</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>交通运输</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>普通股票型</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>张宇帆</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>37.22</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>002352</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>顺丰控股</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>快递</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>物流</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>交通运输</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>普通股票型</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>张宇帆</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>37.22</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>601021</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>春秋航空</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>航空运输</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>航空机场</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>交通运输</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>普通股票型</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>张宇帆</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>37.22</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>300627</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>华测导航</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>3</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>通信终端及配件</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>通信设备</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>通信</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>普通股票型</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>张宇帆</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>37.22</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>688063</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>派能科技</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>4</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>锂电池</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>电池</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>电力设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>普通股票型</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>张宇帆</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>37.22</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>601238</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>广汽集团</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>5</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>综合乘用车</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>乘用车</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>汽车</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>普通股票型</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>张宇帆</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>37.22</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>688008</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>澜起科技</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>6</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>数字芯片设计</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>半导体</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>电子</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>普通股票型</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>张宇帆</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>37.22</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>600116</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>三峡水利</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>7</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>电能综合服务</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>电力</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>公用事业</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>普通股票型</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>张宇帆</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>37.22</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>比亚迪</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>8</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>电动乘用车</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>乘用车</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>汽车</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>普通股票型</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>张宇帆</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>37.22</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>603236</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>移远通信</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>9</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>通信终端及配件</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>通信设备</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>通信</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>普通股票型</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>张宇帆</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>37.22</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>002025</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>航天电器</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>10</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>军工电子Ⅲ</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>军工电子Ⅱ</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>国防军工</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>普通股票型</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>杜洋</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>52.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>51.80</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>601668</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>中国建筑</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>房屋建设Ⅲ</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>房屋建设Ⅱ</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>普通股票型</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>杜洋</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>52.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>51.80</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>601166</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>兴业银行</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>股份制银行Ⅲ</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>股份制银行Ⅱ</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>银行</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>普通股票型</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>杜洋</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>52.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>51.80</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>600048</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>保利发展</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>3</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>住宅开发</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>房地产开发</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>普通股票型</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>杜洋</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>52.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>51.80</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>600383</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>金地集团</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>4</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>住宅开发</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>房地产开发</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>普通股票型</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>杜洋</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>52.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>51.80</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>001979</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>招商蛇口</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>5</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>商业地产</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>房地产开发</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>普通股票型</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>杜洋</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>52.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>51.80</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>601818</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>光大银行</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>6</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>股份制银行Ⅲ</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>股份制银行Ⅱ</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>银行</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>普通股票型</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>杜洋</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>52.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>51.80</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>601009</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>南京银行</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>7</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>城商行Ⅲ</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>城商行Ⅱ</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>银行</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>普通股票型</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>杜洋</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>52.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>51.80</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>601838</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>成都银行</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>8</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>城商行Ⅲ</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>城商行Ⅱ</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>银行</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>普通股票型</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>杜洋</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>52.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>51.80</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>600926</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>杭州银行</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>9</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>城商行Ⅲ</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>城商行Ⅱ</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>银行</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>普通股票型</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>杜洋</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>52.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>51.80</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>603018</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>华设集团</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>10</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>工程咨询服务Ⅲ</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>工程咨询服务Ⅱ</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>陆彬</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>103.43</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>51.61</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>002466</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>天齐锂业</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>锂</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>能源金属</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>有色金属</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>陆彬</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>103.43</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>51.61</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>002460</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>赣锋锂业</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>2</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>锂</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>能源金属</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>有色金属</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>陆彬</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>103.43</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>51.61</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>300750</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>宁德时代</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>3</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>锂电池</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>电池</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>电力设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>陆彬</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>103.43</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>51.61</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>300059</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>东方财富</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>4</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>证券Ⅲ</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>证券Ⅱ</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>非银金融</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>陆彬</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>103.43</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>51.61</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>300454</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>深信服</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>5</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>横向通用软件</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>软件开发</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>计算机</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>陆彬</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>103.43</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>51.61</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>601318</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>中国平安</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>6</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>保险Ⅲ</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>保险Ⅱ</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>非银金融</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>陆彬</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>103.43</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>51.61</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>000792</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>盐湖股份</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>7</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>钾肥</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>农化制品</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>基础化工</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>陆彬</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>103.43</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>51.61</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>002497</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>雅化集团</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>8</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>民爆制品</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>基础化工</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>陆彬</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>103.43</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>51.61</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>600030</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>中信证券</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>9</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>证券Ⅲ</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>证券Ⅱ</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>非银金融</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>陆彬</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>103.43</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>51.61</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>601601</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>中国太保</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>10</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>保险Ⅲ</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>保险Ⅱ</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>非银金融</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>标准混合型基金</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>徐荔蓉</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>63.14</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>45.20</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>300782</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>卓胜微</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>模拟芯片设计</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>半导体</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>电子</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>标准混合型基金</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>徐荔蓉</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>63.14</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>45.20</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>300751</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>迈为股份</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>2</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>光伏加工设备</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>光伏设备</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>电力设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>标准混合型基金</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>徐荔蓉</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>63.14</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>45.20</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>601012</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>隆基绿能</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>3</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>硅料硅片</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>光伏设备</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>电力设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>标准混合型基金</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>徐荔蓉</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>63.14</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>45.20</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>002142</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>宁波银行</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>4</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>城商行Ⅲ</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>城商行Ⅱ</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>银行</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>标准混合型基金</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>徐荔蓉</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>63.14</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>45.20</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>002001</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>新和成</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>5</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>原料药</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>化学制药</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>医药生物</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>标准混合型基金</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>徐荔蓉</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>63.14</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>45.20</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>603868</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>飞科电器</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>6</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>个护小家电</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>小家电</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>家用电器</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>标准混合型基金</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>徐荔蓉</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>63.14</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>45.20</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>002648</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>卫星化学</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>7</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>其他化学制品</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>基础化工</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>标准混合型基金</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>徐荔蓉</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>63.14</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>45.20</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>300059</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>东方财富</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>8</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>证券Ⅲ</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>证券Ⅱ</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>非银金融</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>标准混合型基金</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>徐荔蓉</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>63.14</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>45.20</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>603899</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>晨光股份</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>9</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>文化用品</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>文娱用品</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>轻工制造</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>标准混合型基金</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>徐荔蓉</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>63.14</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>45.20</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>600036</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>招商银行</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>10</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>股份制银行Ⅲ</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>股份制银行Ⅱ</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>银行</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>姜锋</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>12.91</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>36.63</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>002129</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>TCL中环</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>硅料硅片</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>光伏设备</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>电力设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>姜锋</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>12.91</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>36.63</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>600522</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>中天科技</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>2</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>通信线缆及配套</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>通信设备</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>通信</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>姜锋</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>12.91</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>36.63</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>300316</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>晶盛机电</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>3</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>光伏加工设备</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>光伏设备</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>电力设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>姜锋</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>12.91</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>36.63</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>000519</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>中兵红箭</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>4</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>地面兵装Ⅲ</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>地面兵装Ⅱ</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>国防军工</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>姜锋</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>12.91</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>36.63</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>000733</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>振华科技</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>5</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>军工电子Ⅲ</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>军工电子Ⅱ</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>国防军工</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>姜锋</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>12.91</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>36.63</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>300390</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>天华超净</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>6</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>其他电子Ⅲ</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>其他电子Ⅱ</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>电子</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>姜锋</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>12.91</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>36.63</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>300260</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>新莱应材</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>7</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>金属制品</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>通用设备</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>机械设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>姜锋</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>12.91</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>36.63</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>600188</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>兖矿能源</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>8</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>动力煤</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>煤炭开采</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>煤炭</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>姜锋</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>12.91</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>36.63</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>600487</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>亨通光电</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>9</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>通信线缆及配套</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>通信设备</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>通信</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>姜锋</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>12.91</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>36.63</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>002371</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>北方华创</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>10</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>半导体设备</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>半导体</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>电子</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>邹欣</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>72.19</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>44.86</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>300413</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>芒果超媒</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>视频媒体</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>数字媒体</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>传媒</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>邹欣</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>72.19</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>44.86</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>002120</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>韵达股份</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>2</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>快递</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>物流</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>交通运输</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>邹欣</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>72.19</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>44.86</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>300750</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>宁德时代</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>3</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>锂电池</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>电池</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>电力设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>邹欣</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>72.19</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>44.86</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>比亚迪</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>4</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>电动乘用车</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>乘用车</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>汽车</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>邹欣</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>72.19</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>44.86</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>海康威视</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>5</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>安防设备</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>计算机设备</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>计算机</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>邹欣</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>72.19</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>44.86</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>600938</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>中国海油</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>6</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>油气开采Ⅲ</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>油气开采Ⅱ</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>石油石化</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>邹欣</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>72.19</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>44.86</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>603986</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>兆易创新</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>7</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>数字芯片设计</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>半导体</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>电子</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>邹欣</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>72.19</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>44.86</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>鹏鼎控股</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>8</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>印制电路板</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>元件</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>电子</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>邹欣</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>72.19</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>44.86</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>600703</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>三安光电</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>9</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>LED</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>光学光电子</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>电子</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>积极配置型</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>邹欣</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>72.19</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>44.86</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>600009</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>上海机场</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>10</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>机场</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>航空机场</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>交通运输</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>